--- a/results.xlsx
+++ b/results.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D345"/>
+  <dimension ref="A1:D350"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -104,12 +104,12 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Luiz Chalola</t>
+          <t>Lais Provedel</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Analista de Tecnologia da Informação Pleno na Ranbaxy Farmaceutica Ltda</t>
+          <t>Diretora Comercial e Ecommerce na Grupo Sacada / Oh, Boy! / Addict</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
@@ -126,12 +126,12 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Mauricio C.</t>
+          <t>Prof. Ricardo Razuk</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>IT/Telecom Project Manager and Entrepreneur</t>
+          <t>Academic Coordinator at FGV/EBAPE</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -148,17 +148,17 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Gildasio Rocha</t>
+          <t>Eduardo Marinho</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>CIO - Diretor Tecnologia da Informação at Grupo Serveng</t>
+          <t>Business Development</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
@@ -170,17 +170,17 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>Prof. Ricardo Razuk</t>
+          <t>Gildasio Rocha</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Academic Coordinator at FGV/EBAPE</t>
+          <t>CIO - Diretor Tecnologia da Informação at Grupo Serveng</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
@@ -192,35 +192,39 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>João Luis Casagrande</t>
+          <t>Leonardo da Costa</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Owner, Casagrande Engenharia &amp; Consultoria</t>
+          <t>Sales Director</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D6" s="0"/>
+          <t>São Paulo e Região</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Leonardo da Costa</t>
+          <t>Mauricio C.</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Sales Director</t>
+          <t>IT/Telecom Project Manager and Entrepreneur</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
@@ -276,34 +280,34 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Lais Provedel</t>
+          <t>João Luis Casagrande</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Diretora Comercial e Ecommerce na Grupo Sacada / Oh, Boy! / Addict</t>
+          <t>Owner, Casagrande Engenharia &amp; Consultoria</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Eduardo Marinho</t>
+          <t>Luiz Chalola</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Business Development</t>
+          <t>Analista de Tecnologia da Informação Pleno na Ranbaxy Farmaceutica Ltda</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -320,22 +324,22 @@
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Luís T.</t>
+          <t>Fernando S.</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>IT Senior Project Manager</t>
+          <t>Gerente de Planejamento - Comercial Farma na Hypermarcas S/A</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>Porto e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t> Portugal</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
@@ -364,17 +368,17 @@
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Fábio Bonanho</t>
+          <t>Gilberto Cordeiro</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Contas Sênior de TI</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
@@ -386,17 +390,17 @@
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Tatiana Lerner</t>
+          <t>Haroldo B.</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Latin America Project Director at Ventyx, an ABB company</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
@@ -430,17 +434,17 @@
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Haroldo B.</t>
+          <t>Rogerio Klayn</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Latin America Project Director at Ventyx, an ABB company</t>
+          <t>Vale</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
@@ -452,17 +456,17 @@
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Gilberto Cordeiro</t>
+          <t>Fábio Bonanho</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Gerente de Contas Sênior de TI</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -474,12 +478,12 @@
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Rogerio Klayn</t>
+          <t>Tatiana Lerner</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Vale</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -496,52 +500,56 @@
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Sérgio P.</t>
+          <t>Luís T.</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>Project Manager at Equus SA</t>
+          <t>IT Senior Project Manager</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>Suíça</t>
-        </is>
-      </c>
-      <c r="D20" s="0"/>
+          <t>Porto e Região</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t> Portugal</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Fernando S.</t>
+          <t>Sérgio P.</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Planejamento - Comercial Farma na Hypermarcas S/A</t>
+          <t>Project Manager at Equus SA</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Suíça</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Thales Miranda</t>
+          <t>Gustavo Baraldi</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner at Visagio</t>
+          <t>Regional Manager na Report Sustentabilidade</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -558,22 +566,22 @@
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>Alessandro P.</t>
+          <t>Igor Alves</t>
         </is>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Projetos | Analista de Negócios | HCM</t>
+          <t>Senior Software Development Engineer at Sii Polska</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Wroclaw</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Lower Silesian District</t>
         </is>
       </c>
     </row>
@@ -602,39 +610,39 @@
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>Igor Alves</t>
+          <t>Mariana Santiago</t>
         </is>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>Senior Software Development Engineer at Sii Polska</t>
+          <t>Owner na MS8 Consultoria</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>Wroclaw</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t> Lower Silesian District</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>Mariana Santiago</t>
+          <t>Alessandro P.</t>
         </is>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>Owner na MS8 Consultoria</t>
+          <t>Gerente de Projetos | Analista de Negócios | HCM</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
@@ -646,17 +654,17 @@
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Gustavo Baraldi</t>
+          <t>Luke Barbara</t>
         </is>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>Regional Manager na Report Sustentabilidade</t>
+          <t>Desenvolvimento de Negócios, TC Global</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
@@ -668,17 +676,17 @@
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>Luke Barbara</t>
+          <t>Adriano Brito</t>
         </is>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>Desenvolvimento de Negócios, TC Global</t>
+          <t>Engenheiro de Software, Mestre em Ciência da Computação</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
@@ -712,12 +720,12 @@
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>Mariana Niemeyer</t>
+          <t>Thales Miranda</t>
         </is>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>Associate Consultant at Visagio</t>
+          <t>Managing Partner at Visagio</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
@@ -734,12 +742,12 @@
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Adriano Brito</t>
+          <t>Mariana Niemeyer</t>
         </is>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>Engenheiro de Software, Mestre em Ciência da Computação</t>
+          <t>Associate Consultant at Visagio</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -756,35 +764,39 @@
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>Thiago Cabeço</t>
+          <t>Monica Ferreira Freire, HCMBOK®, HCMP®</t>
         </is>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>Associate Partner at Visagio</t>
+          <t>Gestão da Mudança / Change Management / Comunicação</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D32" s="0"/>
+          <t>Rio de Janeiro e Região</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>Felipe Galvão</t>
+          <t>Fábio S.</t>
         </is>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>Engenheiro de Produção na Geris (Petrobras) / Empreendedor no Funnaticos / Desenvolvedor VBA</t>
+          <t>Senior Manager at Robert Half</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D33" s="0" t="inlineStr">
@@ -796,12 +808,12 @@
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>Monica Ferreira Freire, HCMBOK®, HCMP®</t>
+          <t>Flavio Simões</t>
         </is>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>Gestão da Mudança / Change Management / Comunicação</t>
+          <t>Analista em Engenharia de Produção</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
@@ -862,17 +874,17 @@
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>Luis R.</t>
+          <t>Felipe Galvão</t>
         </is>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>Diretor Técnico/Comercial Onemax Automação e Sistemas</t>
+          <t>Engenheiro de Produção na Geris (Petrobras) / Empreendedor no Funnaticos / Desenvolvedor VBA</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D37" s="0" t="inlineStr">
@@ -884,17 +896,17 @@
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>Flavio Simões</t>
+          <t>Luis R.</t>
         </is>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>Analista em Engenharia de Produção</t>
+          <t>Diretor Técnico/Comercial Onemax Automação e Sistemas</t>
         </is>
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D38" s="0" t="inlineStr">
@@ -906,17 +918,17 @@
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>Fábio S.</t>
+          <t>Mariana C.</t>
         </is>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>Senior Manager at Robert Half</t>
+          <t>Secretária Executiva Bilíngue</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D39" s="0" t="inlineStr">
@@ -928,34 +940,34 @@
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>Joao Marcelo Brasil</t>
+          <t>Thiago Cabeço</t>
         </is>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>Operations Project Manager</t>
+          <t>Associate Partner at Visagio</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>Mariana C.</t>
+          <t>Joao Marcelo Brasil</t>
         </is>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>Secretária Executiva Bilíngue</t>
+          <t>Operations Project Manager</t>
         </is>
       </c>
       <c r="C41" s="0" t="inlineStr">
@@ -972,17 +984,17 @@
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>Izaias Miguel</t>
+          <t>Miriana Boscardin</t>
         </is>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner at Visagio Technology and Visagio Management Engineering</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D42" s="0" t="inlineStr">
@@ -994,17 +1006,17 @@
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>Christian Omar Llanir</t>
+          <t>Wladas M.</t>
         </is>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>LATAM New Business Development Director at EBDI - Enterprise Business Development &amp; Information</t>
+          <t>Gestão de informações &amp; desempenho | Projetos | Compras | Tecnologia | Consultoria</t>
         </is>
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Florianópolis e Região</t>
         </is>
       </c>
       <c r="D43" s="0" t="inlineStr">
@@ -1016,12 +1028,12 @@
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>João Vinicius Louvem</t>
+          <t>Izaias Miguel</t>
         </is>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>Analista e Desenvolvedor de Sistemas | Engenheiro de Software</t>
+          <t>Managing Partner at Visagio Technology and Visagio Management Engineering</t>
         </is>
       </c>
       <c r="C44" s="0" t="inlineStr">
@@ -1038,22 +1050,22 @@
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>Miriana Boscardin</t>
+          <t>Eduardo Uchôa</t>
         </is>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>senior leader consultant at CSC</t>
         </is>
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D45" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
@@ -1104,35 +1116,39 @@
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>Eduardo Uchôa</t>
+          <t>Rogerio Araujo, PMP</t>
         </is>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>senior leader consultant at CSC</t>
+          <t>Gerente de Consultoria at Artsoft Sistemas</t>
         </is>
       </c>
       <c r="C48" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D48" s="0"/>
+          <t>Rio de Janeiro e Região</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>Wladas M.</t>
+          <t>João Vinicius Louvem</t>
         </is>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>Gestão de informações &amp; desempenho | Projetos | Compras | Tecnologia | Consultoria</t>
+          <t>Analista e Desenvolvedor de Sistemas | Engenheiro de Software</t>
         </is>
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
-          <t>Florianópolis e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D49" s="0" t="inlineStr">
@@ -1144,17 +1160,17 @@
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>Rogerio Araujo, PMP</t>
+          <t>Christian Omar Llanir</t>
         </is>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Consultoria at Artsoft Sistemas</t>
+          <t>LATAM New Business Development Director at EBDI - Enterprise Business Development &amp; Information</t>
         </is>
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D50" s="0" t="inlineStr">
@@ -1188,17 +1204,17 @@
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>Ricardo Satin, ITIL, MBA, CSM, PMP</t>
+          <t>Ana Paula Langsch</t>
         </is>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>Head de Desenvolvimento - Ensino Presencial – IT Desenvolvimento (ITD) at Unicesumar</t>
+          <t>Associate Partner at Visagio</t>
         </is>
       </c>
       <c r="C52" s="0" t="inlineStr">
         <is>
-          <t>Maringá e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D52" s="0" t="inlineStr">
@@ -1210,17 +1226,17 @@
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>Agapito Troina</t>
+          <t>Mariana B.</t>
         </is>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>Associate Partner at Visagio</t>
+          <t>Especialista em Excelência Operacional - AkzoNobel</t>
         </is>
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D53" s="0" t="inlineStr">
@@ -1254,17 +1270,17 @@
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>Newton Ribeiro</t>
+          <t>Pedro Barata</t>
         </is>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>Director at Grupo Imaginarium</t>
+          <t>Senior Management Consultant</t>
         </is>
       </c>
       <c r="C55" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D55" s="0" t="inlineStr">
@@ -1276,17 +1292,17 @@
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>Rodrigo M.</t>
+          <t>Alexandre Souza</t>
         </is>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>Advogado</t>
+          <t>Executive Director at OUTMarketing Brasil</t>
         </is>
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D56" s="0" t="inlineStr">
@@ -1298,12 +1314,12 @@
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>Mariana B.</t>
+          <t>Newton Ribeiro</t>
         </is>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>Especialista em Excelência Operacional - AkzoNobel</t>
+          <t>Director at Grupo Imaginarium</t>
         </is>
       </c>
       <c r="C57" s="0" t="inlineStr">
@@ -1320,17 +1336,17 @@
     <row r="58">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>Mauro M.</t>
+          <t>Agapito Troina</t>
         </is>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>Full IT Lawyer - Microsoft Brazil - Secondment from PK Advogados</t>
+          <t>Associate Partner at Visagio</t>
         </is>
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D58" s="0" t="inlineStr">
@@ -1342,17 +1358,17 @@
     <row r="59">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>Pedro Barata</t>
+          <t>Mauro M.</t>
         </is>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>Senior Management Consultant</t>
+          <t>Full IT Lawyer - Microsoft Brazil - Secondment from PK Advogados</t>
         </is>
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D59" s="0" t="inlineStr">
@@ -1364,17 +1380,17 @@
     <row r="60">
       <c r="A60" s="0" t="inlineStr">
         <is>
-          <t>Alexandre Souza</t>
+          <t>Ricardo Satin, ITIL, MBA, CSM, PMP</t>
         </is>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>Executive Director at OUTMarketing Brasil</t>
+          <t>Head de Desenvolvimento - Ensino Presencial – IT Desenvolvimento (ITD) at Unicesumar</t>
         </is>
       </c>
       <c r="C60" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Maringá e Região</t>
         </is>
       </c>
       <c r="D60" s="0" t="inlineStr">
@@ -1386,12 +1402,12 @@
     <row r="61">
       <c r="A61" s="0" t="inlineStr">
         <is>
-          <t>Ana Paula Langsch</t>
+          <t>Rodrigo M.</t>
         </is>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>Associate Partner at Visagio</t>
+          <t>Advogado</t>
         </is>
       </c>
       <c r="C61" s="0" t="inlineStr">
@@ -1408,12 +1424,12 @@
     <row r="62">
       <c r="A62" s="0" t="inlineStr">
         <is>
-          <t>Leonardo Machado</t>
+          <t>Eduardo Saggioro</t>
         </is>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>Co-founder and Managing Partner at Visagio</t>
+          <t>Managing Partner at Visagio</t>
         </is>
       </c>
       <c r="C62" s="0" t="inlineStr">
@@ -1430,17 +1446,17 @@
     <row r="63">
       <c r="A63" s="0" t="inlineStr">
         <is>
-          <t>Fabiano Muniz</t>
+          <t>Felipe De Leo</t>
         </is>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>Associate Partner at Visagio</t>
+          <t>Technical Consultant Trainee na Gemalto</t>
         </is>
       </c>
       <c r="C63" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D63" s="0" t="inlineStr">
@@ -1452,100 +1468,100 @@
     <row r="64">
       <c r="A64" s="0" t="inlineStr">
         <is>
-          <t>Marcela Menezes Leite Pinto</t>
+          <t>Tatiana Marujo Mendes</t>
         </is>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>Senior Consultant at Visagio</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C64" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="inlineStr">
         <is>
-          <t>Tiago Chaves</t>
+          <t>Monique Mattos Vimercati</t>
         </is>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>Consultor Autônomo em Logística, Gestão de projetos e Modelagem de dados</t>
+          <t>Managing Partner</t>
         </is>
       </c>
       <c r="C65" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="inlineStr">
         <is>
-          <t>Monique Mattos Vimercati</t>
+          <t>Fabiano Muniz</t>
         </is>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner</t>
+          <t>Associate Partner at Visagio</t>
         </is>
       </c>
       <c r="C66" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D66" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="inlineStr">
         <is>
-          <t>Tatiana Marujo Mendes</t>
+          <t>Ivo Ferreira</t>
         </is>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Managing Partner</t>
         </is>
       </c>
       <c r="C67" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Reino Unido</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="inlineStr">
         <is>
-          <t>Felipe De Leo</t>
+          <t>Leonardo Machado</t>
         </is>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>Technical Consultant Trainee na Gemalto</t>
+          <t>Co-founder and Managing Partner at Visagio</t>
         </is>
       </c>
       <c r="C68" s="0" t="inlineStr">
@@ -1584,30 +1600,34 @@
     <row r="70">
       <c r="A70" s="0" t="inlineStr">
         <is>
-          <t>Ivo Ferreira</t>
+          <t>Marcela Menezes Leite Pinto</t>
         </is>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner</t>
+          <t>Senior Consultant at Visagio</t>
         </is>
       </c>
       <c r="C70" s="0" t="inlineStr">
         <is>
-          <t>Reino Unido</t>
-        </is>
-      </c>
-      <c r="D70" s="0"/>
+          <t>Perth e Região</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t> Austrália</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="inlineStr">
         <is>
-          <t>Eduardo Saggioro</t>
+          <t>Tiago Chaves</t>
         </is>
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner at Visagio</t>
+          <t>Consultor Autônomo em Logística, Gestão de projetos e Modelagem de dados</t>
         </is>
       </c>
       <c r="C71" s="0" t="inlineStr">
@@ -1624,17 +1644,17 @@
     <row r="72">
       <c r="A72" s="0" t="inlineStr">
         <is>
-          <t>Alexandre Oliveira</t>
+          <t>Anderson S.</t>
         </is>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner at Visagio</t>
+          <t>Coordenador RH at Oxiteno</t>
         </is>
       </c>
       <c r="C72" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D72" s="0" t="inlineStr">
@@ -1646,12 +1666,12 @@
     <row r="73">
       <c r="A73" s="0" t="inlineStr">
         <is>
-          <t>Thales Bitencourt</t>
+          <t>Denni Moraes</t>
         </is>
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>Consultor na Visagio</t>
+          <t>Software Developer at TO Brasil</t>
         </is>
       </c>
       <c r="C73" s="0" t="inlineStr">
@@ -1668,12 +1688,12 @@
     <row r="74">
       <c r="A74" s="0" t="inlineStr">
         <is>
-          <t>Gustavo Touzo</t>
+          <t>Thales Bitencourt</t>
         </is>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>Java/Flex Developer na Avanti Prima Engenharia</t>
+          <t>Consultor na Visagio</t>
         </is>
       </c>
       <c r="C74" s="0" t="inlineStr">
@@ -1690,12 +1710,12 @@
     <row r="75">
       <c r="A75" s="0" t="inlineStr">
         <is>
-          <t>Níkollas Oliveira</t>
+          <t>Gustavo Touzo</t>
         </is>
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Java/Flex Developer na Avanti Prima Engenharia</t>
         </is>
       </c>
       <c r="C75" s="0" t="inlineStr">
@@ -1712,17 +1732,17 @@
     <row r="76">
       <c r="A76" s="0" t="inlineStr">
         <is>
-          <t>Anderson S.</t>
+          <t>Breno Rosso</t>
         </is>
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>Coordenador RH at Oxiteno</t>
+          <t>Business Controller na BTG Pactual</t>
         </is>
       </c>
       <c r="C76" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D76" s="0" t="inlineStr">
@@ -1734,17 +1754,17 @@
     <row r="77">
       <c r="A77" s="0" t="inlineStr">
         <is>
-          <t>Igor José F. Freitas</t>
+          <t>Alexandre Oliveira</t>
         </is>
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>Software Analyst – Energy &amp; Transportation at Intel</t>
+          <t>Managing Partner at Visagio</t>
         </is>
       </c>
       <c r="C77" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D77" s="0" t="inlineStr">
@@ -1756,12 +1776,12 @@
     <row r="78">
       <c r="A78" s="0" t="inlineStr">
         <is>
-          <t>Eduardo Pedreira de Oliveira</t>
+          <t>Níkollas Oliveira</t>
         </is>
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Logística SNAP LOGISTICA</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C78" s="0" t="inlineStr">
@@ -1778,12 +1798,12 @@
     <row r="79">
       <c r="A79" s="0" t="inlineStr">
         <is>
-          <t>Denni Moraes</t>
+          <t>Eduardo Pedreira de Oliveira</t>
         </is>
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>Software Developer at TO Brasil</t>
+          <t>Gerente de Logística SNAP LOGISTICA</t>
         </is>
       </c>
       <c r="C79" s="0" t="inlineStr">
@@ -1800,17 +1820,17 @@
     <row r="80">
       <c r="A80" s="0" t="inlineStr">
         <is>
-          <t>Bruno Medeiros</t>
+          <t>Igor José F. Freitas</t>
         </is>
       </c>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>Software Consultant at Visagio</t>
+          <t>Software Analyst – Energy &amp; Transportation at Intel</t>
         </is>
       </c>
       <c r="C80" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D80" s="0" t="inlineStr">
@@ -1822,12 +1842,12 @@
     <row r="81">
       <c r="A81" s="0" t="inlineStr">
         <is>
-          <t>Breno Rosso</t>
+          <t>Bruno Medeiros</t>
         </is>
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>Business Controller na BTG Pactual</t>
+          <t>Software Consultant at Visagio</t>
         </is>
       </c>
       <c r="C81" s="0" t="inlineStr">
@@ -1844,12 +1864,12 @@
     <row r="82">
       <c r="A82" s="0" t="inlineStr">
         <is>
-          <t>Stephanie F.</t>
+          <t>Vitor Braga</t>
         </is>
       </c>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>Reinsurance Broker at JLT Re Brasil</t>
+          <t>SAP SuccessFactors Professional Services Consultant na EPI-USE</t>
         </is>
       </c>
       <c r="C82" s="0" t="inlineStr">
@@ -1866,12 +1886,12 @@
     <row r="83">
       <c r="A83" s="0" t="inlineStr">
         <is>
-          <t>Vitor Braga</t>
+          <t>Ewerton Ramos</t>
         </is>
       </c>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors Professional Services Consultant na EPI-USE</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="C83" s="0" t="inlineStr">
@@ -1888,34 +1908,34 @@
     <row r="84">
       <c r="A84" s="0" t="inlineStr">
         <is>
-          <t>Rafael Ferreira</t>
+          <t>elpidio ,jr R.</t>
         </is>
       </c>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>Sócio at Vimercati e Ferreira Advogados</t>
+          <t>EVP- Head Operation at BROAD PRAISE LIMITED</t>
         </is>
       </c>
       <c r="C84" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Hong Kong</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="inlineStr">
         <is>
-          <t>Ewerton Ramos</t>
+          <t>Elivandio Moraes</t>
         </is>
       </c>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Coordenador de Controle e Performance at Lafarge Cement</t>
         </is>
       </c>
       <c r="C85" s="0" t="inlineStr">
@@ -1932,12 +1952,12 @@
     <row r="86">
       <c r="A86" s="0" t="inlineStr">
         <is>
-          <t>Felipe Saraiva</t>
+          <t>Rafael Ferreira</t>
         </is>
       </c>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>Software Engineer at GE Global Research</t>
+          <t>Sócio at Vimercati e Ferreira Advogados</t>
         </is>
       </c>
       <c r="C86" s="0" t="inlineStr">
@@ -1954,40 +1974,44 @@
     <row r="87">
       <c r="A87" s="0" t="inlineStr">
         <is>
-          <t>Felipe Ribeiro</t>
+          <t>Ersin S.</t>
         </is>
       </c>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Consultant at Accenture</t>
         </is>
       </c>
       <c r="C87" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D87" s="0"/>
+          <t>Istambul</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t> Turquia</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="inlineStr">
         <is>
-          <t>Ersin S.</t>
+          <t>Stephanie F.</t>
         </is>
       </c>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Accenture</t>
+          <t>Reinsurance Broker at JLT Re Brasil</t>
         </is>
       </c>
       <c r="C88" s="0" t="inlineStr">
         <is>
-          <t>Istambul</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t> Turquia</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
@@ -2016,74 +2040,78 @@
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
         <is>
-          <t>Elivandio Moraes</t>
+          <t>Felipe Ribeiro</t>
         </is>
       </c>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>Coordenador de Controle e Performance at Lafarge Cement</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C90" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D90" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
         <is>
-          <t>elpidio ,jr R.</t>
+          <t>Felipe Saraiva</t>
         </is>
       </c>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>EVP- Head Operation at BROAD PRAISE LIMITED</t>
+          <t>Software Engineer at GE Global Research</t>
         </is>
       </c>
       <c r="C91" s="0" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="D91" s="0"/>
+          <t>Rio de Janeiro e Região</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="inlineStr">
         <is>
-          <t>Igor Beckman</t>
+          <t>Paula Belfort</t>
         </is>
       </c>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Projetos na Peopleware Tecnologia</t>
+          <t>--</t>
         </is>
       </c>
       <c r="C92" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="inlineStr">
         <is>
-          <t>Rachel Nogueira</t>
+          <t>Leonardo Mietherhofer</t>
         </is>
       </c>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>Operations Manager at Eleva Educação</t>
+          <t>Gerente de Controles e Planejamento</t>
         </is>
       </c>
       <c r="C93" s="0" t="inlineStr">
@@ -2100,12 +2128,12 @@
     <row r="94">
       <c r="A94" s="0" t="inlineStr">
         <is>
-          <t>Leonardo Mietherhofer</t>
+          <t>Renata Mello</t>
         </is>
       </c>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Controles e Planejamento</t>
+          <t>Consultor SAP BW e SAP ABAP</t>
         </is>
       </c>
       <c r="C94" s="0" t="inlineStr">
@@ -2122,12 +2150,12 @@
     <row r="95">
       <c r="A95" s="0" t="inlineStr">
         <is>
-          <t>Elisa Gandour</t>
+          <t>Leonardo Marinho</t>
         </is>
       </c>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C95" s="0" t="inlineStr">
@@ -2166,34 +2194,34 @@
     <row r="97">
       <c r="A97" s="0" t="inlineStr">
         <is>
-          <t>Elizabeth Assmann da Silva</t>
+          <t>Igor Beckman</t>
         </is>
       </c>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Gerente de Projetos na Peopleware Tecnologia</t>
         </is>
       </c>
       <c r="C97" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="inlineStr">
         <is>
-          <t>Leonardo Marinho</t>
+          <t>Elisa Gandour</t>
         </is>
       </c>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C98" s="0" t="inlineStr">
@@ -2210,20 +2238,24 @@
     <row r="99">
       <c r="A99" s="0" t="inlineStr">
         <is>
-          <t>Paula Belfort</t>
+          <t>Elizabeth Assmann da Silva</t>
         </is>
       </c>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C99" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D99" s="0"/>
+          <t>Perth e Região</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t> Austrália</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="inlineStr">
@@ -2250,12 +2282,12 @@
     <row r="101">
       <c r="A101" s="0" t="inlineStr">
         <is>
-          <t>Renata Mello</t>
+          <t>Rachel Nogueira</t>
         </is>
       </c>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>Consultor SAP BW e SAP ABAP</t>
+          <t>Operations Manager at Eleva Educação</t>
         </is>
       </c>
       <c r="C101" s="0" t="inlineStr">
@@ -2272,17 +2304,17 @@
     <row r="102">
       <c r="A102" s="0" t="inlineStr">
         <is>
-          <t>Grasieli A. Lapi</t>
+          <t>André A.</t>
         </is>
       </c>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>Consultora na Visagio</t>
+          <t>Operador de Loja na Casa &amp; Video</t>
         </is>
       </c>
       <c r="C102" s="0" t="inlineStr">
         <is>
-          <t>Poços de Caldas e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D102" s="0" t="inlineStr">
@@ -2294,17 +2326,17 @@
     <row r="103">
       <c r="A103" s="0" t="inlineStr">
         <is>
-          <t>Paula M.</t>
+          <t>Aline N.</t>
         </is>
       </c>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>Analista de Processos Pleno na BPM Soluções em Processos de Negócio (BPM Solutions)</t>
+          <t>Gerente Operacional / Financeira / Gestão de contas à pagar/receber / Controle Compra/Estoque / MBA Gestão Empresarial</t>
         </is>
       </c>
       <c r="C103" s="0" t="inlineStr">
         <is>
-          <t>Porto Alegre e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D103" s="0" t="inlineStr">
@@ -2316,17 +2348,17 @@
     <row r="104">
       <c r="A104" s="0" t="inlineStr">
         <is>
-          <t>Regiane S.</t>
+          <t>Pedro de Pádua Paula</t>
         </is>
       </c>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>Gestão e Execução de Projetos e Negócios - Planejamento e Controle</t>
+          <t>Senior Consultant at Visagio</t>
         </is>
       </c>
       <c r="C104" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D104" s="0" t="inlineStr">
@@ -2338,17 +2370,17 @@
     <row r="105">
       <c r="A105" s="0" t="inlineStr">
         <is>
-          <t>Luzitania A.</t>
+          <t>Naira Splitter</t>
         </is>
       </c>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>Analista de Comunicação e Marketing - Especialista em eventos</t>
         </is>
       </c>
       <c r="C105" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D105" s="0" t="inlineStr">
@@ -2360,12 +2392,12 @@
     <row r="106">
       <c r="A106" s="0" t="inlineStr">
         <is>
-          <t>Naira Splitter</t>
+          <t>Flávia C.</t>
         </is>
       </c>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>Analista de Comunicação e Marketing - Especialista em eventos</t>
+          <t>Analista de RH na Siglasul Consultoria Ltda</t>
         </is>
       </c>
       <c r="C106" s="0" t="inlineStr">
@@ -2382,17 +2414,17 @@
     <row r="107">
       <c r="A107" s="0" t="inlineStr">
         <is>
-          <t>André A.</t>
+          <t>Paula M.</t>
         </is>
       </c>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>Operador de Loja na Casa &amp; Video</t>
+          <t>Analista de Processos Pleno na BPM Soluções em Processos de Negócio (BPM Solutions)</t>
         </is>
       </c>
       <c r="C107" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Porto Alegre e Região</t>
         </is>
       </c>
       <c r="D107" s="0" t="inlineStr">
@@ -2404,12 +2436,12 @@
     <row r="108">
       <c r="A108" s="0" t="inlineStr">
         <is>
-          <t>Renato Godinho</t>
+          <t>Regiane S.</t>
         </is>
       </c>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t>Analista de Sistemas - Brazilian Olympic Committee</t>
+          <t>Gestão e Execução de Projetos e Negócios - Planejamento e Controle</t>
         </is>
       </c>
       <c r="C108" s="0" t="inlineStr">
@@ -2426,17 +2458,17 @@
     <row r="109">
       <c r="A109" s="0" t="inlineStr">
         <is>
-          <t>Pedro de Pádua Paula</t>
+          <t>Renato Godinho</t>
         </is>
       </c>
       <c r="B109" s="0" t="inlineStr">
         <is>
-          <t>Senior Consultant at Visagio</t>
+          <t>Analista de Sistemas - Brazilian Olympic Committee</t>
         </is>
       </c>
       <c r="C109" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D109" s="0" t="inlineStr">
@@ -2448,17 +2480,17 @@
     <row r="110">
       <c r="A110" s="0" t="inlineStr">
         <is>
-          <t>Aline N.</t>
+          <t>Luzitania A.</t>
         </is>
       </c>
       <c r="B110" s="0" t="inlineStr">
         <is>
-          <t>Gerente Operacional / Financeira / Gestão de contas à pagar/receber / Controle Compra/Estoque / MBA Gestão Empresarial</t>
+          <t>--</t>
         </is>
       </c>
       <c r="C110" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D110" s="0" t="inlineStr">
@@ -2470,17 +2502,17 @@
     <row r="111">
       <c r="A111" s="0" t="inlineStr">
         <is>
-          <t>Flávia C.</t>
+          <t>Grasieli A. Lapi</t>
         </is>
       </c>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t>Analista de RH na Siglasul Consultoria Ltda</t>
+          <t>Consultora na Visagio</t>
         </is>
       </c>
       <c r="C111" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Poços de Caldas e Região</t>
         </is>
       </c>
       <c r="D111" s="0" t="inlineStr">
@@ -2492,17 +2524,17 @@
     <row r="112">
       <c r="A112" s="0" t="inlineStr">
         <is>
-          <t>Julio Sampaio</t>
+          <t>Bárbara Bivar</t>
         </is>
       </c>
       <c r="B112" s="0" t="inlineStr">
         <is>
-          <t>Java Developer na iFactory Solutions</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C112" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D112" s="0" t="inlineStr">
@@ -2514,17 +2546,17 @@
     <row r="113">
       <c r="A113" s="0" t="inlineStr">
         <is>
-          <t>Adriano L.</t>
+          <t>Maria Claudia Fialho</t>
         </is>
       </c>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t>Disponível no Mercado de Trabalho. Busco Recolocação!</t>
+          <t>Analista de Comunicação e Marketing na Visagio</t>
         </is>
       </c>
       <c r="C113" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D113" s="0" t="inlineStr">
@@ -2536,39 +2568,39 @@
     <row r="114">
       <c r="A114" s="0" t="inlineStr">
         <is>
-          <t>Maria Claudia Fialho</t>
+          <t>Pedro Montenegro</t>
         </is>
       </c>
       <c r="B114" s="0" t="inlineStr">
         <is>
-          <t>Analista de Comunicação e Marketing na Visagio</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C114" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="inlineStr">
         <is>
-          <t>Virgilio Vilas Boas</t>
+          <t>Adriano L.</t>
         </is>
       </c>
       <c r="B115" s="0" t="inlineStr">
         <is>
-          <t>Engenheiro de Produção Industrial com Especialização em Automação Industrial em Petróleo e Gás</t>
+          <t>Disponível no Mercado de Trabalho. Busco Recolocação!</t>
         </is>
       </c>
       <c r="C115" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D115" s="0" t="inlineStr">
@@ -2580,17 +2612,17 @@
     <row r="116">
       <c r="A116" s="0" t="inlineStr">
         <is>
-          <t>WELLINGTON V.</t>
+          <t>Virgilio Vilas Boas</t>
         </is>
       </c>
       <c r="B116" s="0" t="inlineStr">
         <is>
-          <t>Gerente Fiscal na LATICINIOS CATUPIRY LTDA</t>
+          <t>Engenheiro de Produção Industrial com Especialização em Automação Industrial em Petróleo e Gás</t>
         </is>
       </c>
       <c r="C116" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D116" s="0" t="inlineStr">
@@ -2612,47 +2644,51 @@
       </c>
       <c r="C117" s="0" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
           <t>França</t>
         </is>
       </c>
-      <c r="D117" s="0"/>
     </row>
     <row r="118">
       <c r="A118" s="0" t="inlineStr">
         <is>
-          <t>Bárbara Bivar</t>
+          <t>Zach Pisecki</t>
         </is>
       </c>
       <c r="B118" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Senior Consultant at Visagio</t>
         </is>
       </c>
       <c r="C118" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D118" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="inlineStr">
         <is>
-          <t>Andréia F.</t>
+          <t>Julio Sampaio</t>
         </is>
       </c>
       <c r="B119" s="0" t="inlineStr">
         <is>
-          <t>Corporate Manager at Serasa Experian</t>
+          <t>Java Developer na iFactory Solutions</t>
         </is>
       </c>
       <c r="C119" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Fortaleza e Região</t>
         </is>
       </c>
       <c r="D119" s="0" t="inlineStr">
@@ -2664,61 +2700,61 @@
     <row r="120">
       <c r="A120" s="0" t="inlineStr">
         <is>
-          <t>Pedro Montenegro</t>
+          <t>Andréia F.</t>
         </is>
       </c>
       <c r="B120" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Corporate Manager at Serasa Experian</t>
         </is>
       </c>
       <c r="C120" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D120" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="inlineStr">
         <is>
-          <t>Zach Pisecki</t>
+          <t>WELLINGTON V.</t>
         </is>
       </c>
       <c r="B121" s="0" t="inlineStr">
         <is>
-          <t>Senior Consultant at Visagio</t>
+          <t>Gerente Fiscal na LATICINIOS CATUPIRY LTDA</t>
         </is>
       </c>
       <c r="C121" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D121" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="inlineStr">
         <is>
-          <t>Rafael Á.</t>
+          <t>Wallace Henriques</t>
         </is>
       </c>
       <c r="B122" s="0" t="inlineStr">
         <is>
-          <t>HR Business Partner at Natura</t>
+          <t>Gerente CSC e TI</t>
         </is>
       </c>
       <c r="C122" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D122" s="0" t="inlineStr">
@@ -2730,17 +2766,17 @@
     <row r="123">
       <c r="A123" s="0" t="inlineStr">
         <is>
-          <t>Pc S.</t>
+          <t>Rodrigo Brisolara</t>
         </is>
       </c>
       <c r="B123" s="0" t="inlineStr">
         <is>
-          <t>Proprietário(a), Academia Metamorfose</t>
+          <t>Gerente Executivo - Planejamento de Negócios, Inteligência Competitiva</t>
         </is>
       </c>
       <c r="C123" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t>Porto Alegre e Região</t>
         </is>
       </c>
       <c r="D123" s="0" t="inlineStr">
@@ -2752,17 +2788,17 @@
     <row r="124">
       <c r="A124" s="0" t="inlineStr">
         <is>
-          <t>Ivan S.</t>
+          <t>Victor Rempto</t>
         </is>
       </c>
       <c r="B124" s="0" t="inlineStr">
         <is>
-          <t>Supervisor/ Coordenador – RECURSOS HUMANOS: T&amp;D | R&amp;S | Relação trabalhista |Medicina do trabalho |Avaliações - em busca</t>
+          <t>Consultant na Visagio</t>
         </is>
       </c>
       <c r="C124" s="0" t="inlineStr">
         <is>
-          <t>Curitiba e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D124" s="0" t="inlineStr">
@@ -2796,39 +2832,39 @@
     <row r="126">
       <c r="A126" s="0" t="inlineStr">
         <is>
-          <t>Wallace Henriques</t>
+          <t>Marco Gabriel Barcellos</t>
         </is>
       </c>
       <c r="B126" s="0" t="inlineStr">
         <is>
-          <t>Gerente CSC e TI</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C126" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D126" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="inlineStr">
         <is>
-          <t>Rodrigo Brisolara</t>
+          <t>Rafael Á.</t>
         </is>
       </c>
       <c r="B127" s="0" t="inlineStr">
         <is>
-          <t>Gerente Executivo - Planejamento de Negócios, Inteligência Competitiva</t>
+          <t>HR Business Partner at Natura</t>
         </is>
       </c>
       <c r="C127" s="0" t="inlineStr">
         <is>
-          <t>Porto Alegre e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D127" s="0" t="inlineStr">
@@ -2840,17 +2876,17 @@
     <row r="128">
       <c r="A128" s="0" t="inlineStr">
         <is>
-          <t>Victor Rempto</t>
+          <t>Ivan S.</t>
         </is>
       </c>
       <c r="B128" s="0" t="inlineStr">
         <is>
-          <t>Estagiário na Prill Tecnologia</t>
+          <t>Supervisor/ Coordenador – RECURSOS HUMANOS: T&amp;D | R&amp;S | Relação trabalhista |Medicina do trabalho |Avaliações - em busca</t>
         </is>
       </c>
       <c r="C128" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Curitiba e Região</t>
         </is>
       </c>
       <c r="D128" s="0" t="inlineStr">
@@ -2862,17 +2898,17 @@
     <row r="129">
       <c r="A129" s="0" t="inlineStr">
         <is>
-          <t>Andre Solot</t>
+          <t>João Paulo S.</t>
         </is>
       </c>
       <c r="B129" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Assistente Administrativo</t>
         </is>
       </c>
       <c r="C129" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D129" s="0" t="inlineStr">
@@ -2884,17 +2920,17 @@
     <row r="130">
       <c r="A130" s="0" t="inlineStr">
         <is>
-          <t>João Paulo S.</t>
+          <t>Andre Solot</t>
         </is>
       </c>
       <c r="B130" s="0" t="inlineStr">
         <is>
-          <t>Assistente Administrativo</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C130" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D130" s="0" t="inlineStr">
@@ -2906,52 +2942,56 @@
     <row r="131">
       <c r="A131" s="0" t="inlineStr">
         <is>
-          <t>Marco Gabriel Barcellos</t>
+          <t>Pc S.</t>
         </is>
       </c>
       <c r="B131" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Proprietário(a), Academia Metamorfose</t>
         </is>
       </c>
       <c r="C131" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D131" s="0"/>
+          <t>Fortaleza e Região</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="inlineStr">
         <is>
-          <t>Gabriel Lima</t>
+          <t>Felipe Tavares</t>
         </is>
       </c>
       <c r="B132" s="0" t="inlineStr">
         <is>
-          <t>Management Consultant at Visagio</t>
+          <t>IT Analyst no BTG Pactual</t>
         </is>
       </c>
       <c r="C132" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D132" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="inlineStr">
         <is>
-          <t>Vinicius Azevedo</t>
+          <t>Jan Heineman</t>
         </is>
       </c>
       <c r="B133" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Consultant</t>
         </is>
       </c>
       <c r="C133" s="0" t="inlineStr">
@@ -2968,61 +3008,61 @@
     <row r="134">
       <c r="A134" s="0" t="inlineStr">
         <is>
-          <t>Camila Secol</t>
+          <t>Gabriel Lima</t>
         </is>
       </c>
       <c r="B134" s="0" t="inlineStr">
         <is>
-          <t>Consultora de R&amp;S na Avance RH</t>
+          <t>Management Consultant at Visagio</t>
         </is>
       </c>
       <c r="C134" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D134" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="inlineStr">
         <is>
-          <t>Denise A.</t>
+          <t>Iria P.</t>
         </is>
       </c>
       <c r="B135" s="0" t="inlineStr">
         <is>
-          <t>Project Consultant at Odebrecht</t>
+          <t>Project manager in composites solutions in Getafe plant en Airbus Group</t>
         </is>
       </c>
       <c r="C135" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Madrid e Região</t>
         </is>
       </c>
       <c r="D135" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Espanha</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="inlineStr">
         <is>
-          <t>Dennis A.</t>
+          <t>Líus Fontenelle Carneiro</t>
         </is>
       </c>
       <c r="B136" s="0" t="inlineStr">
         <is>
-          <t>Administrador de Sistemas I at Locaweb</t>
+          <t>Consultor na Visagio</t>
         </is>
       </c>
       <c r="C136" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Fortaleza e Região</t>
         </is>
       </c>
       <c r="D136" s="0" t="inlineStr">
@@ -3034,39 +3074,39 @@
     <row r="137">
       <c r="A137" s="0" t="inlineStr">
         <is>
-          <t>Iria P.</t>
+          <t>Vinicius Azevedo</t>
         </is>
       </c>
       <c r="B137" s="0" t="inlineStr">
         <is>
-          <t>Project manager in composites solutions in Getafe plant en Airbus Group</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C137" s="0" t="inlineStr">
         <is>
-          <t>Madrid e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D137" s="0" t="inlineStr">
         <is>
-          <t> Espanha</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="inlineStr">
         <is>
-          <t>Felipe Tavares</t>
+          <t>Dennis A.</t>
         </is>
       </c>
       <c r="B138" s="0" t="inlineStr">
         <is>
-          <t>IT Analyst no BTG Pactual</t>
+          <t>Administrador de Sistemas I at Locaweb</t>
         </is>
       </c>
       <c r="C138" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D138" s="0" t="inlineStr">
@@ -3078,17 +3118,17 @@
     <row r="139">
       <c r="A139" s="0" t="inlineStr">
         <is>
-          <t>Marcos Luiz</t>
+          <t>Camila Secol</t>
         </is>
       </c>
       <c r="B139" s="0" t="inlineStr">
         <is>
-          <t>Co Founder na GoGudi</t>
+          <t>Consultora de R&amp;S na Avance RH</t>
         </is>
       </c>
       <c r="C139" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D139" s="0" t="inlineStr">
@@ -3100,17 +3140,17 @@
     <row r="140">
       <c r="A140" s="0" t="inlineStr">
         <is>
-          <t>Líus Fontenelle Carneiro</t>
+          <t>Denise A.</t>
         </is>
       </c>
       <c r="B140" s="0" t="inlineStr">
         <is>
-          <t>Consultor na Visagio</t>
+          <t>Project Consultant at Odebrecht</t>
         </is>
       </c>
       <c r="C140" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D140" s="0" t="inlineStr">
@@ -3122,12 +3162,12 @@
     <row r="141">
       <c r="A141" s="0" t="inlineStr">
         <is>
-          <t>Jan Heineman</t>
+          <t>Marcos Luiz</t>
         </is>
       </c>
       <c r="B141" s="0" t="inlineStr">
         <is>
-          <t>Consultant</t>
+          <t>Co Founder na GoGudi</t>
         </is>
       </c>
       <c r="C141" s="0" t="inlineStr">
@@ -3166,17 +3206,17 @@
     <row r="143">
       <c r="A143" s="0" t="inlineStr">
         <is>
-          <t>Suelem Schueler</t>
+          <t>Bruno Franco Nascimento</t>
         </is>
       </c>
       <c r="B143" s="0" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Empresário</t>
         </is>
       </c>
       <c r="C143" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D143" s="0" t="inlineStr">
@@ -3232,17 +3272,17 @@
     <row r="146">
       <c r="A146" s="0" t="inlineStr">
         <is>
-          <t>Evelyn M.</t>
+          <t>Suelem Schueler</t>
         </is>
       </c>
       <c r="B146" s="0" t="inlineStr">
         <is>
-          <t>Analista de Telecom na Construcap</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="C146" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D146" s="0" t="inlineStr">
@@ -3254,17 +3294,17 @@
     <row r="147">
       <c r="A147" s="0" t="inlineStr">
         <is>
-          <t>Breno Jácome</t>
+          <t>Magda Miguel</t>
         </is>
       </c>
       <c r="B147" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner at Visagio</t>
+          <t>Inside Sales Account Manager</t>
         </is>
       </c>
       <c r="C147" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Belo Horizonte e Região</t>
         </is>
       </c>
       <c r="D147" s="0" t="inlineStr">
@@ -3298,17 +3338,17 @@
     <row r="149">
       <c r="A149" s="0" t="inlineStr">
         <is>
-          <t>Magda Miguel</t>
+          <t>Max Ney O.</t>
         </is>
       </c>
       <c r="B149" s="0" t="inlineStr">
         <is>
-          <t>Inside Sales Account Manager</t>
+          <t>Coordenador de Planejamento - PCP na RM Soluções em Infraestrutura</t>
         </is>
       </c>
       <c r="C149" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t>Fortaleza e Região</t>
         </is>
       </c>
       <c r="D149" s="0" t="inlineStr">
@@ -3320,17 +3360,17 @@
     <row r="150">
       <c r="A150" s="0" t="inlineStr">
         <is>
-          <t>Bruno Franco Nascimento</t>
+          <t>Breno Jácome</t>
         </is>
       </c>
       <c r="B150" s="0" t="inlineStr">
         <is>
-          <t>Empresário</t>
+          <t>Managing Partner at Visagio</t>
         </is>
       </c>
       <c r="C150" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D150" s="0" t="inlineStr">
@@ -3342,17 +3382,17 @@
     <row r="151">
       <c r="A151" s="0" t="inlineStr">
         <is>
-          <t>Max Ney O.</t>
+          <t>Evelyn M.</t>
         </is>
       </c>
       <c r="B151" s="0" t="inlineStr">
         <is>
-          <t>Coordenador de Planejamento - PCP na RM Soluções em Infraestrutura</t>
+          <t>Analista de Telecom na Construcap</t>
         </is>
       </c>
       <c r="C151" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D151" s="0" t="inlineStr">
@@ -3364,17 +3404,17 @@
     <row r="152">
       <c r="A152" s="0" t="inlineStr">
         <is>
-          <t>Bruna Pereira</t>
+          <t>Lady Anne L.</t>
         </is>
       </c>
       <c r="B152" s="0" t="inlineStr">
         <is>
-          <t>Consultora na Visagio</t>
+          <t>Engenheira Civil na CAUÁS Arquitetura e Urbanismo Ltda</t>
         </is>
       </c>
       <c r="C152" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Tianguá e Região</t>
         </is>
       </c>
       <c r="D152" s="0" t="inlineStr">
@@ -3386,17 +3426,17 @@
     <row r="153">
       <c r="A153" s="0" t="inlineStr">
         <is>
-          <t>Lady Anne L.</t>
+          <t>Bruna Pereira</t>
         </is>
       </c>
       <c r="B153" s="0" t="inlineStr">
         <is>
-          <t>Engenheira Civil na CAUÁS Arquitetura e Urbanismo Ltda</t>
+          <t>Consultora na Visagio</t>
         </is>
       </c>
       <c r="C153" s="0" t="inlineStr">
         <is>
-          <t>Tianguá e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D153" s="0" t="inlineStr">
@@ -3408,17 +3448,17 @@
     <row r="154">
       <c r="A154" s="0" t="inlineStr">
         <is>
-          <t>Roberta Mothé</t>
+          <t>Lavio Carvalho</t>
         </is>
       </c>
       <c r="B154" s="0" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>Senior Consultant at Visagio</t>
         </is>
       </c>
       <c r="C154" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D154" s="0" t="inlineStr">
@@ -3430,17 +3470,17 @@
     <row r="155">
       <c r="A155" s="0" t="inlineStr">
         <is>
-          <t>Karinny G.</t>
+          <t>Julio Cesar do Nascimento Rocha</t>
         </is>
       </c>
       <c r="B155" s="0" t="inlineStr">
         <is>
-          <t>Analista de Marketing II no Independência Shopping - BRMALLS</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C155" s="0" t="inlineStr">
         <is>
-          <t>Juiz de Fora e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D155" s="0" t="inlineStr">
@@ -3452,39 +3492,39 @@
     <row r="156">
       <c r="A156" s="0" t="inlineStr">
         <is>
-          <t>Adriane Ricieri Brito</t>
+          <t>Fernando C.</t>
         </is>
       </c>
       <c r="B156" s="0" t="inlineStr">
         <is>
-          <t>Subsecretária de Gestão da Estratégia Governamental na Governo de Minas Gerais</t>
+          <t>Project Manager &amp; PPO &amp; Operations &amp; Process | Business &amp; Technology</t>
         </is>
       </c>
       <c r="C156" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="inlineStr">
         <is>
-          <t>Luan Sousa</t>
+          <t>Thaissa Lemos</t>
         </is>
       </c>
       <c r="B157" s="0" t="inlineStr">
         <is>
-          <t>Production Engineer (Engenheiro de Produção)</t>
+          <t>Especialista de Change Management</t>
         </is>
       </c>
       <c r="C157" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D157" s="0" t="inlineStr">
@@ -3496,30 +3536,34 @@
     <row r="158">
       <c r="A158" s="0" t="inlineStr">
         <is>
-          <t>Fernando C.</t>
+          <t>Karinny G.</t>
         </is>
       </c>
       <c r="B158" s="0" t="inlineStr">
         <is>
-          <t>Project Manager &amp; PPO &amp; Operations &amp; Process | Business &amp; Technology</t>
+          <t>Analista de Marketing II no Independência Shopping - BRMALLS</t>
         </is>
       </c>
       <c r="C158" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D158" s="0"/>
+          <t>Juiz de Fora e Região</t>
+        </is>
+      </c>
+      <c r="D158" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="inlineStr">
         <is>
-          <t>Julio Cesar do Nascimento Rocha</t>
+          <t>Luan Sousa</t>
         </is>
       </c>
       <c r="B159" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Production Engineer (Engenheiro de Produção)</t>
         </is>
       </c>
       <c r="C159" s="0" t="inlineStr">
@@ -3536,17 +3580,17 @@
     <row r="160">
       <c r="A160" s="0" t="inlineStr">
         <is>
-          <t>Lavio Carvalho</t>
+          <t>Roberta Mothé</t>
         </is>
       </c>
       <c r="B160" s="0" t="inlineStr">
         <is>
-          <t>Senior Consultant at Visagio</t>
+          <t>na</t>
         </is>
       </c>
       <c r="C160" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D160" s="0" t="inlineStr">
@@ -3558,17 +3602,17 @@
     <row r="161">
       <c r="A161" s="0" t="inlineStr">
         <is>
-          <t>Thaissa Lemos</t>
+          <t>Adriane Ricieri Brito</t>
         </is>
       </c>
       <c r="B161" s="0" t="inlineStr">
         <is>
-          <t>Especialista de Change Management</t>
+          <t>Subsecretária de Gestão da Estratégia Governamental na Governo de Minas Gerais</t>
         </is>
       </c>
       <c r="C161" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Belo Horizonte e Região</t>
         </is>
       </c>
       <c r="D161" s="0" t="inlineStr">
@@ -3580,12 +3624,12 @@
     <row r="162">
       <c r="A162" s="0" t="inlineStr">
         <is>
-          <t>Felippe Paz</t>
+          <t>vanessa helena dalvi dos santos</t>
         </is>
       </c>
       <c r="B162" s="0" t="inlineStr">
         <is>
-          <t>Consultant na Visagio</t>
+          <t>supervisora comercial / importacao na Imagem Produtos Radiologicos Ltda</t>
         </is>
       </c>
       <c r="C162" s="0" t="inlineStr">
@@ -3602,39 +3646,39 @@
     <row r="163">
       <c r="A163" s="0" t="inlineStr">
         <is>
-          <t>Alfredo A.</t>
+          <t>Giovanna Nogueira</t>
         </is>
       </c>
       <c r="B163" s="0" t="inlineStr">
         <is>
-          <t>Estagiário na Energisa</t>
+          <t>Senior Consultant at Visagio</t>
         </is>
       </c>
       <c r="C163" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D163" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="inlineStr">
         <is>
-          <t>Guilherme Cadavez</t>
+          <t>Fernando T.</t>
         </is>
       </c>
       <c r="B164" s="0" t="inlineStr">
         <is>
-          <t>Consultor de Negócios na Cosan Lubrificantes</t>
+          <t>Supervisor de TI regional PE/BA na RM Soluções em Infraestrutura</t>
         </is>
       </c>
       <c r="C164" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>João Pessoa e Região</t>
         </is>
       </c>
       <c r="D164" s="0" t="inlineStr">
@@ -3646,34 +3690,34 @@
     <row r="165">
       <c r="A165" s="0" t="inlineStr">
         <is>
-          <t>Giovanna Nogueira</t>
+          <t>Thiago X.</t>
         </is>
       </c>
       <c r="B165" s="0" t="inlineStr">
         <is>
-          <t>Senior Consultant at Visagio</t>
+          <t>PMO Consultant (Industrial Engineer)</t>
         </is>
       </c>
       <c r="C165" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>Macaé e Região</t>
         </is>
       </c>
       <c r="D165" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="inlineStr">
         <is>
-          <t>Vanessa Jansen</t>
+          <t>Alfredo A.</t>
         </is>
       </c>
       <c r="B166" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Estagiário na Energisa</t>
         </is>
       </c>
       <c r="C166" s="0" t="inlineStr">
@@ -3690,17 +3734,17 @@
     <row r="167">
       <c r="A167" s="0" t="inlineStr">
         <is>
-          <t>Thiago X.</t>
+          <t>Vanessa Jansen</t>
         </is>
       </c>
       <c r="B167" s="0" t="inlineStr">
         <is>
-          <t>PMO Consultant (Industrial Engineer)</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C167" s="0" t="inlineStr">
         <is>
-          <t>Macaé e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D167" s="0" t="inlineStr">
@@ -3712,17 +3756,17 @@
     <row r="168">
       <c r="A168" s="0" t="inlineStr">
         <is>
-          <t>Fernanda T.</t>
+          <t>Guilherme Cadavez</t>
         </is>
       </c>
       <c r="B168" s="0" t="inlineStr">
         <is>
-          <t>Coordenadora Análise de Empresa na Serasa Experian</t>
+          <t>Consultor de Negócios na Cosan Lubrificantes</t>
         </is>
       </c>
       <c r="C168" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D168" s="0" t="inlineStr">
@@ -3734,12 +3778,12 @@
     <row r="169">
       <c r="A169" s="0" t="inlineStr">
         <is>
-          <t>vanessa helena dalvi dos santos</t>
+          <t>Rodrigo Romão Silva</t>
         </is>
       </c>
       <c r="B169" s="0" t="inlineStr">
         <is>
-          <t>supervisora comercial / importacao na Imagem Produtos Radiologicos Ltda</t>
+          <t>IT Project Manager na Everis (an NTT Data Company)</t>
         </is>
       </c>
       <c r="C169" s="0" t="inlineStr">
@@ -3756,17 +3800,17 @@
     <row r="170">
       <c r="A170" s="0" t="inlineStr">
         <is>
-          <t>Eduardo M.</t>
+          <t>Felippe Paz</t>
         </is>
       </c>
       <c r="B170" s="0" t="inlineStr">
         <is>
-          <t>Técnico Mecânica/Inspetor Equipamento/Quality Inspector Asnt/Cwi Certification Welding Inspector.</t>
+          <t>Consultant na Visagio</t>
         </is>
       </c>
       <c r="C170" s="0" t="inlineStr">
         <is>
-          <t>São Carlos e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D170" s="0" t="inlineStr">
@@ -3778,17 +3822,17 @@
     <row r="171">
       <c r="A171" s="0" t="inlineStr">
         <is>
-          <t>Fernando T.</t>
+          <t>Fernanda T.</t>
         </is>
       </c>
       <c r="B171" s="0" t="inlineStr">
         <is>
-          <t>Supervisor de TI regional PE/BA na RM Soluções em Infraestrutura</t>
+          <t>Coordenadora Análise de Empresa na Serasa Experian</t>
         </is>
       </c>
       <c r="C171" s="0" t="inlineStr">
         <is>
-          <t>João Pessoa e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D171" s="0" t="inlineStr">
@@ -3800,12 +3844,12 @@
     <row r="172">
       <c r="A172" s="0" t="inlineStr">
         <is>
-          <t>Vanessa Penna</t>
+          <t>Andressa Teixeira Pires Cavalcante</t>
         </is>
       </c>
       <c r="B172" s="0" t="inlineStr">
         <is>
-          <t>Analista de Comunicação Corporativa- Protemp/Petrobras</t>
+          <t>Assistente de T&amp;D na Technip</t>
         </is>
       </c>
       <c r="C172" s="0" t="inlineStr">
@@ -3822,12 +3866,12 @@
     <row r="173">
       <c r="A173" s="0" t="inlineStr">
         <is>
-          <t>Andressa Teixeira Pires Cavalcante</t>
+          <t>Carlos Eduardo Galvão</t>
         </is>
       </c>
       <c r="B173" s="0" t="inlineStr">
         <is>
-          <t>Assistente de T&amp;D na Technip</t>
+          <t>Analista de Transportes na Geodis Wilson</t>
         </is>
       </c>
       <c r="C173" s="0" t="inlineStr">
@@ -3844,12 +3888,12 @@
     <row r="174">
       <c r="A174" s="0" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Galvão</t>
+          <t>Vanessa Penna</t>
         </is>
       </c>
       <c r="B174" s="0" t="inlineStr">
         <is>
-          <t>Analista de Transportes na Geodis Wilson</t>
+          <t>Analista de Comunicação Corporativa- Protemp/Petrobras</t>
         </is>
       </c>
       <c r="C174" s="0" t="inlineStr">
@@ -3866,17 +3910,17 @@
     <row r="175">
       <c r="A175" s="0" t="inlineStr">
         <is>
-          <t>Suzane H.</t>
+          <t>Hallen M.</t>
         </is>
       </c>
       <c r="B175" s="0" t="inlineStr">
         <is>
-          <t>Auxiliar Administrativo\Secretaria- Escola Dínamis Ltda</t>
+          <t>Analista de Planejamento e Programação Materiais</t>
         </is>
       </c>
       <c r="C175" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Campinas e Região</t>
         </is>
       </c>
       <c r="D175" s="0" t="inlineStr">
@@ -3888,17 +3932,17 @@
     <row r="176">
       <c r="A176" s="0" t="inlineStr">
         <is>
-          <t>Felipe D.</t>
+          <t>Raphaela Vanessa C.</t>
         </is>
       </c>
       <c r="B176" s="0" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Graduanda em Administração.</t>
         </is>
       </c>
       <c r="C176" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Pouso Alegre e Região</t>
         </is>
       </c>
       <c r="D176" s="0" t="inlineStr">
@@ -3910,17 +3954,17 @@
     <row r="177">
       <c r="A177" s="0" t="inlineStr">
         <is>
-          <t>Raphaela Vanessa C.</t>
+          <t>Oliver Drummond</t>
         </is>
       </c>
       <c r="B177" s="0" t="inlineStr">
         <is>
-          <t>Graduanda em Administração.</t>
+          <t>Analista at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C177" s="0" t="inlineStr">
         <is>
-          <t>Pouso Alegre e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D177" s="0" t="inlineStr">
@@ -3932,34 +3976,34 @@
     <row r="178">
       <c r="A178" s="0" t="inlineStr">
         <is>
-          <t>Aline R.</t>
+          <t>Suzane H.</t>
         </is>
       </c>
       <c r="B178" s="0" t="inlineStr">
         <is>
-          <t>Post Doc (ER3 NORA - Marie Curie) at Bioclear B.V.</t>
+          <t>Auxiliar Administrativo\Secretaria- Escola Dínamis Ltda</t>
         </is>
       </c>
       <c r="C178" s="0" t="inlineStr">
         <is>
-          <t>Groningen e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D178" s="0" t="inlineStr">
         <is>
-          <t> Holanda</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="inlineStr">
         <is>
-          <t>Oliver Drummond</t>
+          <t>Felipe D.</t>
         </is>
       </c>
       <c r="B179" s="0" t="inlineStr">
         <is>
-          <t>Analista at Visagio Tecnologia</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="C179" s="0" t="inlineStr">
@@ -3976,17 +4020,17 @@
     <row r="180">
       <c r="A180" s="0" t="inlineStr">
         <is>
-          <t>Hallen M.</t>
+          <t>Eduardo M.</t>
         </is>
       </c>
       <c r="B180" s="0" t="inlineStr">
         <is>
-          <t>Analista de Planejamento e Programação Materiais</t>
+          <t>Técnico Mecânica/Inspetor Equipamento/Quality Inspector Asnt/Cwi Certification Welding Inspector.</t>
         </is>
       </c>
       <c r="C180" s="0" t="inlineStr">
         <is>
-          <t>Campinas e Região</t>
+          <t>São Carlos e Região</t>
         </is>
       </c>
       <c r="D180" s="0" t="inlineStr">
@@ -3998,34 +4042,34 @@
     <row r="181">
       <c r="A181" s="0" t="inlineStr">
         <is>
-          <t>Camila Pinto</t>
+          <t>Aline R.</t>
         </is>
       </c>
       <c r="B181" s="0" t="inlineStr">
         <is>
-          <t>Analista de Marketing Pleno na Granado Pharmacias ( Phebo )</t>
+          <t>Post Doc (ER3 NORA - Marie Curie) at Bioclear B.V.</t>
         </is>
       </c>
       <c r="C181" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Groningen e Região</t>
         </is>
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Holanda</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="inlineStr">
         <is>
-          <t>Michel L.</t>
+          <t>Marcus Vinícius A.</t>
         </is>
       </c>
       <c r="B182" s="0" t="inlineStr">
         <is>
-          <t>Analista de Negócios na Deloitte Brasil</t>
+          <t>Designer na Artwork Comunicação &amp; Marketing</t>
         </is>
       </c>
       <c r="C182" s="0" t="inlineStr">
@@ -4042,12 +4086,12 @@
     <row r="183">
       <c r="A183" s="0" t="inlineStr">
         <is>
-          <t>Liliane Monsores de Sá</t>
+          <t>Tiago N.</t>
         </is>
       </c>
       <c r="B183" s="0" t="inlineStr">
         <is>
-          <t>Gerente de RH - Rio Mix Indústria e Comércio de Bebidas</t>
+          <t>Financial Controller</t>
         </is>
       </c>
       <c r="C183" s="0" t="inlineStr">
@@ -4064,34 +4108,34 @@
     <row r="184">
       <c r="A184" s="0" t="inlineStr">
         <is>
-          <t>Claudio B.</t>
+          <t>Theresa M.</t>
         </is>
       </c>
       <c r="B184" s="0" t="inlineStr">
         <is>
-          <t>Analista de Seguridade lll na FUNDAÇÃO PETROBRAS DE SEGURIDADE SOCIAL - PETROS</t>
+          <t>BUSINESS CONSULTANT/MANAGER Excellence in Process Analysis, Project Management, SAP Master Data Compliance &amp; Governance</t>
         </is>
       </c>
       <c r="C184" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Toronto e Região</t>
         </is>
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Canadá</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="inlineStr">
         <is>
-          <t>Tiago N.</t>
+          <t>Felipe Vieira ..</t>
         </is>
       </c>
       <c r="B185" s="0" t="inlineStr">
         <is>
-          <t>Financial Controller</t>
+          <t>Estagiário Programação na Chemtech</t>
         </is>
       </c>
       <c r="C185" s="0" t="inlineStr">
@@ -4108,12 +4152,12 @@
     <row r="186">
       <c r="A186" s="0" t="inlineStr">
         <is>
-          <t>Daniel Marinho</t>
+          <t>Marco Aurélio Pinto</t>
         </is>
       </c>
       <c r="B186" s="0" t="inlineStr">
         <is>
-          <t>Management Consultant na Visagio</t>
+          <t>Profissional da área de TI</t>
         </is>
       </c>
       <c r="C186" s="0" t="inlineStr">
@@ -4130,12 +4174,12 @@
     <row r="187">
       <c r="A187" s="0" t="inlineStr">
         <is>
-          <t>Raquel Corrêa Cordeiro</t>
+          <t>Claudio B.</t>
         </is>
       </c>
       <c r="B187" s="0" t="inlineStr">
         <is>
-          <t>Freelance Designer</t>
+          <t>Analista de Seguridade lll na FUNDAÇÃO PETROBRAS DE SEGURIDADE SOCIAL - PETROS</t>
         </is>
       </c>
       <c r="C187" s="0" t="inlineStr">
@@ -4152,12 +4196,12 @@
     <row r="188">
       <c r="A188" s="0" t="inlineStr">
         <is>
-          <t>Marco Aurélio Pinto</t>
+          <t>Liliane Monsores de Sá</t>
         </is>
       </c>
       <c r="B188" s="0" t="inlineStr">
         <is>
-          <t>Profissional da área de TI</t>
+          <t>Gerente de RH - Rio Mix Indústria e Comércio de Bebidas</t>
         </is>
       </c>
       <c r="C188" s="0" t="inlineStr">
@@ -4174,12 +4218,12 @@
     <row r="189">
       <c r="A189" s="0" t="inlineStr">
         <is>
-          <t>Marcus Vinícius A.</t>
+          <t>Michel L.</t>
         </is>
       </c>
       <c r="B189" s="0" t="inlineStr">
         <is>
-          <t>Designer na Artwork Comunicação &amp; Marketing</t>
+          <t>Analista de Negócios na Deloitte Brasil</t>
         </is>
       </c>
       <c r="C189" s="0" t="inlineStr">
@@ -4196,12 +4240,12 @@
     <row r="190">
       <c r="A190" s="0" t="inlineStr">
         <is>
-          <t>Felipe Vieira ..</t>
+          <t>Raquel Corrêa Cordeiro</t>
         </is>
       </c>
       <c r="B190" s="0" t="inlineStr">
         <is>
-          <t>Estagiário Programação na Chemtech</t>
+          <t>Freelance Designer</t>
         </is>
       </c>
       <c r="C190" s="0" t="inlineStr">
@@ -4218,34 +4262,34 @@
     <row r="191">
       <c r="A191" s="0" t="inlineStr">
         <is>
-          <t>Theresa M.</t>
+          <t>Camila Pinto</t>
         </is>
       </c>
       <c r="B191" s="0" t="inlineStr">
         <is>
-          <t>BUSINESS CONSULTANT/MANAGER Excellence in Process Analysis, Project Management, SAP Master Data Compliance &amp; Governance</t>
+          <t>Analista de Marketing Pleno na Granado Pharmacias ( Phebo )</t>
         </is>
       </c>
       <c r="C191" s="0" t="inlineStr">
         <is>
-          <t>Toronto e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t> Canadá</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="inlineStr">
         <is>
-          <t>Eduardo Castro</t>
+          <t>Eduardo L.</t>
         </is>
       </c>
       <c r="B192" s="0" t="inlineStr">
         <is>
-          <t>Analista de Planejamento Sênior / Compras</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="C192" s="0" t="inlineStr">
@@ -4262,12 +4306,12 @@
     <row r="193">
       <c r="A193" s="0" t="inlineStr">
         <is>
-          <t>Fernando Batista</t>
+          <t>Rogério N.</t>
         </is>
       </c>
       <c r="B193" s="0" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>Disponível Para o Mercado</t>
         </is>
       </c>
       <c r="C193" s="0" t="inlineStr">
@@ -4284,12 +4328,12 @@
     <row r="194">
       <c r="A194" s="0" t="inlineStr">
         <is>
-          <t>Yuri Soares</t>
+          <t>Pedro Carvalho</t>
         </is>
       </c>
       <c r="B194" s="0" t="inlineStr">
         <is>
-          <t>SAP Analyst - CO/PS na Assurance IT</t>
+          <t>Consultor da empresa Visagio</t>
         </is>
       </c>
       <c r="C194" s="0" t="inlineStr">
@@ -4306,17 +4350,17 @@
     <row r="195">
       <c r="A195" s="0" t="inlineStr">
         <is>
-          <t>Alessandra Hesketh</t>
+          <t>Marco Túlio S.</t>
         </is>
       </c>
       <c r="B195" s="0" t="inlineStr">
         <is>
-          <t>Administração e Comércio Exterior</t>
+          <t>ENGENHEIRO DE INFRAESTRUTURA DE TRANSPORTES RODOVIÁRIOS na ATP ENGENHARIA LTDA</t>
         </is>
       </c>
       <c r="C195" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Recife e Região</t>
         </is>
       </c>
       <c r="D195" s="0" t="inlineStr">
@@ -4328,12 +4372,12 @@
     <row r="196">
       <c r="A196" s="0" t="inlineStr">
         <is>
-          <t>Renato G.</t>
+          <t>Yuri Soares</t>
         </is>
       </c>
       <c r="B196" s="0" t="inlineStr">
         <is>
-          <t>Pós Graduando em Engenharia de Segurança do Trabalho, Técnico em Segurança do Trabalho na Rede Globo</t>
+          <t>SAP Analyst - CO/PS na Assurance IT</t>
         </is>
       </c>
       <c r="C196" s="0" t="inlineStr">
@@ -4350,12 +4394,12 @@
     <row r="197">
       <c r="A197" s="0" t="inlineStr">
         <is>
-          <t>Pedro Carvalho</t>
+          <t>Gleidson Machado</t>
         </is>
       </c>
       <c r="B197" s="0" t="inlineStr">
         <is>
-          <t>Consultor da empresa Visagio</t>
+          <t>Founder and CEO - Expojobs</t>
         </is>
       </c>
       <c r="C197" s="0" t="inlineStr">
@@ -4372,17 +4416,17 @@
     <row r="198">
       <c r="A198" s="0" t="inlineStr">
         <is>
-          <t>Marco Túlio S.</t>
+          <t>Renato G.</t>
         </is>
       </c>
       <c r="B198" s="0" t="inlineStr">
         <is>
-          <t>ENGENHEIRO DE INFRAESTRUTURA DE TRANSPORTES RODOVIÁRIOS na ATP ENGENHARIA LTDA</t>
+          <t>Pós Graduando em Engenharia de Segurança do Trabalho, Técnico em Segurança do Trabalho na Rede Globo</t>
         </is>
       </c>
       <c r="C198" s="0" t="inlineStr">
         <is>
-          <t>Recife e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D198" s="0" t="inlineStr">
@@ -4394,12 +4438,12 @@
     <row r="199">
       <c r="A199" s="0" t="inlineStr">
         <is>
-          <t>Eduardo L.</t>
+          <t>Daniel Marinho</t>
         </is>
       </c>
       <c r="B199" s="0" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Management Consultant na Visagio</t>
         </is>
       </c>
       <c r="C199" s="0" t="inlineStr">
@@ -4416,12 +4460,12 @@
     <row r="200">
       <c r="A200" s="0" t="inlineStr">
         <is>
-          <t>Gleidson Machado</t>
+          <t>Eduardo Castro</t>
         </is>
       </c>
       <c r="B200" s="0" t="inlineStr">
         <is>
-          <t>Founder and CEO - Expojobs</t>
+          <t>Analista de Planejamento Sênior / Compras</t>
         </is>
       </c>
       <c r="C200" s="0" t="inlineStr">
@@ -4460,12 +4504,12 @@
     <row r="202">
       <c r="A202" s="0" t="inlineStr">
         <is>
-          <t>Tamires Rocha</t>
+          <t>Beatriz C.</t>
         </is>
       </c>
       <c r="B202" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Estagiária de Manutenção e Utilidades na L'Oréal</t>
         </is>
       </c>
       <c r="C202" s="0" t="inlineStr">
@@ -4482,35 +4526,39 @@
     <row r="203">
       <c r="A203" s="0" t="inlineStr">
         <is>
-          <t>Gisela G.</t>
+          <t>Yasser P.</t>
         </is>
       </c>
       <c r="B203" s="0" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Trainee na Business Integration Partners do Brasil</t>
         </is>
       </c>
       <c r="C203" s="0" t="inlineStr">
         <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="D203" s="0"/>
+          <t>Volta Redonda e Região</t>
+        </is>
+      </c>
+      <c r="D203" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="inlineStr">
         <is>
-          <t>Maicon Wallauer</t>
+          <t>Jonathan Penha de Almeida</t>
         </is>
       </c>
       <c r="B204" s="0" t="inlineStr">
         <is>
-          <t>Partner Service Advisor da empresa SAP</t>
+          <t>Consultant</t>
         </is>
       </c>
       <c r="C204" s="0" t="inlineStr">
         <is>
-          <t>Porto Alegre e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D204" s="0" t="inlineStr">
@@ -4522,12 +4570,12 @@
     <row r="205">
       <c r="A205" s="0" t="inlineStr">
         <is>
-          <t>Jonathan Penha de Almeida</t>
+          <t>Tamires Rocha</t>
         </is>
       </c>
       <c r="B205" s="0" t="inlineStr">
         <is>
-          <t>Consultant</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C205" s="0" t="inlineStr">
@@ -4544,12 +4592,12 @@
     <row r="206">
       <c r="A206" s="0" t="inlineStr">
         <is>
-          <t>Leticia Gavazzi</t>
+          <t>Alessandra Hesketh</t>
         </is>
       </c>
       <c r="B206" s="0" t="inlineStr">
         <is>
-          <t>Demand and Supply Planning Manager at L'Oréal</t>
+          <t>Administração e Comércio Exterior</t>
         </is>
       </c>
       <c r="C206" s="0" t="inlineStr">
@@ -4566,17 +4614,17 @@
     <row r="207">
       <c r="A207" s="0" t="inlineStr">
         <is>
-          <t>Haryana P.</t>
+          <t>Everton Luiz F.</t>
         </is>
       </c>
       <c r="B207" s="0" t="inlineStr">
         <is>
-          <t>Gestão Administrativa de projeto - Interagir BNDES</t>
+          <t>Desenvolvedor Pleno na Microsffer Soluções Tecnólogicas Ltda</t>
         </is>
       </c>
       <c r="C207" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D207" s="0" t="inlineStr">
@@ -4588,17 +4636,17 @@
     <row r="208">
       <c r="A208" s="0" t="inlineStr">
         <is>
-          <t>Beatriz C.</t>
+          <t>Fernando Batista</t>
         </is>
       </c>
       <c r="B208" s="0" t="inlineStr">
         <is>
-          <t>Estagiária de Manutenção e Utilidades na L'Oréal</t>
+          <t>na</t>
         </is>
       </c>
       <c r="C208" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D208" s="0" t="inlineStr">
@@ -4610,22 +4658,22 @@
     <row r="209">
       <c r="A209" s="0" t="inlineStr">
         <is>
-          <t>Yasser P.</t>
+          <t>Gisela G.</t>
         </is>
       </c>
       <c r="B209" s="0" t="inlineStr">
         <is>
-          <t>Trainee na Business Integration Partners do Brasil</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="C209" s="0" t="inlineStr">
         <is>
-          <t>Volta Redonda e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D209" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -4654,17 +4702,17 @@
     <row r="211">
       <c r="A211" s="0" t="inlineStr">
         <is>
-          <t>Everton Luiz F.</t>
+          <t>Maicon Wallauer</t>
         </is>
       </c>
       <c r="B211" s="0" t="inlineStr">
         <is>
-          <t>Desenvolvedor Pleno na Microsffer Soluções Tecnólogicas Ltda</t>
+          <t>Partner Service Advisor da empresa SAP</t>
         </is>
       </c>
       <c r="C211" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Porto Alegre e Região</t>
         </is>
       </c>
       <c r="D211" s="0" t="inlineStr">
@@ -4676,12 +4724,12 @@
     <row r="212">
       <c r="A212" s="0" t="inlineStr">
         <is>
-          <t>Leonardo Madeira</t>
+          <t>Gilberto Chor Blanck</t>
         </is>
       </c>
       <c r="B212" s="0" t="inlineStr">
         <is>
-          <t>Coordenador de Operações Logística da empresa Brasco Logística Offshore (Grupo Wilson, Sons)</t>
+          <t>Engenheiro de Orçamento at Rossi Residencial</t>
         </is>
       </c>
       <c r="C212" s="0" t="inlineStr">
@@ -4698,12 +4746,12 @@
     <row r="213">
       <c r="A213" s="0" t="inlineStr">
         <is>
-          <t>Gilberto Chor Blanck</t>
+          <t>Daniel Benevides</t>
         </is>
       </c>
       <c r="B213" s="0" t="inlineStr">
         <is>
-          <t>Engenheiro de Orçamento at Rossi Residencial</t>
+          <t>Técnico de Segurança do Trabalho na Construtora OAS Óleo e Gás.</t>
         </is>
       </c>
       <c r="C213" s="0" t="inlineStr">
@@ -4720,12 +4768,12 @@
     <row r="214">
       <c r="A214" s="0" t="inlineStr">
         <is>
-          <t>Jarbas Dellazeri Pixiolini</t>
+          <t>Rogéria C.</t>
         </is>
       </c>
       <c r="B214" s="0" t="inlineStr">
         <is>
-          <t>Analyst at Visagio</t>
+          <t>Buscando uma oportunidade na área Adm / Financeira.</t>
         </is>
       </c>
       <c r="C214" s="0" t="inlineStr">
@@ -4742,12 +4790,12 @@
     <row r="215">
       <c r="A215" s="0" t="inlineStr">
         <is>
-          <t>Roberto M.</t>
+          <t>Jarbas Dellazeri Pixiolini</t>
         </is>
       </c>
       <c r="B215" s="0" t="inlineStr">
         <is>
-          <t>Estagiário de Engenharia Civil na Decania do Centro de Tecnologia da UFRJ</t>
+          <t>Analyst at Visagio</t>
         </is>
       </c>
       <c r="C215" s="0" t="inlineStr">
@@ -4764,17 +4812,17 @@
     <row r="216">
       <c r="A216" s="0" t="inlineStr">
         <is>
-          <t>Lorival R.</t>
+          <t>Leonardo Madeira</t>
         </is>
       </c>
       <c r="B216" s="0" t="inlineStr">
         <is>
-          <t>Supervisor de Obras .</t>
+          <t>Coordenador de Operações Logística da empresa Brasco Logística Offshore (Grupo Wilson, Sons)</t>
         </is>
       </c>
       <c r="C216" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D216" s="0" t="inlineStr">
@@ -4786,48 +4834,56 @@
     <row r="217">
       <c r="A217" s="0" t="inlineStr">
         <is>
-          <t>Lucas B.</t>
+          <t>Lorival R.</t>
         </is>
       </c>
       <c r="B217" s="0" t="inlineStr">
         <is>
-          <t>Profissional de Tecnologia da informação e serviços</t>
+          <t>Supervisor de Obras .</t>
         </is>
       </c>
       <c r="C217" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D217" s="0"/>
+          <t>São Paulo e Região</t>
+        </is>
+      </c>
+      <c r="D217" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="inlineStr">
         <is>
-          <t>Dr. Qoutaiba A.</t>
+          <t>Roberto M.</t>
         </is>
       </c>
       <c r="B218" s="0" t="inlineStr">
         <is>
-          <t>Senior Executive at Metro Jeddah Company</t>
+          <t>Estagiário de Engenharia Civil na Decania do Centro de Tecnologia da UFRJ</t>
         </is>
       </c>
       <c r="C218" s="0" t="inlineStr">
         <is>
-          <t>Arábia Saudita</t>
-        </is>
-      </c>
-      <c r="D218" s="0"/>
+          <t>Rio de Janeiro e Região</t>
+        </is>
+      </c>
+      <c r="D218" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="inlineStr">
         <is>
-          <t>Daniel Benevides</t>
+          <t>Leticia Gavazzi</t>
         </is>
       </c>
       <c r="B219" s="0" t="inlineStr">
         <is>
-          <t>Técnico de Segurança do Trabalho na Construtora OAS Óleo e Gás.</t>
+          <t>Demand and Supply Planning Manager at L'Oréal</t>
         </is>
       </c>
       <c r="C219" s="0" t="inlineStr">
@@ -4844,12 +4900,12 @@
     <row r="220">
       <c r="A220" s="0" t="inlineStr">
         <is>
-          <t>Rogéria C.</t>
+          <t>Haryana P.</t>
         </is>
       </c>
       <c r="B220" s="0" t="inlineStr">
         <is>
-          <t>Buscando uma oportunidade na área Adm / Financeira.</t>
+          <t>Gestão Administrativa de projeto - Interagir BNDES</t>
         </is>
       </c>
       <c r="C220" s="0" t="inlineStr">
@@ -4888,17 +4944,17 @@
     <row r="222">
       <c r="A222" s="0" t="inlineStr">
         <is>
-          <t>Caroline Machado Silva</t>
+          <t>ALLYSSON R.</t>
         </is>
       </c>
       <c r="B222" s="0" t="inlineStr">
         <is>
-          <t>Estagiária na Visagio</t>
+          <t>GERENTE DE PROJETOS na FM SOLUCÕES</t>
         </is>
       </c>
       <c r="C222" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Conselheiro Lafaiete e Região</t>
         </is>
       </c>
       <c r="D222" s="0" t="inlineStr">
@@ -4910,17 +4966,17 @@
     <row r="223">
       <c r="A223" s="0" t="inlineStr">
         <is>
-          <t>Gregory S.</t>
+          <t>Camila O.</t>
         </is>
       </c>
       <c r="B223" s="0" t="inlineStr">
         <is>
-          <t>Analista de Processos e Projetos</t>
+          <t>Revisora na Private Portuguese Teacher</t>
         </is>
       </c>
       <c r="C223" s="0" t="inlineStr">
         <is>
-          <t>Ribeirão Preto e Região</t>
+          <t>Fortaleza e Região</t>
         </is>
       </c>
       <c r="D223" s="0" t="inlineStr">
@@ -4932,12 +4988,12 @@
     <row r="224">
       <c r="A224" s="0" t="inlineStr">
         <is>
-          <t>David Nielsen</t>
+          <t>Lucas Carvalho Rodrigues</t>
         </is>
       </c>
       <c r="B224" s="0" t="inlineStr">
         <is>
-          <t>Intern at Visagio</t>
+          <t>Product Manager na Passei Direto S/A</t>
         </is>
       </c>
       <c r="C224" s="0" t="inlineStr">
@@ -4954,17 +5010,17 @@
     <row r="225">
       <c r="A225" s="0" t="inlineStr">
         <is>
-          <t>Camila O.</t>
+          <t>Caroline Machado Silva</t>
         </is>
       </c>
       <c r="B225" s="0" t="inlineStr">
         <is>
-          <t>Revisora na Private Portuguese Teacher</t>
+          <t>Estagiária na Visagio</t>
         </is>
       </c>
       <c r="C225" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D225" s="0" t="inlineStr">
@@ -4976,12 +5032,12 @@
     <row r="226">
       <c r="A226" s="0" t="inlineStr">
         <is>
-          <t>Lara Pessanha</t>
+          <t>David Nielsen</t>
         </is>
       </c>
       <c r="B226" s="0" t="inlineStr">
         <is>
-          <t>Consultant at IEG - Instituto de Engenharia de Gestão</t>
+          <t>Intern at Visagio</t>
         </is>
       </c>
       <c r="C226" s="0" t="inlineStr">
@@ -4998,34 +5054,34 @@
     <row r="227">
       <c r="A227" s="0" t="inlineStr">
         <is>
-          <t>Juliana A.</t>
+          <t>Dr. Qoutaiba A.</t>
         </is>
       </c>
       <c r="B227" s="0" t="inlineStr">
         <is>
-          <t>Prospecção de Novos Negocios at Infinity Print</t>
+          <t>Senior Executive at Metro Jeddah Company</t>
         </is>
       </c>
       <c r="C227" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D227" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Arábia Saudita</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="inlineStr">
         <is>
-          <t>Rodrigo R.</t>
+          <t>Lara Pessanha</t>
         </is>
       </c>
       <c r="B228" s="0" t="inlineStr">
         <is>
-          <t>Professor da empresa Prefeitura Municipal de Nova Iguaçu</t>
+          <t>Consultant at IEG - Instituto de Engenharia de Gestão</t>
         </is>
       </c>
       <c r="C228" s="0" t="inlineStr">
@@ -5042,12 +5098,12 @@
     <row r="229">
       <c r="A229" s="0" t="inlineStr">
         <is>
-          <t>Lucas Carvalho Rodrigues</t>
+          <t>Thales Teixeira Pires</t>
         </is>
       </c>
       <c r="B229" s="0" t="inlineStr">
         <is>
-          <t>Product Manager na Passei Direto S/A</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C229" s="0" t="inlineStr">
@@ -5064,39 +5120,39 @@
     <row r="230">
       <c r="A230" s="0" t="inlineStr">
         <is>
-          <t>ALLYSSON R.</t>
+          <t>Lucas B.</t>
         </is>
       </c>
       <c r="B230" s="0" t="inlineStr">
         <is>
-          <t>GERENTE DE PROJETOS na FM SOLUCÕES</t>
+          <t>Profissional de Tecnologia da informação e serviços</t>
         </is>
       </c>
       <c r="C230" s="0" t="inlineStr">
         <is>
-          <t>Conselheiro Lafaiete e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D230" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="inlineStr">
         <is>
-          <t>Thales Teixeira Pires</t>
+          <t>Juliana A.</t>
         </is>
       </c>
       <c r="B231" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Prospecção de Novos Negocios at Infinity Print</t>
         </is>
       </c>
       <c r="C231" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D231" s="0" t="inlineStr">
@@ -5108,12 +5164,12 @@
     <row r="232">
       <c r="A232" s="0" t="inlineStr">
         <is>
-          <t>Mara Freire</t>
+          <t>Rodrigo R.</t>
         </is>
       </c>
       <c r="B232" s="0" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>Professor da empresa Prefeitura Municipal de Nova Iguaçu</t>
         </is>
       </c>
       <c r="C232" s="0" t="inlineStr">
@@ -5130,39 +5186,39 @@
     <row r="233">
       <c r="A233" s="0" t="inlineStr">
         <is>
-          <t>Siying(Daisy) T.</t>
+          <t>Thais Bartoli</t>
         </is>
       </c>
       <c r="B233" s="0" t="inlineStr">
         <is>
-          <t>Master of Business Logistics Engineering Graduate at Ohio State University</t>
+          <t>Financial Specialist at Oi S/A</t>
         </is>
       </c>
       <c r="C233" s="0" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D233" s="0" t="inlineStr">
         <is>
-          <t> Ohio e Região</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="inlineStr">
         <is>
-          <t>Viviane M.</t>
+          <t>Gregory S.</t>
         </is>
       </c>
       <c r="B234" s="0" t="inlineStr">
         <is>
-          <t>Analista de Planejamento Financeiro Sênior na Grupo Bravante</t>
+          <t>Analista de Processos e Projetos</t>
         </is>
       </c>
       <c r="C234" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Ribeirão Preto e Região</t>
         </is>
       </c>
       <c r="D234" s="0" t="inlineStr">
@@ -5174,12 +5230,12 @@
     <row r="235">
       <c r="A235" s="0" t="inlineStr">
         <is>
-          <t>Renata F.</t>
+          <t>Natascha Moraes</t>
         </is>
       </c>
       <c r="B235" s="0" t="inlineStr">
         <is>
-          <t>Analista de Recursos Humanos</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C235" s="0" t="inlineStr">
@@ -5196,12 +5252,12 @@
     <row r="236">
       <c r="A236" s="0" t="inlineStr">
         <is>
-          <t>Raí Gomes Mesquita</t>
+          <t>Paula Banhara Boardman</t>
         </is>
       </c>
       <c r="B236" s="0" t="inlineStr">
         <is>
-          <t>Bacharel em Ciência da Computação</t>
+          <t>Consultora na Visagio</t>
         </is>
       </c>
       <c r="C236" s="0" t="inlineStr">
@@ -5218,17 +5274,17 @@
     <row r="237">
       <c r="A237" s="0" t="inlineStr">
         <is>
-          <t>Maria Rita A.</t>
+          <t>Jorge Rismo</t>
         </is>
       </c>
       <c r="B237" s="0" t="inlineStr">
         <is>
-          <t>Marketing na Nethus</t>
+          <t>Analista Desenvolvedor Pleno na Petrobras</t>
         </is>
       </c>
       <c r="C237" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D237" s="0" t="inlineStr">
@@ -5240,12 +5296,12 @@
     <row r="238">
       <c r="A238" s="0" t="inlineStr">
         <is>
-          <t>Jorge Rismo</t>
+          <t>Renata F.</t>
         </is>
       </c>
       <c r="B238" s="0" t="inlineStr">
         <is>
-          <t>Analista Desenvolvedor Pleno na Petrobras</t>
+          <t>Analista de Recursos Humanos</t>
         </is>
       </c>
       <c r="C238" s="0" t="inlineStr">
@@ -5262,12 +5318,12 @@
     <row r="239">
       <c r="A239" s="0" t="inlineStr">
         <is>
-          <t>Paula Banhara Boardman</t>
+          <t>Bianca S.</t>
         </is>
       </c>
       <c r="B239" s="0" t="inlineStr">
         <is>
-          <t>Consultora na Visagio</t>
+          <t>Analista Administrativo na Novema Válvulas e Instrumentos</t>
         </is>
       </c>
       <c r="C239" s="0" t="inlineStr">
@@ -5284,34 +5340,34 @@
     <row r="240">
       <c r="A240" s="0" t="inlineStr">
         <is>
-          <t>Natascha Moraes</t>
+          <t>Siying(Daisy) T.</t>
         </is>
       </c>
       <c r="B240" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Master of Business Logistics Engineering Graduate at Ohio State University</t>
         </is>
       </c>
       <c r="C240" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="D240" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Ohio e Região</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="inlineStr">
         <is>
-          <t>Bianca S.</t>
+          <t>Raí Gomes Mesquita</t>
         </is>
       </c>
       <c r="B241" s="0" t="inlineStr">
         <is>
-          <t>Analista Administrativo na Novema Válvulas e Instrumentos</t>
+          <t>Bacharel em Ciência da Computação</t>
         </is>
       </c>
       <c r="C241" s="0" t="inlineStr">
@@ -5328,34 +5384,34 @@
     <row r="242">
       <c r="A242" s="0" t="inlineStr">
         <is>
-          <t>Nathalia Almeida</t>
+          <t>Diogo B.</t>
         </is>
       </c>
       <c r="B242" s="0" t="inlineStr">
         <is>
-          <t>Supervisora Financeira</t>
+          <t>Estudante Engenharia Informática</t>
         </is>
       </c>
       <c r="C242" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Faro e Região</t>
         </is>
       </c>
       <c r="D242" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Portugal</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="inlineStr">
         <is>
-          <t>Fábio Rocha</t>
+          <t>Nathalia Almeida</t>
         </is>
       </c>
       <c r="B243" s="0" t="inlineStr">
         <is>
-          <t>Gerente Comercial Sieve</t>
+          <t>Supervisora Financeira</t>
         </is>
       </c>
       <c r="C243" s="0" t="inlineStr">
@@ -5394,17 +5450,17 @@
     <row r="245">
       <c r="A245" s="0" t="inlineStr">
         <is>
-          <t>Priscila Ferraz</t>
+          <t>Maria Rita A.</t>
         </is>
       </c>
       <c r="B245" s="0" t="inlineStr">
         <is>
-          <t>Gerente de projeto na Bio-Manguinhos / Fiocruz</t>
+          <t>Marketing na Nethus</t>
         </is>
       </c>
       <c r="C245" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D245" s="0" t="inlineStr">
@@ -5416,17 +5472,17 @@
     <row r="246">
       <c r="A246" s="0" t="inlineStr">
         <is>
-          <t>Marcus Roggero</t>
+          <t>Kellsens Silva</t>
         </is>
       </c>
       <c r="B246" s="0" t="inlineStr">
         <is>
-          <t>Operations Director at InfoPrice</t>
+          <t>--</t>
         </is>
       </c>
       <c r="C246" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Belo Horizonte e Região</t>
         </is>
       </c>
       <c r="D246" s="0" t="inlineStr">
@@ -5438,17 +5494,17 @@
     <row r="247">
       <c r="A247" s="0" t="inlineStr">
         <is>
-          <t>Thiago Felipe V.</t>
+          <t>Fábio Rocha</t>
         </is>
       </c>
       <c r="B247" s="0" t="inlineStr">
         <is>
-          <t>Gerente Comercial Banco CPA-10 / FBB-330</t>
+          <t>Gerente Comercial Sieve</t>
         </is>
       </c>
       <c r="C247" s="0" t="inlineStr">
         <is>
-          <t>Blumenau e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D247" s="0" t="inlineStr">
@@ -5460,12 +5516,12 @@
     <row r="248">
       <c r="A248" s="0" t="inlineStr">
         <is>
-          <t>Karina M.</t>
+          <t>Viviane M.</t>
         </is>
       </c>
       <c r="B248" s="0" t="inlineStr">
         <is>
-          <t>Profissional de Terceirização e offshoring</t>
+          <t>Analista de Planejamento Financeiro Sênior na Grupo Bravante</t>
         </is>
       </c>
       <c r="C248" s="0" t="inlineStr">
@@ -5482,12 +5538,12 @@
     <row r="249">
       <c r="A249" s="0" t="inlineStr">
         <is>
-          <t>Caroline Campos</t>
+          <t>Karina M.</t>
         </is>
       </c>
       <c r="B249" s="0" t="inlineStr">
         <is>
-          <t>Senior Consultant</t>
+          <t>Profissional de Terceirização e offshoring</t>
         </is>
       </c>
       <c r="C249" s="0" t="inlineStr">
@@ -5504,17 +5560,17 @@
     <row r="250">
       <c r="A250" s="0" t="inlineStr">
         <is>
-          <t>Kellsens Silva</t>
+          <t>Mara Freire</t>
         </is>
       </c>
       <c r="B250" s="0" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>na</t>
         </is>
       </c>
       <c r="C250" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D250" s="0" t="inlineStr">
@@ -5526,39 +5582,39 @@
     <row r="251">
       <c r="A251" s="0" t="inlineStr">
         <is>
-          <t>Diogo B.</t>
+          <t>Marcus Roggero</t>
         </is>
       </c>
       <c r="B251" s="0" t="inlineStr">
         <is>
-          <t>Estudante Engenharia Informática</t>
+          <t>Operations Director at InfoPrice</t>
         </is>
       </c>
       <c r="C251" s="0" t="inlineStr">
         <is>
-          <t>Faro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D251" s="0" t="inlineStr">
         <is>
-          <t> Portugal</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="inlineStr">
         <is>
-          <t>mirian C.</t>
+          <t>DEBORA M.</t>
         </is>
       </c>
       <c r="B252" s="0" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Profissional da Área Administrativa e Financeira</t>
         </is>
       </c>
       <c r="C252" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D252" s="0" t="inlineStr">
@@ -5570,17 +5626,17 @@
     <row r="253">
       <c r="A253" s="0" t="inlineStr">
         <is>
-          <t>Juliana Matta (busca de novas oportunidades)</t>
+          <t>Rosana C.</t>
         </is>
       </c>
       <c r="B253" s="0" t="inlineStr">
         <is>
-          <t>Gestão de Projetos, PMO, Marketing, Mudanças (HCMBOK®), Gestão Estratégica de RH e Comercial.</t>
+          <t>CEO na Chiminazzo Imóveis</t>
         </is>
       </c>
       <c r="C253" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Campinas e Região</t>
         </is>
       </c>
       <c r="D253" s="0" t="inlineStr">
@@ -5614,12 +5670,12 @@
     <row r="255">
       <c r="A255" s="0" t="inlineStr">
         <is>
-          <t>Rodrigo Pizarro</t>
+          <t>Priscila Ferraz</t>
         </is>
       </c>
       <c r="B255" s="0" t="inlineStr">
         <is>
-          <t>Mechanical Engineer na Promon Engenharia</t>
+          <t>Gerente de projeto na Bio-Manguinhos / Fiocruz</t>
         </is>
       </c>
       <c r="C255" s="0" t="inlineStr">
@@ -5636,17 +5692,17 @@
     <row r="256">
       <c r="A256" s="0" t="inlineStr">
         <is>
-          <t>DEBORA M.</t>
+          <t>Victor B.</t>
         </is>
       </c>
       <c r="B256" s="0" t="inlineStr">
         <is>
-          <t>Profissional da Área Administrativa e Financeira</t>
+          <t>Diretor Tecnico na Masterfocus</t>
         </is>
       </c>
       <c r="C256" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Fortaleza e Região</t>
         </is>
       </c>
       <c r="D256" s="0" t="inlineStr">
@@ -5658,17 +5714,17 @@
     <row r="257">
       <c r="A257" s="0" t="inlineStr">
         <is>
-          <t>Victor B.</t>
+          <t>Thiago Felipe V.</t>
         </is>
       </c>
       <c r="B257" s="0" t="inlineStr">
         <is>
-          <t>Diretor Tecnico na Masterfocus</t>
+          <t>Gerente Comercial Banco CPA-10 / FBB-330</t>
         </is>
       </c>
       <c r="C257" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t>Blumenau e Região</t>
         </is>
       </c>
       <c r="D257" s="0" t="inlineStr">
@@ -5680,12 +5736,12 @@
     <row r="258">
       <c r="A258" s="0" t="inlineStr">
         <is>
-          <t>Felipe Aguiar</t>
+          <t>Rodrigo Pizarro</t>
         </is>
       </c>
       <c r="B258" s="0" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Mechanical Engineer na Promon Engenharia</t>
         </is>
       </c>
       <c r="C258" s="0" t="inlineStr">
@@ -5702,17 +5758,17 @@
     <row r="259">
       <c r="A259" s="0" t="inlineStr">
         <is>
-          <t>Luma G.</t>
+          <t>Juliana Matta (busca de novas oportunidades)</t>
         </is>
       </c>
       <c r="B259" s="0" t="inlineStr">
         <is>
-          <t>Assessora de Relacionamentos na PCP Jr.</t>
+          <t>Gestão de Projetos, PMO, Marketing, Mudanças (HCMBOK®), Gestão Estratégica de RH e Comercial.</t>
         </is>
       </c>
       <c r="C259" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D259" s="0" t="inlineStr">
@@ -5724,17 +5780,17 @@
     <row r="260">
       <c r="A260" s="0" t="inlineStr">
         <is>
-          <t>Rosana C.</t>
+          <t>Eduardo Luiz Bastos</t>
         </is>
       </c>
       <c r="B260" s="0" t="inlineStr">
         <is>
-          <t>CEO na Chiminazzo Imóveis</t>
+          <t>Estagiário na Visagio</t>
         </is>
       </c>
       <c r="C260" s="0" t="inlineStr">
         <is>
-          <t>Campinas e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D260" s="0" t="inlineStr">
@@ -5746,12 +5802,12 @@
     <row r="261">
       <c r="A261" s="0" t="inlineStr">
         <is>
-          <t>Eduardo Luiz Bastos</t>
+          <t>Caroline Campos</t>
         </is>
       </c>
       <c r="B261" s="0" t="inlineStr">
         <is>
-          <t>Estagiário na Visagio</t>
+          <t>Senior Consultant</t>
         </is>
       </c>
       <c r="C261" s="0" t="inlineStr">
@@ -5768,12 +5824,12 @@
     <row r="262">
       <c r="A262" s="0" t="inlineStr">
         <is>
-          <t>ANTONIO A.</t>
+          <t>Thiago D.</t>
         </is>
       </c>
       <c r="B262" s="0" t="inlineStr">
         <is>
-          <t>Analista de Suporte Junior na Premier IT Global Services</t>
+          <t>Analista de Sistemas na Stefanini</t>
         </is>
       </c>
       <c r="C262" s="0" t="inlineStr">
@@ -5790,12 +5846,12 @@
     <row r="263">
       <c r="A263" s="0" t="inlineStr">
         <is>
-          <t>Ramom Henrique M.</t>
+          <t>Avance R.</t>
         </is>
       </c>
       <c r="B263" s="0" t="inlineStr">
         <is>
-          <t>Engenheiro Trainee - Azzultech Telecomunicações</t>
+          <t>Headhunter na Avance RH</t>
         </is>
       </c>
       <c r="C263" s="0" t="inlineStr">
@@ -5812,35 +5868,39 @@
     <row r="264">
       <c r="A264" s="0" t="inlineStr">
         <is>
-          <t>Daniel da Costa Frota, CBPP, CAPM</t>
+          <t>Chrislan Andrade</t>
         </is>
       </c>
       <c r="B264" s="0" t="inlineStr">
         <is>
-          <t>Analista de Projetos na M DIAS BRANCO</t>
+          <t>Analista de Suprimentos Sênior na Ferrous Resources do Brasil</t>
         </is>
       </c>
       <c r="C264" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D264" s="0"/>
+          <t>Belo Horizonte e Região</t>
+        </is>
+      </c>
+      <c r="D264" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="inlineStr">
         <is>
-          <t>Cassia A.</t>
+          <t>Felipe Aguiar</t>
         </is>
       </c>
       <c r="B265" s="0" t="inlineStr">
         <is>
-          <t>Diretora na empresa Cassia Adala Consultoria Imobiliaria Corporativa</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="C265" s="0" t="inlineStr">
         <is>
-          <t>Campinas e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D265" s="0" t="inlineStr">
@@ -5852,17 +5912,17 @@
     <row r="266">
       <c r="A266" s="0" t="inlineStr">
         <is>
-          <t>Avance R.</t>
+          <t>Kennie Santos</t>
         </is>
       </c>
       <c r="B266" s="0" t="inlineStr">
         <is>
-          <t>Headhunter na Avance RH</t>
+          <t>Consultora na Visagio Consultoria</t>
         </is>
       </c>
       <c r="C266" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D266" s="0" t="inlineStr">
@@ -5874,17 +5934,17 @@
     <row r="267">
       <c r="A267" s="0" t="inlineStr">
         <is>
-          <t>Thiago D.</t>
+          <t>Luma G.</t>
         </is>
       </c>
       <c r="B267" s="0" t="inlineStr">
         <is>
-          <t>Analista de Sistemas na Stefanini</t>
+          <t>Assessora de Relacionamentos na PCP Jr.</t>
         </is>
       </c>
       <c r="C267" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Belo Horizonte e Região</t>
         </is>
       </c>
       <c r="D267" s="0" t="inlineStr">
@@ -5896,17 +5956,17 @@
     <row r="268">
       <c r="A268" s="0" t="inlineStr">
         <is>
-          <t>Chrislan Andrade</t>
+          <t>Ramom Henrique M.</t>
         </is>
       </c>
       <c r="B268" s="0" t="inlineStr">
         <is>
-          <t>Analista de Suprimentos Sênior na Ferrous Resources do Brasil</t>
+          <t>Engenheiro Trainee - Azzultech Telecomunicações</t>
         </is>
       </c>
       <c r="C268" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D268" s="0" t="inlineStr">
@@ -5918,17 +5978,17 @@
     <row r="269">
       <c r="A269" s="0" t="inlineStr">
         <is>
-          <t>Mário Souto</t>
+          <t>mirian C.</t>
         </is>
       </c>
       <c r="B269" s="0" t="inlineStr">
         <is>
-          <t>Especialista em Marketing Digital na Publink</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="C269" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D269" s="0" t="inlineStr">
@@ -5940,39 +6000,39 @@
     <row r="270">
       <c r="A270" s="0" t="inlineStr">
         <is>
-          <t>Gabriel Fior</t>
+          <t>Mário Souto</t>
         </is>
       </c>
       <c r="B270" s="0" t="inlineStr">
         <is>
-          <t>Analyst bei Visagio</t>
+          <t>Especialista em Marketing Digital na Publink</t>
         </is>
       </c>
       <c r="C270" s="0" t="inlineStr">
         <is>
-          <t>Munich e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D270" s="0" t="inlineStr">
         <is>
-          <t> Alemanha</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="inlineStr">
         <is>
-          <t>Kennie Santos</t>
+          <t>ANTONIO A.</t>
         </is>
       </c>
       <c r="B271" s="0" t="inlineStr">
         <is>
-          <t>Consultora na Visagio Consultoria</t>
+          <t>Analista de Suporte Junior na Premier IT Global Services</t>
         </is>
       </c>
       <c r="C271" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D271" s="0" t="inlineStr">
@@ -5984,17 +6044,17 @@
     <row r="272">
       <c r="A272" s="0" t="inlineStr">
         <is>
-          <t>Filipe Maia R.</t>
+          <t>Cassia A.</t>
         </is>
       </c>
       <c r="B272" s="0" t="inlineStr">
         <is>
-          <t>Purchasing Assistant na Queiroz Galvão Óleo e Gás S.A.</t>
+          <t>Diretora na empresa Cassia Adala Consultoria Imobiliaria Corporativa</t>
         </is>
       </c>
       <c r="C272" s="0" t="inlineStr">
         <is>
-          <t>Campos e Região</t>
+          <t>Campinas e Região</t>
         </is>
       </c>
       <c r="D272" s="0" t="inlineStr">
@@ -6006,12 +6066,12 @@
     <row r="273">
       <c r="A273" s="0" t="inlineStr">
         <is>
-          <t>Heraldo T.</t>
+          <t>Gustavo Antunes</t>
         </is>
       </c>
       <c r="B273" s="0" t="inlineStr">
         <is>
-          <t>Comprador Sr</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C273" s="0" t="inlineStr">
@@ -6028,17 +6088,17 @@
     <row r="274">
       <c r="A274" s="0" t="inlineStr">
         <is>
-          <t>Juliano Ferrario</t>
+          <t>Filipe Maia R.</t>
         </is>
       </c>
       <c r="B274" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Purchasing Assistant na Queiroz Galvão Óleo e Gás S.A.</t>
         </is>
       </c>
       <c r="C274" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Campos e Região</t>
         </is>
       </c>
       <c r="D274" s="0" t="inlineStr">
@@ -6050,62 +6110,66 @@
     <row r="275">
       <c r="A275" s="0" t="inlineStr">
         <is>
-          <t>Phillipp Correia</t>
+          <t>Simone Waissman</t>
         </is>
       </c>
       <c r="B275" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Business Analyst at Movida Rent a Car</t>
         </is>
       </c>
       <c r="C275" s="0" t="inlineStr">
         <is>
-          <t>Federação Russa</t>
-        </is>
-      </c>
-      <c r="D275" s="0"/>
+          <t>Grande Atlanta e Região</t>
+        </is>
+      </c>
+      <c r="D275" s="0" t="inlineStr">
+        <is>
+          <t> Estados Unidos</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="inlineStr">
         <is>
-          <t>Aline Bedina</t>
+          <t>Daniel da Costa Frota, CBPP, CAPM</t>
         </is>
       </c>
       <c r="B276" s="0" t="inlineStr">
         <is>
-          <t>Engenheira Metalúrgica e de Segurança do Trabalho</t>
+          <t>Analista de Projetos na M DIAS BRANCO</t>
         </is>
       </c>
       <c r="C276" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D276" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="inlineStr">
         <is>
-          <t>Simone Waissman</t>
+          <t>Heraldo T.</t>
         </is>
       </c>
       <c r="B277" s="0" t="inlineStr">
         <is>
-          <t>Business Analyst at Movida Rent a Car</t>
+          <t>Comprador Sr</t>
         </is>
       </c>
       <c r="C277" s="0" t="inlineStr">
         <is>
-          <t>Grande Atlanta e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D277" s="0" t="inlineStr">
         <is>
-          <t> Estados Unidos</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
@@ -6134,12 +6198,12 @@
     <row r="279">
       <c r="A279" s="0" t="inlineStr">
         <is>
-          <t>Bruno Kruel Denardin</t>
+          <t>Wandro G.</t>
         </is>
       </c>
       <c r="B279" s="0" t="inlineStr">
         <is>
-          <t>Consultor</t>
+          <t>Analista ERP, Analista de Infraestrutura, Analista de Sistema, Coordenador TI</t>
         </is>
       </c>
       <c r="C279" s="0" t="inlineStr">
@@ -6156,17 +6220,17 @@
     <row r="280">
       <c r="A280" s="0" t="inlineStr">
         <is>
-          <t>Wandro G.</t>
+          <t>Aline Bedina</t>
         </is>
       </c>
       <c r="B280" s="0" t="inlineStr">
         <is>
-          <t>Analista ERP, Analista de Infraestrutura, Analista de Sistema, Coordenador TI</t>
+          <t>Engenheira Metalúrgica e de Segurança do Trabalho</t>
         </is>
       </c>
       <c r="C280" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Belo Horizonte e Região</t>
         </is>
       </c>
       <c r="D280" s="0" t="inlineStr">
@@ -6178,34 +6242,34 @@
     <row r="281">
       <c r="A281" s="0" t="inlineStr">
         <is>
-          <t>Gustavo Antunes</t>
+          <t>Gabriel Fior</t>
         </is>
       </c>
       <c r="B281" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Analyst bei Visagio</t>
         </is>
       </c>
       <c r="C281" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Munich e Região</t>
         </is>
       </c>
       <c r="D281" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Alemanha</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="inlineStr">
         <is>
-          <t>José Nascimento</t>
+          <t>Leonardo Gomes</t>
         </is>
       </c>
       <c r="B282" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Math Teacher (GMAT &amp; GRE) @MBA House - Brazilian MBA Consulting</t>
         </is>
       </c>
       <c r="C282" s="0" t="inlineStr">
@@ -6222,7 +6286,7 @@
     <row r="283">
       <c r="A283" s="0" t="inlineStr">
         <is>
-          <t>Tiago Miranda</t>
+          <t>Juliano Ferrario</t>
         </is>
       </c>
       <c r="B283" s="0" t="inlineStr">
@@ -6244,17 +6308,17 @@
     <row r="284">
       <c r="A284" s="0" t="inlineStr">
         <is>
-          <t>Douglas Mattos</t>
+          <t>Pablo Diego L.</t>
         </is>
       </c>
       <c r="B284" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Technology</t>
+          <t>LÍDER DE OPERAÇÕES AGRICOLAS</t>
         </is>
       </c>
       <c r="C284" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Paraguaçu Paulista e Região</t>
         </is>
       </c>
       <c r="D284" s="0" t="inlineStr">
@@ -6266,30 +6330,34 @@
     <row r="285">
       <c r="A285" s="0" t="inlineStr">
         <is>
-          <t>Cristiano L.</t>
+          <t>Phillipp Correia</t>
         </is>
       </c>
       <c r="B285" s="0" t="inlineStr">
         <is>
-          <t>Account Manager</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C285" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D285" s="0"/>
+          <t/>
+        </is>
+      </c>
+      <c r="D285" s="0" t="inlineStr">
+        <is>
+          <t>Federação Russa</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="inlineStr">
         <is>
-          <t>Renan Westermann Malafaia</t>
+          <t>Sebastiao F.</t>
         </is>
       </c>
       <c r="B286" s="0" t="inlineStr">
         <is>
-          <t>Business Consultant</t>
+          <t>Fiscal de obras na Prefeitura niteroi</t>
         </is>
       </c>
       <c r="C286" s="0" t="inlineStr">
@@ -6306,17 +6374,17 @@
     <row r="287">
       <c r="A287" s="0" t="inlineStr">
         <is>
-          <t>Carlos F. M. Faruolo</t>
+          <t>Patrick M.</t>
         </is>
       </c>
       <c r="B287" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Disponível para atuar como Trainee</t>
         </is>
       </c>
       <c r="C287" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Salvador e Região</t>
         </is>
       </c>
       <c r="D287" s="0" t="inlineStr">
@@ -6328,17 +6396,17 @@
     <row r="288">
       <c r="A288" s="0" t="inlineStr">
         <is>
-          <t>Pablo Diego L.</t>
+          <t>José Nascimento</t>
         </is>
       </c>
       <c r="B288" s="0" t="inlineStr">
         <is>
-          <t>LÍDER DE OPERAÇÕES AGRICOLAS</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C288" s="0" t="inlineStr">
         <is>
-          <t>Paraguaçu Paulista e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D288" s="0" t="inlineStr">
@@ -6350,12 +6418,12 @@
     <row r="289">
       <c r="A289" s="0" t="inlineStr">
         <is>
-          <t>Sebastiao F.</t>
+          <t>Renan Westermann Malafaia</t>
         </is>
       </c>
       <c r="B289" s="0" t="inlineStr">
         <is>
-          <t>Fiscal de obras na Prefeitura niteroi</t>
+          <t>Business Consultant</t>
         </is>
       </c>
       <c r="C289" s="0" t="inlineStr">
@@ -6372,17 +6440,17 @@
     <row r="290">
       <c r="A290" s="0" t="inlineStr">
         <is>
-          <t>Patrick M.</t>
+          <t>Bruno Kruel Denardin</t>
         </is>
       </c>
       <c r="B290" s="0" t="inlineStr">
         <is>
-          <t>Disponível para atuar como Trainee</t>
+          <t>Consultor</t>
         </is>
       </c>
       <c r="C290" s="0" t="inlineStr">
         <is>
-          <t>Salvador e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D290" s="0" t="inlineStr">
@@ -6394,12 +6462,12 @@
     <row r="291">
       <c r="A291" s="0" t="inlineStr">
         <is>
-          <t>Leonardo Gomes</t>
+          <t>Tiago Miranda</t>
         </is>
       </c>
       <c r="B291" s="0" t="inlineStr">
         <is>
-          <t>Math Teacher (GMAT &amp; GRE) @MBA House - Brazilian MBA Consulting</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C291" s="0" t="inlineStr">
@@ -6416,12 +6484,12 @@
     <row r="292">
       <c r="A292" s="0" t="inlineStr">
         <is>
-          <t>Tainah H.</t>
+          <t>Fernanda Dutra</t>
         </is>
       </c>
       <c r="B292" s="0" t="inlineStr">
         <is>
-          <t>Profissional de Informática</t>
+          <t>Estagiária em Engenharia de Telecomunicações na Netcon Ltda</t>
         </is>
       </c>
       <c r="C292" s="0" t="inlineStr">
@@ -6438,17 +6506,17 @@
     <row r="293">
       <c r="A293" s="0" t="inlineStr">
         <is>
-          <t>Francisco Starlyns S.</t>
+          <t>Carlos F. M. Faruolo</t>
         </is>
       </c>
       <c r="B293" s="0" t="inlineStr">
         <is>
-          <t>Engenheiro Civil Pleno na Transnordestina Logística</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C293" s="0" t="inlineStr">
         <is>
-          <t>Sobral e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D293" s="0" t="inlineStr">
@@ -6460,39 +6528,39 @@
     <row r="294">
       <c r="A294" s="0" t="inlineStr">
         <is>
-          <t>Jefferson B.</t>
+          <t>Cristiano L.</t>
         </is>
       </c>
       <c r="B294" s="0" t="inlineStr">
         <is>
-          <t>Desenhista na MAPAL do Brasil</t>
+          <t>Account Manager</t>
         </is>
       </c>
       <c r="C294" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D294" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="inlineStr">
         <is>
-          <t>Fernanda Dutra</t>
+          <t>Luiza P.</t>
         </is>
       </c>
       <c r="B295" s="0" t="inlineStr">
         <is>
-          <t>Estagiária em Engenharia de Telecomunicações na Netcon Ltda</t>
+          <t>Estudante na Pontifícia Universidade Católica de Minas Gerais</t>
         </is>
       </c>
       <c r="C295" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Belo Horizonte e Região</t>
         </is>
       </c>
       <c r="D295" s="0" t="inlineStr">
@@ -6504,12 +6572,12 @@
     <row r="296">
       <c r="A296" s="0" t="inlineStr">
         <is>
-          <t>Luiza P.</t>
+          <t>Jefferson B.</t>
         </is>
       </c>
       <c r="B296" s="0" t="inlineStr">
         <is>
-          <t>Estudante na Pontifícia Universidade Católica de Minas Gerais</t>
+          <t>Desenhista na MAPAL do Brasil</t>
         </is>
       </c>
       <c r="C296" s="0" t="inlineStr">
@@ -6526,132 +6594,144 @@
     <row r="297">
       <c r="A297" s="0" t="inlineStr">
         <is>
-          <t>Flávio Nogueira</t>
+          <t>Douglas Mattos</t>
         </is>
       </c>
       <c r="B297" s="0" t="inlineStr">
         <is>
-          <t>Analista de Armazém e Estoque na Vale</t>
+          <t>Consultant at Visagio Technology</t>
         </is>
       </c>
       <c r="C297" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D297" s="0"/>
+          <t>Rio de Janeiro e Região</t>
+        </is>
+      </c>
+      <c r="D297" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="inlineStr">
         <is>
-          <t>Diana R.</t>
+          <t>Sophia F.</t>
         </is>
       </c>
       <c r="B298" s="0" t="inlineStr">
         <is>
-          <t>Intern at International Paper</t>
+          <t>Assistente de Recursos Humanos na Easy Lav</t>
         </is>
       </c>
       <c r="C298" s="0" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
-        </is>
-      </c>
-      <c r="D298" s="0"/>
+          <t/>
+        </is>
+      </c>
+      <c r="D298" s="0" t="inlineStr">
+        <is>
+          <t>Outro</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="inlineStr">
         <is>
-          <t>Sophia F.</t>
+          <t>Tainah H.</t>
         </is>
       </c>
       <c r="B299" s="0" t="inlineStr">
         <is>
-          <t>Assistente de Recursos Humanos na Easy Lav</t>
+          <t>Profissional de Informática</t>
         </is>
       </c>
       <c r="C299" s="0" t="inlineStr">
         <is>
-          <t>Outro</t>
-        </is>
-      </c>
-      <c r="D299" s="0"/>
+          <t>Rio de Janeiro e Região</t>
+        </is>
+      </c>
+      <c r="D299" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="inlineStr">
         <is>
-          <t>Carolina Marinho</t>
+          <t>Flávio Nogueira</t>
         </is>
       </c>
       <c r="B300" s="0" t="inlineStr">
         <is>
-          <t>Consultant na Visagio</t>
+          <t>Analista de Armazém e Estoque na Vale</t>
         </is>
       </c>
       <c r="C300" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D300" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="inlineStr">
         <is>
-          <t>Albert Clarke</t>
+          <t>Francisco Starlyns S.</t>
         </is>
       </c>
       <c r="B301" s="0" t="inlineStr">
         <is>
-          <t>Consultant at P2 Energy Solutions</t>
+          <t>Engenheiro Civil Pleno na Transnordestina Logística</t>
         </is>
       </c>
       <c r="C301" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>Sobral e Região</t>
         </is>
       </c>
       <c r="D301" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="inlineStr">
         <is>
-          <t>Joao B.</t>
+          <t>Fabio M.</t>
         </is>
       </c>
       <c r="B302" s="0" t="inlineStr">
         <is>
-          <t>Sampling Field Professional Engineer - Looking for new opportunities</t>
+          <t>Systems Analyst</t>
         </is>
       </c>
       <c r="C302" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D302" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="inlineStr">
         <is>
-          <t>Filipe Xavier Trindade dos Santos</t>
+          <t>Ava E.</t>
         </is>
       </c>
       <c r="B303" s="0" t="inlineStr">
         <is>
-          <t>Estudante na Universidade Federal do Rio de Janeiro</t>
+          <t>ADMINISTRAÇÃO na AVA EXPRESS</t>
         </is>
       </c>
       <c r="C303" s="0" t="inlineStr">
@@ -6668,12 +6748,12 @@
     <row r="304">
       <c r="A304" s="0" t="inlineStr">
         <is>
-          <t>Fillipe Silva</t>
+          <t>Lucas Souza</t>
         </is>
       </c>
       <c r="B304" s="0" t="inlineStr">
         <is>
-          <t>Consultor na Visagio Tecnologia</t>
+          <t>Analyst at Visagio</t>
         </is>
       </c>
       <c r="C304" s="0" t="inlineStr">
@@ -6690,12 +6770,12 @@
     <row r="305">
       <c r="A305" s="0" t="inlineStr">
         <is>
-          <t>Lilian Feres Lima Ribeiro</t>
+          <t>Paulo Francisco M.</t>
         </is>
       </c>
       <c r="B305" s="0" t="inlineStr">
         <is>
-          <t>Analista de Sistemas</t>
+          <t>Profissional de Tecnologia da informação e serviços</t>
         </is>
       </c>
       <c r="C305" s="0" t="inlineStr">
@@ -6712,78 +6792,78 @@
     <row r="306">
       <c r="A306" s="0" t="inlineStr">
         <is>
-          <t>Fabio M.</t>
+          <t>Diana R.</t>
         </is>
       </c>
       <c r="B306" s="0" t="inlineStr">
         <is>
-          <t>Systems Analyst</t>
+          <t>Intern at International Paper</t>
         </is>
       </c>
       <c r="C306" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D306" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Estados Unidos</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="inlineStr">
         <is>
-          <t>Paulo Francisco M.</t>
+          <t>Joao B.</t>
         </is>
       </c>
       <c r="B307" s="0" t="inlineStr">
         <is>
-          <t>Profissional de Tecnologia da informação e serviços</t>
+          <t>Sampling Field Professional Engineer - Looking for new opportunities</t>
         </is>
       </c>
       <c r="C307" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D307" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="inlineStr">
         <is>
-          <t>Lucas Souza</t>
+          <t>Albert Clarke</t>
         </is>
       </c>
       <c r="B308" s="0" t="inlineStr">
         <is>
-          <t>Analyst at Visagio</t>
+          <t>Consultant at P2 Energy Solutions</t>
         </is>
       </c>
       <c r="C308" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D308" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="inlineStr">
         <is>
-          <t>Thiago L.</t>
+          <t>Carolina Marinho</t>
         </is>
       </c>
       <c r="B309" s="0" t="inlineStr">
         <is>
-          <t>Estudante na Pontifícia Universidade Católica do Rio de Janeiro</t>
+          <t>Consultant na Visagio</t>
         </is>
       </c>
       <c r="C309" s="0" t="inlineStr">
@@ -6800,12 +6880,12 @@
     <row r="310">
       <c r="A310" s="0" t="inlineStr">
         <is>
-          <t>Mariana Z.</t>
+          <t>Thiago L.</t>
         </is>
       </c>
       <c r="B310" s="0" t="inlineStr">
         <is>
-          <t>Assessora da Qualidade na Fluxo Consultoria</t>
+          <t>Estudante na Pontifícia Universidade Católica do Rio de Janeiro</t>
         </is>
       </c>
       <c r="C310" s="0" t="inlineStr">
@@ -6822,12 +6902,12 @@
     <row r="311">
       <c r="A311" s="0" t="inlineStr">
         <is>
-          <t>Ava E.</t>
+          <t>Lilian Feres Lima Ribeiro</t>
         </is>
       </c>
       <c r="B311" s="0" t="inlineStr">
         <is>
-          <t>ADMINISTRAÇÃO na AVA EXPRESS</t>
+          <t>Analista de Sistemas</t>
         </is>
       </c>
       <c r="C311" s="0" t="inlineStr">
@@ -6844,12 +6924,12 @@
     <row r="312">
       <c r="A312" s="0" t="inlineStr">
         <is>
-          <t>Erika J.</t>
+          <t>Isabel Accioly</t>
         </is>
       </c>
       <c r="B312" s="0" t="inlineStr">
         <is>
-          <t>Estudante na Griffith College</t>
+          <t>Marketing and Communications Intern</t>
         </is>
       </c>
       <c r="C312" s="0" t="inlineStr">
@@ -6866,12 +6946,12 @@
     <row r="313">
       <c r="A313" s="0" t="inlineStr">
         <is>
-          <t>Carlos Vetter</t>
+          <t>Victor Sampaio</t>
         </is>
       </c>
       <c r="B313" s="0" t="inlineStr">
         <is>
-          <t>Consultor na Visagio Tecnologia</t>
+          <t>Analista na Visagio</t>
         </is>
       </c>
       <c r="C313" s="0" t="inlineStr">
@@ -6888,12 +6968,12 @@
     <row r="314">
       <c r="A314" s="0" t="inlineStr">
         <is>
-          <t>Marina Gonzaga</t>
+          <t>Fillipe Silva</t>
         </is>
       </c>
       <c r="B314" s="0" t="inlineStr">
         <is>
-          <t>Marketing Negotiation</t>
+          <t>Consultor na Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C314" s="0" t="inlineStr">
@@ -6910,17 +6990,17 @@
     <row r="315">
       <c r="A315" s="0" t="inlineStr">
         <is>
-          <t>Altamiro C.</t>
+          <t>Marina Gonzaga</t>
         </is>
       </c>
       <c r="B315" s="0" t="inlineStr">
         <is>
-          <t>aotonomo</t>
+          <t>Marketing Negotiation</t>
         </is>
       </c>
       <c r="C315" s="0" t="inlineStr">
         <is>
-          <t>Porto Velho e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D315" s="0" t="inlineStr">
@@ -6932,30 +7012,34 @@
     <row r="316">
       <c r="A316" s="0" t="inlineStr">
         <is>
-          <t>Digital PR Z.</t>
+          <t>Mariana Z.</t>
         </is>
       </c>
       <c r="B316" s="0" t="inlineStr">
         <is>
-          <t>Digital PR Zirvesi</t>
+          <t>Assessora da Qualidade na Fluxo Consultoria</t>
         </is>
       </c>
       <c r="C316" s="0" t="inlineStr">
         <is>
-          <t>Turquia</t>
-        </is>
-      </c>
-      <c r="D316" s="0"/>
+          <t>Rio de Janeiro e Região</t>
+        </is>
+      </c>
+      <c r="D316" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="inlineStr">
         <is>
-          <t>Isabel Accioly</t>
+          <t>Filipe Xavier Trindade dos Santos</t>
         </is>
       </c>
       <c r="B317" s="0" t="inlineStr">
         <is>
-          <t>Marketing and Communications Intern</t>
+          <t>Estudante na Universidade Federal do Rio de Janeiro</t>
         </is>
       </c>
       <c r="C317" s="0" t="inlineStr">
@@ -6972,34 +7056,34 @@
     <row r="318">
       <c r="A318" s="0" t="inlineStr">
         <is>
-          <t>Tafareu A.</t>
+          <t>Digital PR Z.</t>
         </is>
       </c>
       <c r="B318" s="0" t="inlineStr">
         <is>
-          <t>Agente de endemias na prefeitura municipal do Eusébio</t>
+          <t>Digital PR Zirvesi</t>
         </is>
       </c>
       <c r="C318" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D318" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Turquia</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="inlineStr">
         <is>
-          <t>Michelle P.</t>
+          <t>Erika J.</t>
         </is>
       </c>
       <c r="B319" s="0" t="inlineStr">
         <is>
-          <t>Financial Assistant</t>
+          <t>Estudante na Griffith College</t>
         </is>
       </c>
       <c r="C319" s="0" t="inlineStr">
@@ -7016,17 +7100,17 @@
     <row r="320">
       <c r="A320" s="0" t="inlineStr">
         <is>
-          <t>Victor Sampaio</t>
+          <t>Altamiro C.</t>
         </is>
       </c>
       <c r="B320" s="0" t="inlineStr">
         <is>
-          <t>Analista na Visagio</t>
+          <t>aotonomo</t>
         </is>
       </c>
       <c r="C320" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Porto Velho e Região</t>
         </is>
       </c>
       <c r="D320" s="0" t="inlineStr">
@@ -7038,17 +7122,17 @@
     <row r="321">
       <c r="A321" s="0" t="inlineStr">
         <is>
-          <t>Carlos Eduardo C.C. Porto</t>
+          <t>Tafareu A.</t>
         </is>
       </c>
       <c r="B321" s="0" t="inlineStr">
         <is>
-          <t>Student at Universidade Federal do Rio de Janeiro</t>
+          <t>Agente de endemias na prefeitura municipal do Eusébio</t>
         </is>
       </c>
       <c r="C321" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Fortaleza e Região</t>
         </is>
       </c>
       <c r="D321" s="0" t="inlineStr">
@@ -7060,17 +7144,17 @@
     <row r="322">
       <c r="A322" s="0" t="inlineStr">
         <is>
-          <t>Flávia Lima</t>
+          <t>Michelle P.</t>
         </is>
       </c>
       <c r="B322" s="0" t="inlineStr">
         <is>
-          <t>Consultant na Visagio</t>
+          <t>Financial Assistant</t>
         </is>
       </c>
       <c r="C322" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D322" s="0" t="inlineStr">
@@ -7082,12 +7166,12 @@
     <row r="323">
       <c r="A323" s="0" t="inlineStr">
         <is>
-          <t>Wilson Martins Neto</t>
+          <t>Bruno Linhares</t>
         </is>
       </c>
       <c r="B323" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Consultor na Visagio</t>
         </is>
       </c>
       <c r="C323" s="0" t="inlineStr">
@@ -7104,34 +7188,34 @@
     <row r="324">
       <c r="A324" s="0" t="inlineStr">
         <is>
-          <t>Sabrina O.</t>
+          <t>HighClean S.</t>
         </is>
       </c>
       <c r="B324" s="0" t="inlineStr">
         <is>
-          <t>Supervisor at Mastercare Property Services</t>
+          <t>Serviços de Limpeza e Terceirização de Mão de Obra</t>
         </is>
       </c>
       <c r="C324" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D324" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="inlineStr">
         <is>
-          <t>Bruno Linhares</t>
+          <t>Carlos Eduardo C.C. Porto</t>
         </is>
       </c>
       <c r="B325" s="0" t="inlineStr">
         <is>
-          <t>Consultor na Visagio</t>
+          <t>Student at Universidade Federal do Rio de Janeiro</t>
         </is>
       </c>
       <c r="C325" s="0" t="inlineStr">
@@ -7148,35 +7232,39 @@
     <row r="326">
       <c r="A326" s="0" t="inlineStr">
         <is>
-          <t>Renato Rocha</t>
+          <t>Rodrigo A.</t>
         </is>
       </c>
       <c r="B326" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Supervisor de Logística na Editora Vida ( Life Publ Co)</t>
         </is>
       </c>
       <c r="C326" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D326" s="0"/>
+          <t>São Paulo e Região</t>
+        </is>
+      </c>
+      <c r="D326" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="inlineStr">
         <is>
-          <t>Lucas Amorim</t>
+          <t>Flávia Lima</t>
         </is>
       </c>
       <c r="B327" s="0" t="inlineStr">
         <is>
-          <t>Estagiario na Visagio Tecnologia</t>
+          <t>Consultant na Visagio</t>
         </is>
       </c>
       <c r="C327" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D327" s="0" t="inlineStr">
@@ -7188,39 +7276,39 @@
     <row r="328">
       <c r="A328" s="0" t="inlineStr">
         <is>
-          <t>HighClean S.</t>
+          <t>Renato Rocha</t>
         </is>
       </c>
       <c r="B328" s="0" t="inlineStr">
         <is>
-          <t>Serviços de Limpeza e Terceirização de Mão de Obra</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C328" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D328" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="inlineStr">
         <is>
-          <t>Rodrigo A.</t>
+          <t>Wilson Martins Neto</t>
         </is>
       </c>
       <c r="B329" s="0" t="inlineStr">
         <is>
-          <t>Supervisor de Logística na Editora Vida ( Life Publ Co)</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C329" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D329" s="0" t="inlineStr">
@@ -7232,39 +7320,39 @@
     <row r="330">
       <c r="A330" s="0" t="inlineStr">
         <is>
-          <t>Camila M.</t>
+          <t>Sabrina O.</t>
         </is>
       </c>
       <c r="B330" s="0" t="inlineStr">
         <is>
-          <t>Diretora de Marketing na Motriz EJ - UNICAMP</t>
+          <t>Supervisor at Mastercare Property Services</t>
         </is>
       </c>
       <c r="C330" s="0" t="inlineStr">
         <is>
-          <t>Sorocaba e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D330" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="inlineStr">
         <is>
-          <t>Marcus S.</t>
+          <t>Carlos Vetter</t>
         </is>
       </c>
       <c r="B331" s="0" t="inlineStr">
         <is>
-          <t>Consultor de Qualidade na Ética Consultoria e Projeto</t>
+          <t>Consultor na Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C331" s="0" t="inlineStr">
         <is>
-          <t>Resende e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D331" s="0" t="inlineStr">
@@ -7276,17 +7364,17 @@
     <row r="332">
       <c r="A332" s="0" t="inlineStr">
         <is>
-          <t>Bruno F.</t>
+          <t>WILSON FISCHER PROPRIETÁRIO DO GRUPO FISCHER EMPRESAS</t>
         </is>
       </c>
       <c r="B332" s="0" t="inlineStr">
         <is>
-          <t>Research Manager, Natural Resources Optimization na IBM</t>
+          <t>Proprietário no GRUPO FISCHER EMPRESAS</t>
         </is>
       </c>
       <c r="C332" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D332" s="0" t="inlineStr">
@@ -7298,17 +7386,17 @@
     <row r="333">
       <c r="A333" s="0" t="inlineStr">
         <is>
-          <t>João T.</t>
+          <t>Camila M.</t>
         </is>
       </c>
       <c r="B333" s="0" t="inlineStr">
         <is>
-          <t>Diretor na Tagout Bloqueio e Etiquetagem</t>
+          <t>Diretora de Marketing na Motriz EJ - UNICAMP</t>
         </is>
       </c>
       <c r="C333" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Sorocaba e Região</t>
         </is>
       </c>
       <c r="D333" s="0" t="inlineStr">
@@ -7342,30 +7430,34 @@
     <row r="335">
       <c r="A335" s="0" t="inlineStr">
         <is>
-          <t>Amannda Misael</t>
+          <t>Natasha C.</t>
         </is>
       </c>
       <c r="B335" s="0" t="inlineStr">
         <is>
-          <t>Consultor na Visagio Tecnologia</t>
+          <t>Analista de Processos</t>
         </is>
       </c>
       <c r="C335" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D335" s="0"/>
+          <t>Rio de Janeiro e Região</t>
+        </is>
+      </c>
+      <c r="D335" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="inlineStr">
         <is>
-          <t>WelcomePro P.</t>
+          <t>João T.</t>
         </is>
       </c>
       <c r="B336" s="0" t="inlineStr">
         <is>
-          <t>WelcomePro</t>
+          <t>Diretor na Tagout Bloqueio e Etiquetagem</t>
         </is>
       </c>
       <c r="C336" s="0" t="inlineStr">
@@ -7382,35 +7474,39 @@
     <row r="337">
       <c r="A337" s="0" t="inlineStr">
         <is>
-          <t>Nicholas K.</t>
+          <t>Marcus S.</t>
         </is>
       </c>
       <c r="B337" s="0" t="inlineStr">
         <is>
-          <t>Processing Administrator of Business Support Operations na IBM</t>
+          <t>Consultor de Qualidade na Ética Consultoria e Projeto</t>
         </is>
       </c>
       <c r="C337" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D337" s="0"/>
+          <t>Resende e Região</t>
+        </is>
+      </c>
+      <c r="D337" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="inlineStr">
         <is>
-          <t>WILSON FISCHER PROPRIETÁRIO DO GRUPO FISCHER EMPRESAS</t>
+          <t>Bruno F.</t>
         </is>
       </c>
       <c r="B338" s="0" t="inlineStr">
         <is>
-          <t>Proprietário no GRUPO FISCHER EMPRESAS</t>
+          <t>Research Manager, Natural Resources Optimization na IBM</t>
         </is>
       </c>
       <c r="C338" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D338" s="0" t="inlineStr">
@@ -7422,17 +7518,17 @@
     <row r="339">
       <c r="A339" s="0" t="inlineStr">
         <is>
-          <t>Vinicius Mello</t>
+          <t>WelcomePro P.</t>
         </is>
       </c>
       <c r="B339" s="0" t="inlineStr">
         <is>
-          <t>Consultor na Visagio Tecnologia</t>
+          <t>WelcomePro</t>
         </is>
       </c>
       <c r="C339" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D339" s="0" t="inlineStr">
@@ -7444,12 +7540,12 @@
     <row r="340">
       <c r="A340" s="0" t="inlineStr">
         <is>
-          <t>Natasha C.</t>
+          <t>Lucas Amorim</t>
         </is>
       </c>
       <c r="B340" s="0" t="inlineStr">
         <is>
-          <t>Analista de Processos</t>
+          <t>Estagiario na Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C340" s="0" t="inlineStr">
@@ -7488,52 +7584,56 @@
     <row r="342">
       <c r="A342" s="0" t="inlineStr">
         <is>
-          <t>Gisele Alves</t>
+          <t>Isabela P.</t>
         </is>
       </c>
       <c r="B342" s="0" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>Student at Universidade Federal Rural do Rio de Janeiro</t>
         </is>
       </c>
       <c r="C342" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D342" s="0"/>
+          <t>Rio de Janeiro e Região</t>
+        </is>
+      </c>
+      <c r="D342" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="0" t="inlineStr">
         <is>
-          <t>Isabela P.</t>
+          <t>Nicholas K.</t>
         </is>
       </c>
       <c r="B343" s="0" t="inlineStr">
         <is>
-          <t>Student at Universidade Federal Rural do Rio de Janeiro</t>
+          <t>Processing Administrator of Business Support Operations na IBM</t>
         </is>
       </c>
       <c r="C343" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D343" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0" t="inlineStr">
         <is>
-          <t>Igor Blackman</t>
+          <t>Alessandro Campello</t>
         </is>
       </c>
       <c r="B344" s="0" t="inlineStr">
         <is>
-          <t>Estudante na Universidade Federal Fluminense</t>
+          <t>Consultor na Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C344" s="0" t="inlineStr">
@@ -7550,22 +7650,132 @@
     <row r="345">
       <c r="A345" s="0" t="inlineStr">
         <is>
-          <t>Alessandro Campello</t>
+          <t>Gisele Alves</t>
         </is>
       </c>
       <c r="B345" s="0" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C345" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D345" s="0" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0" t="inlineStr">
+        <is>
+          <t>Lilian T.</t>
+        </is>
+      </c>
+      <c r="B346" s="0" t="inlineStr">
+        <is>
+          <t>Profissional de Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="C346" s="0" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro e Região</t>
+        </is>
+      </c>
+      <c r="D346" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0" t="inlineStr">
+        <is>
+          <t>Igor Ferreira Lima</t>
+        </is>
+      </c>
+      <c r="B347" s="0" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C347" s="0" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro e Região</t>
+        </is>
+      </c>
+      <c r="D347" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0" t="inlineStr">
+        <is>
+          <t>Igor Blackman</t>
+        </is>
+      </c>
+      <c r="B348" s="0" t="inlineStr">
+        <is>
+          <t>Estudante na Universidade Federal Fluminense</t>
+        </is>
+      </c>
+      <c r="C348" s="0" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro e Região</t>
+        </is>
+      </c>
+      <c r="D348" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0" t="inlineStr">
+        <is>
+          <t>Vinicius Mello</t>
+        </is>
+      </c>
+      <c r="B349" s="0" t="inlineStr">
+        <is>
           <t>Consultor na Visagio Tecnologia</t>
         </is>
       </c>
-      <c r="C345" s="0" t="inlineStr">
-        <is>
-          <t>Rio de Janeiro e Região</t>
-        </is>
-      </c>
-      <c r="D345" s="0" t="inlineStr">
-        <is>
-          <t> Brasil</t>
+      <c r="C349" s="0" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro e Região</t>
+        </is>
+      </c>
+      <c r="D349" s="0" t="inlineStr">
+        <is>
+          <t> Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0" t="inlineStr">
+        <is>
+          <t>Amannda Misael</t>
+        </is>
+      </c>
+      <c r="B350" s="0" t="inlineStr">
+        <is>
+          <t>Consultor na Visagio Tecnologia</t>
+        </is>
+      </c>
+      <c r="C350" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D350" s="0" t="inlineStr">
+        <is>
+          <t>Brasil</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D350"/>
+  <dimension ref="A1:E350"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -77,6 +77,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="102.08988764044945"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="22.88988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.28988764044944"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="405.68988764044946"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -100,6 +101,11 @@
           <t>country</t>
         </is>
       </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -122,16 +128,22 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>email - lprovedel@hotmail.com
+celular: 21 98882-5292</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Prof. Ricardo Razuk</t>
+          <t>Eduardo Marinho</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Academic Coordinator at FGV/EBAPE</t>
+          <t>Business Development</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -142,50 +154,65 @@
       <c r="D3" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Eduardo Marinho</t>
+          <t>Gildasio Rocha</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Business Development</t>
+          <t>CIO - Diretor Tecnologia da Informação at Grupo Serveng</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>Gildasio Rocha</t>
+          <t>Prof. Ricardo Razuk</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>CIO - Diretor Tecnologia da Informação at Grupo Serveng</t>
+          <t>Academic Coordinator at FGV/EBAPE</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -210,26 +237,36 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Mauricio C.</t>
+          <t>João Luis Casagrande</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>IT/Telecom Project Manager and Entrepreneur</t>
+          <t>Owner, Casagrande Engenharia &amp; Consultoria</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -254,170 +291,214 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Len Pannett</t>
+          <t>Mauricio C.</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Helping organisations to realise their operational ambitions</t>
+          <t>IT/Telecom Project Manager and Entrepreneur</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>Londres</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t> Reino Unido</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>João Luis Casagrande</t>
+          <t>Luiz Chalola</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Owner, Casagrande Engenharia &amp; Consultoria</t>
+          <t>Analista de Tecnologia da Informação Pleno na Ranbaxy Farmaceutica Ltda</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>e-mail: lchalola@yahoo.com.br / luiz.chalola@gmail.com / luiz.chalola@hotmail..com
+Cel(21) 96402-1763
+Skype: luiz.chalola1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Luiz Chalola</t>
+          <t>Len Pannett</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Analista de Tecnologia da Informação Pleno na Ranbaxy Farmaceutica Ltda</t>
+          <t>Helping organisations to realise their operational ambitions</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Londres</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Reino Unido</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Fernando S.</t>
+          <t>Gilberto Cordeiro</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Planejamento - Comercial Farma na Hypermarcas S/A</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Jefferson Costa Silva</t>
+          <t>Tatiana Lerner</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Marketing e Novos Negócios na Sieve</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>E-mail: 
+tatiana.lerner@visagio.com 
+tatilerner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Gilberto Cordeiro</t>
+          <t>Luís T.</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>IT Senior Project Manager</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Porto e Região</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Portugal</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Share same interests.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Haroldo B.</t>
+          <t>Rogerio Klayn</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>Latin America Project Director at Ventyx, an ABB company</t>
+          <t>Vale</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Andréa Costa</t>
+          <t>Fábio Bonanho</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Gerente de Contas Sênior de TI</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -428,194 +509,239 @@
       <c r="D16" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Entrar em contato através do e-mail: bonanho2@hotmail.com ou através do telefone 11 98184-8174</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Rogerio Klayn</t>
+          <t>Andréa Costa</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Vale</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Fábio Bonanho</t>
+          <t>Sérgio P.</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Contas Sênior de TI</t>
+          <t>Project Manager at Equus SA</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Suíça</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Tatiana Lerner</t>
+          <t>Jefferson Costa Silva</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Gerente de Marketing e Novos Negócios na Sieve</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Luís T.</t>
+          <t>Haroldo B.</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>IT Senior Project Manager</t>
+          <t>Latin America Project Director at Ventyx, an ABB company</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>Porto e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t> Portugal</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Sérgio P.</t>
+          <t>Fernando S.</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>Project Manager at Equus SA</t>
+          <t>Gerente de Planejamento - Comercial Farma na Hypermarcas S/A</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>http://www.sigulem.com.br</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Gustavo Baraldi</t>
+          <t>Gustavo Ribeiro</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>Regional Manager na Report Sustentabilidade</t>
+          <t>Associate Partner at Visagio</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>Igor Alves</t>
+          <t>Luke Barbara</t>
         </is>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>Senior Software Development Engineer at Sii Polska</t>
+          <t>Desenvolvimento de Negócios, TC Global</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>Wroclaw</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t> Lower Silesian District</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>Gustavo Ribeiro</t>
+          <t>Thales Miranda</t>
         </is>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>Associate Partner at Visagio</t>
+          <t>Managing Partner at Visagio</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>Mariana Santiago</t>
+          <t>Thiago Rüdiger Rangel</t>
         </is>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>Owner na MS8 Consultoria</t>
+          <t>Controlling Analyst at Squadra Investimentos</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -626,40 +752,50 @@
       <c r="D25" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>thiagorudiger@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>Alessandro P.</t>
+          <t>Gustavo Baraldi</t>
         </is>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Projetos | Analista de Negócios | HCM</t>
+          <t>Regional Manager na Report Sustentabilidade</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Luke Barbara</t>
+          <t>Alessandro P.</t>
         </is>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>Desenvolvimento de Negócios, TC Global</t>
+          <t>Gerente de Projetos | Analista de Negócios | HCM</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -670,18 +806,23 @@
       <c r="D27" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>Adriano Brito</t>
+          <t>Mariana Niemeyer</t>
         </is>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>Engenheiro de Software, Mestre em Ciência da Computação</t>
+          <t>Associate Consultant at Visagio</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
@@ -692,18 +833,23 @@
       <c r="D28" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>Thiago Rüdiger Rangel</t>
+          <t>Mariana Santiago</t>
         </is>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>Controlling Analyst at Squadra Investimentos</t>
+          <t>Owner na MS8 Consultoria</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
@@ -714,18 +860,23 @@
       <c r="D29" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>Thales Miranda</t>
+          <t>Adriano Brito</t>
         </is>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner at Visagio</t>
+          <t>Engenheiro de Software, Mestre em Ciência da Computação</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
@@ -736,40 +887,50 @@
       <c r="D30" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Mariana Niemeyer</t>
+          <t>Igor Alves</t>
         </is>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>Associate Consultant at Visagio</t>
+          <t>Senior Software Development Engineer at Sii Polska</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Wroclaw</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Lower Silesian District</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>Monica Ferreira Freire, HCMBOK®, HCMP®</t>
+          <t>Rafael Valente</t>
         </is>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>Gestão da Mudança / Change Management / Comunicação</t>
+          <t>Associate Partner at Visagio</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -780,40 +941,50 @@
       <c r="D32" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>Fábio S.</t>
+          <t>Thiago Cabeço</t>
         </is>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>Senior Manager at Robert Half</t>
+          <t>Associate Partner at Visagio</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>Flavio Simões</t>
+          <t>Felipe Galvão</t>
         </is>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>Analista em Engenharia de Produção</t>
+          <t>Engenheiro de Produção na Geris (Petrobras) / Empreendedor no Funnaticos / Desenvolvedor VBA</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
@@ -824,18 +995,23 @@
       <c r="D34" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>Rafael Valente</t>
+          <t>Mariana C.</t>
         </is>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>Associate Partner at Visagio</t>
+          <t>Secretária Executiva Bilíngue</t>
         </is>
       </c>
       <c r="C35" s="0" t="inlineStr">
@@ -846,40 +1022,51 @@
       <c r="D35" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>E-mail: marianacarneirodacunha@gmail.com
+Celular: (21) 98542-5232</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>Jansen Costa Silva, CFP®</t>
+          <t>Luis R.</t>
         </is>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>Financial Advisor</t>
+          <t>Diretor Técnico/Comercial Onemax Automação e Sistemas</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>Felipe Galvão</t>
+          <t>Joao Marcelo Brasil</t>
         </is>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>Engenheiro de Produção na Geris (Petrobras) / Empreendedor no Funnaticos / Desenvolvedor VBA</t>
+          <t>Operations Project Manager</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
@@ -890,40 +1077,50 @@
       <c r="D37" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>Luis R.</t>
+          <t>Monica Ferreira Freire, HCMBOK®, HCMP®</t>
         </is>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>Diretor Técnico/Comercial Onemax Automação e Sistemas</t>
+          <t>Gestão da Mudança / Change Management / Comunicação</t>
         </is>
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>Mariana C.</t>
+          <t>Flavio Simões</t>
         </is>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>Secretária Executiva Bilíngue</t>
+          <t>Analista em Engenharia de Produção</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
@@ -934,40 +1131,50 @@
       <c r="D39" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>Thiago Cabeço</t>
+          <t>Fábio S.</t>
         </is>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>Associate Partner at Visagio</t>
+          <t>Senior Manager at Robert Half</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>Joao Marcelo Brasil</t>
+          <t>Jansen Costa Silva, CFP®</t>
         </is>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>Operations Project Manager</t>
+          <t>Financial Advisor</t>
         </is>
       </c>
       <c r="C41" s="0" t="inlineStr">
@@ -978,6 +1185,11 @@
       <c r="D41" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1002,104 +1214,137 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>Wladas M.</t>
+          <t>Izaias Miguel</t>
         </is>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>Gestão de informações &amp; desempenho | Projetos | Compras | Tecnologia | Consultoria</t>
+          <t>Managing Partner at Visagio Technology and Visagio Management Engineering</t>
         </is>
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>Florianópolis e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>Izaias Miguel</t>
+          <t>Walmir Alves Costa</t>
         </is>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner at Visagio Technology and Visagio Management Engineering</t>
+          <t>Diretor Executivo at WAC Serviços de Informática Ltda</t>
         </is>
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Angra dos Reis e Região</t>
         </is>
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>E-mail.: walmir.costa@wacbusiness.com
+Skype.: walmir50
+Cel.: 21- 7861-3995 ID.: 81*50527
+21- 97628-8242
+21- 99197-9870</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>Eduardo Uchôa</t>
+          <t>Rogerio Araujo, PMP</t>
         </is>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>senior leader consultant at CSC</t>
+          <t>Gerente de Consultoria at Artsoft Sistemas</t>
         </is>
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D45" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>Óscar Curros</t>
+          <t>Wladas M.</t>
         </is>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>Freelance Portuguese &gt; Spanish Translator at Diario EL PAÍS</t>
+          <t>Gestão de informações &amp; desempenho | Projetos | Compras | Tecnologia | Consultoria</t>
         </is>
       </c>
       <c r="C46" s="0" t="inlineStr">
         <is>
-          <t>Brasília e Região</t>
+          <t>Florianópolis e Região</t>
         </is>
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>Profissional disponível ao mercado em busca de oportunidades de:
+- Projetos de desenvolvimento, implantação e/ou migração de sistemas e ERPs;
+- Projetos de melhoria de processos ou melhoria contínua;
+- Gestão por resultados, de performance ou desempenho.
+Peço a gentileza de entrar em contato via e-mail wladas.meskelis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>Marcelo M.</t>
+          <t>João Vinicius Louvem</t>
         </is>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>Executivo de Contas / Gerente de Vendas</t>
+          <t>Analista e Desenvolvedor de Sistemas | Engenheiro de Software</t>
         </is>
       </c>
       <c r="C47" s="0" t="inlineStr">
@@ -1110,18 +1355,23 @@
       <c r="D47" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>Rogerio Araujo, PMP</t>
+          <t>Marcelo M.</t>
         </is>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Consultoria at Artsoft Sistemas</t>
+          <t>Executivo de Contas / Gerente de Vendas</t>
         </is>
       </c>
       <c r="C48" s="0" t="inlineStr">
@@ -1132,314 +1382,402 @@
       <c r="D48" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>marceloamadeira@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>João Vinicius Louvem</t>
+          <t>Eduardo Uchôa</t>
         </is>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>Analista e Desenvolvedor de Sistemas | Engenheiro de Software</t>
+          <t>senior leader consultant at CSC</t>
         </is>
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>Christian Omar Llanir</t>
+          <t>Óscar Curros</t>
         </is>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>LATAM New Business Development Director at EBDI - Enterprise Business Development &amp; Information</t>
+          <t>Freelance Portuguese &gt; Spanish Translator at Diario EL PAÍS</t>
         </is>
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Brasília e Região</t>
         </is>
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>Please, write an e-mail to: oscarcurros@oscarcurros.com</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>Walmir Alves Costa</t>
+          <t>Christian Omar Llanir</t>
         </is>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>Diretor Executivo at WAC Serviços de Informática Ltda</t>
+          <t>LATAM New Business Development Director at EBDI - Enterprise Business Development &amp; Information</t>
         </is>
       </c>
       <c r="C51" s="0" t="inlineStr">
         <is>
-          <t>Angra dos Reis e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>Phone: +55 11 4208 5140 
+Mobile: +55 11 9 8342 8381 or +55 11 9 6867 1000
+E-mail: christian.llanir@ebdicorp.com.br
+I am interested to get in touch with solution providers for the following industries / target profiles - focused to Brazil and Latin America:
+- PMOs (Project Management Offices)
+- CMOs (Chief Marketing Officers)
+- HR (Human Resources)
+- CFOs (Chief Financial Officers)
+- Reitailers - Financial Services
+- Shared Services Centers
+- BPO (Business Process Outsourcing)
+- BPM (Business Process Management)
+- Credit &amp; Collect</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>Ana Paula Langsch</t>
+          <t>Alexandre Souza</t>
         </is>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>Associate Partner at Visagio</t>
+          <t>Executive Director at OUTMarketing Brasil</t>
         </is>
       </c>
       <c r="C52" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>Mariana B.</t>
+          <t>Rodrigo M.</t>
         </is>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>Especialista em Excelência Operacional - AkzoNobel</t>
+          <t>Advogado</t>
         </is>
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>Renan Rangel</t>
+          <t>Pedro Barata</t>
         </is>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>Diretor at (QI)³ - Inteligência de Negócios</t>
+          <t>Senior Management Consultant</t>
         </is>
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
-          <t>Vila Velha e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>Pedro Barata</t>
+          <t>Newton Ribeiro</t>
         </is>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>Senior Management Consultant</t>
+          <t>Director at Grupo Imaginarium</t>
         </is>
       </c>
       <c r="C55" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>Alexandre Souza</t>
+          <t>Agapito Troina</t>
         </is>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>Executive Director at OUTMarketing Brasil</t>
+          <t>Associate Partner at Visagio</t>
         </is>
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>Newton Ribeiro</t>
+          <t>Ricardo Satin, ITIL, MBA, CSM, PMP</t>
         </is>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>Director at Grupo Imaginarium</t>
+          <t>Head de Desenvolvimento - Ensino Presencial – IT Desenvolvimento (ITD) at Unicesumar</t>
         </is>
       </c>
       <c r="C57" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Maringá e Região</t>
         </is>
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>Agapito Troina</t>
+          <t>Mauro M.</t>
         </is>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>Associate Partner at Visagio</t>
+          <t>Full IT Lawyer - Microsoft Brazil - Secondment from PK Advogados</t>
         </is>
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>e-mail: mauromartins@outlook.com
+mobile: 11-96277-8721</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>Mauro M.</t>
+          <t>Ana Paula Langsch</t>
         </is>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>Full IT Lawyer - Microsoft Brazil - Secondment from PK Advogados</t>
+          <t>Associate Partner at Visagio</t>
         </is>
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="inlineStr">
         <is>
-          <t>Ricardo Satin, ITIL, MBA, CSM, PMP</t>
+          <t>Mariana B.</t>
         </is>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>Head de Desenvolvimento - Ensino Presencial – IT Desenvolvimento (ITD) at Unicesumar</t>
+          <t>Especialista em Excelência Operacional - AkzoNobel</t>
         </is>
       </c>
       <c r="C60" s="0" t="inlineStr">
         <is>
-          <t>Maringá e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="inlineStr">
         <is>
-          <t>Rodrigo M.</t>
+          <t>Renan Rangel</t>
         </is>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>Advogado</t>
+          <t>Diretor at (QI)³ - Inteligência de Negócios</t>
         </is>
       </c>
       <c r="C61" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Vila Velha e Região</t>
         </is>
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="inlineStr">
         <is>
-          <t>Eduardo Saggioro</t>
+          <t>Monique Mattos Vimercati</t>
         </is>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner at Visagio</t>
+          <t>Managing Partner</t>
         </is>
       </c>
       <c r="C62" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1464,11 +1802,16 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="inlineStr">
         <is>
-          <t>Tatiana Marujo Mendes</t>
+          <t>Felipe Valle</t>
         </is>
       </c>
       <c r="B64" s="0" t="inlineStr">
@@ -1484,18 +1827,23 @@
       <c r="D64" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="inlineStr">
         <is>
-          <t>Monique Mattos Vimercati</t>
+          <t>Marcela Menezes Leite Pinto</t>
         </is>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner</t>
+          <t>Senior Consultant at Visagio</t>
         </is>
       </c>
       <c r="C65" s="0" t="inlineStr">
@@ -1506,128 +1854,158 @@
       <c r="D65" s="0" t="inlineStr">
         <is>
           <t> Austrália</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="inlineStr">
         <is>
-          <t>Fabiano Muniz</t>
+          <t>Eduardo Saggioro</t>
         </is>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>Associate Partner at Visagio</t>
+          <t>Managing Partner at Visagio</t>
         </is>
       </c>
       <c r="C66" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D66" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="inlineStr">
         <is>
-          <t>Ivo Ferreira</t>
+          <t>Leonardo Machado</t>
         </is>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner</t>
+          <t>Co-founder and Managing Partner at Visagio</t>
         </is>
       </c>
       <c r="C67" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>Reino Unido</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="inlineStr">
         <is>
-          <t>Leonardo Machado</t>
+          <t>Fabiano Muniz</t>
         </is>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>Co-founder and Managing Partner at Visagio</t>
+          <t>Associate Partner at Visagio</t>
         </is>
       </c>
       <c r="C68" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="inlineStr">
         <is>
-          <t>Felipe Valle</t>
+          <t>Ivo Ferreira</t>
         </is>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Managing Partner</t>
         </is>
       </c>
       <c r="C69" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Reino Unido</t>
+        </is>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="inlineStr">
         <is>
-          <t>Marcela Menezes Leite Pinto</t>
+          <t>Tiago Chaves</t>
         </is>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>Senior Consultant at Visagio</t>
+          <t>Consultor Autônomo em Logística, Gestão de projetos e Modelagem de dados</t>
         </is>
       </c>
       <c r="C70" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="inlineStr">
         <is>
-          <t>Tiago Chaves</t>
+          <t>Tatiana Marujo Mendes</t>
         </is>
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>Consultor Autônomo em Logística, Gestão de projetos e Modelagem de dados</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C71" s="0" t="inlineStr">
@@ -1638,40 +2016,50 @@
       <c r="D71" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="inlineStr">
         <is>
-          <t>Anderson S.</t>
+          <t>Breno Rosso</t>
         </is>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>Coordenador RH at Oxiteno</t>
+          <t>Business Controller na BTG Pactual</t>
         </is>
       </c>
       <c r="C72" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="inlineStr">
         <is>
-          <t>Denni Moraes</t>
+          <t>Gustavo Touzo</t>
         </is>
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>Software Developer at TO Brasil</t>
+          <t>Java/Flex Developer na Avanti Prima Engenharia</t>
         </is>
       </c>
       <c r="C73" s="0" t="inlineStr">
@@ -1682,18 +2070,23 @@
       <c r="D73" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="inlineStr">
         <is>
-          <t>Thales Bitencourt</t>
+          <t>Alexandre Oliveira</t>
         </is>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>Consultor na Visagio</t>
+          <t>Managing Partner at Visagio</t>
         </is>
       </c>
       <c r="C74" s="0" t="inlineStr">
@@ -1704,40 +2097,50 @@
       <c r="D74" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="inlineStr">
         <is>
-          <t>Gustavo Touzo</t>
+          <t>Anderson S.</t>
         </is>
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>Java/Flex Developer na Avanti Prima Engenharia</t>
+          <t>Coordenador RH at Oxiteno</t>
         </is>
       </c>
       <c r="C75" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="inlineStr">
         <is>
-          <t>Breno Rosso</t>
+          <t>Níkollas Oliveira</t>
         </is>
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>Business Controller na BTG Pactual</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C76" s="0" t="inlineStr">
@@ -1748,18 +2151,23 @@
       <c r="D76" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="inlineStr">
         <is>
-          <t>Alexandre Oliveira</t>
+          <t>Bruno Medeiros</t>
         </is>
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner at Visagio</t>
+          <t>Software Consultant at Visagio</t>
         </is>
       </c>
       <c r="C77" s="0" t="inlineStr">
@@ -1770,40 +2178,50 @@
       <c r="D77" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="inlineStr">
         <is>
-          <t>Níkollas Oliveira</t>
+          <t>Igor José F. Freitas</t>
         </is>
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Software Analyst – Energy &amp; Transportation at Intel</t>
         </is>
       </c>
       <c r="C78" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D78" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="inlineStr">
         <is>
-          <t>Eduardo Pedreira de Oliveira</t>
+          <t>Thales Bitencourt</t>
         </is>
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Logística SNAP LOGISTICA</t>
+          <t>Consultor na Visagio</t>
         </is>
       </c>
       <c r="C79" s="0" t="inlineStr">
@@ -1814,40 +2232,50 @@
       <c r="D79" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="inlineStr">
         <is>
-          <t>Igor José F. Freitas</t>
+          <t>Denni Moraes</t>
         </is>
       </c>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>Software Analyst – Energy &amp; Transportation at Intel</t>
+          <t>Software Developer at TO Brasil</t>
         </is>
       </c>
       <c r="C80" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="inlineStr">
         <is>
-          <t>Bruno Medeiros</t>
+          <t>Eduardo Pedreira de Oliveira</t>
         </is>
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>Software Consultant at Visagio</t>
+          <t>Gerente de Logística SNAP LOGISTICA</t>
         </is>
       </c>
       <c r="C81" s="0" t="inlineStr">
@@ -1858,18 +2286,23 @@
       <c r="D81" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E81" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="inlineStr">
         <is>
-          <t>Vitor Braga</t>
+          <t>Stephanie F.</t>
         </is>
       </c>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors Professional Services Consultant na EPI-USE</t>
+          <t>Reinsurance Broker at JLT Re Brasil</t>
         </is>
       </c>
       <c r="C82" s="0" t="inlineStr">
@@ -1880,18 +2313,23 @@
       <c r="D82" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E82" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="inlineStr">
         <is>
-          <t>Ewerton Ramos</t>
+          <t>Elivandio Moraes</t>
         </is>
       </c>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Coordenador de Controle e Performance at Lafarge Cement</t>
         </is>
       </c>
       <c r="C83" s="0" t="inlineStr">
@@ -1902,62 +2340,85 @@
       <c r="D83" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="inlineStr">
         <is>
-          <t>elpidio ,jr R.</t>
+          <t>Rafael Ferreira</t>
         </is>
       </c>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>EVP- Head Operation at BROAD PRAISE LIMITED</t>
+          <t>Sócio at Vimercati e Ferreira Advogados</t>
         </is>
       </c>
       <c r="C84" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="inlineStr">
         <is>
-          <t>Elivandio Moraes</t>
+          <t>elpidio ,jr R.</t>
         </is>
       </c>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>Coordenador de Controle e Performance at Lafarge Cement</t>
+          <t>EVP- Head Operation at BROAD PRAISE LIMITED</t>
         </is>
       </c>
       <c r="C85" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D85" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="E85" s="0" t="inlineStr">
+        <is>
+          <t>Telephone No. : +852-2832 9229
+Fax No.: : +852 2832 9239
+HK Mobile No. : +852-63776259
+Email Add: verrostrading@gmail.com
+Telfax No.:+632-913 1339
+PH Mobile No. +639193469299
++639063716962 
+Email Add: broadpraiselimited@gmail.com
+Skype: buenavista1967</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="inlineStr">
         <is>
-          <t>Rafael Ferreira</t>
+          <t>Ewerton Ramos</t>
         </is>
       </c>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>Sócio at Vimercati e Ferreira Advogados</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="C86" s="0" t="inlineStr">
@@ -1968,40 +2429,54 @@
       <c r="D86" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E86" s="0" t="inlineStr">
+        <is>
+          <t>I'm available for new positions related to software engineering. 
+I'm a quick learner, hardworker and a team player.
+I'm used to problem solving pragmatically.
+I'm a technology lover.
+Please contact me by e-mail.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="inlineStr">
         <is>
-          <t>Ersin S.</t>
+          <t>Felipe Ribeiro</t>
         </is>
       </c>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Accenture</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C87" s="0" t="inlineStr">
         <is>
-          <t>Istambul</t>
+          <t/>
         </is>
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t> Turquia</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E87" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="inlineStr">
         <is>
-          <t>Stephanie F.</t>
+          <t>Fernanda Q.</t>
         </is>
       </c>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>Reinsurance Broker at JLT Re Brasil</t>
+          <t>Analista Planejamento e Orçamento Sr. TV Globo</t>
         </is>
       </c>
       <c r="C88" s="0" t="inlineStr">
@@ -2012,62 +2487,77 @@
       <c r="D88" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E88" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="inlineStr">
         <is>
-          <t>Fernanda Q.</t>
+          <t>Ersin S.</t>
         </is>
       </c>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>Analista Planejamento e Orçamento Sr. TV Globo</t>
+          <t>Consultant at Accenture</t>
         </is>
       </c>
       <c r="C89" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Istambul</t>
         </is>
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Turquia</t>
+        </is>
+      </c>
+      <c r="E89" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
         <is>
-          <t>Felipe Ribeiro</t>
+          <t>Felipe Saraiva</t>
         </is>
       </c>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Software Engineer at GE Global Research</t>
         </is>
       </c>
       <c r="C90" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D90" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E90" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
         <is>
-          <t>Felipe Saraiva</t>
+          <t>Vitor Braga</t>
         </is>
       </c>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>Software Engineer at GE Global Research</t>
+          <t>SAP SuccessFactors Professional Services Consultant na EPI-USE</t>
         </is>
       </c>
       <c r="C91" s="0" t="inlineStr">
@@ -2078,106 +2568,131 @@
       <c r="D91" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E91" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="inlineStr">
         <is>
-          <t>Paula Belfort</t>
+          <t>Adriano L.</t>
         </is>
       </c>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>Estudante</t>
         </is>
       </c>
       <c r="C92" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Florianópolis e Região</t>
         </is>
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E92" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="inlineStr">
         <is>
-          <t>Leonardo Mietherhofer</t>
+          <t>Igor Beckman</t>
         </is>
       </c>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Controles e Planejamento</t>
+          <t>Gerente de Projetos na Peopleware Tecnologia</t>
         </is>
       </c>
       <c r="C93" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D93" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E93" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="inlineStr">
         <is>
-          <t>Renata Mello</t>
+          <t>Elizabeth Assmann da Silva</t>
         </is>
       </c>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>Consultor SAP BW e SAP ABAP</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C94" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
+        </is>
+      </c>
+      <c r="E94" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="inlineStr">
         <is>
-          <t>Leonardo Marinho</t>
+          <t>Paula Belfort</t>
         </is>
       </c>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>--</t>
         </is>
       </c>
       <c r="C95" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D95" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E95" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="inlineStr">
         <is>
-          <t>Rafael Figueiredo</t>
+          <t>Leonardo Marinho</t>
         </is>
       </c>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t>Logistics Supervisor na BRF</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C96" s="0" t="inlineStr">
@@ -2188,40 +2703,50 @@
       <c r="D96" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E96" s="0" t="inlineStr">
+        <is>
+          <t>I seek international career opportunities, scholarships and cultural exchange programs.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="inlineStr">
         <is>
-          <t>Igor Beckman</t>
+          <t>Elisa Gandour</t>
         </is>
       </c>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>Gerente de Projetos na Peopleware Tecnologia</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C97" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E97" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="inlineStr">
         <is>
-          <t>Elisa Gandour</t>
+          <t>Rafael Figueiredo</t>
         </is>
       </c>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Logistics Supervisor na BRF</t>
         </is>
       </c>
       <c r="C98" s="0" t="inlineStr">
@@ -2232,62 +2757,77 @@
       <c r="D98" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E98" s="0" t="inlineStr">
+        <is>
+          <t>Enviarem email para: rafaelmaf@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="inlineStr">
         <is>
-          <t>Elizabeth Assmann da Silva</t>
+          <t>Renata Mello</t>
         </is>
       </c>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Consultor SAP BW e SAP ABAP</t>
         </is>
       </c>
       <c r="C99" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D99" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E99" s="0" t="inlineStr">
+        <is>
+          <t>Por telefone em qualquer horário ou e-mail.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="inlineStr">
         <is>
-          <t>Adriano L.</t>
+          <t>Rachel Nogueira</t>
         </is>
       </c>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>Estudante</t>
+          <t>Operations Manager at Eleva Educação</t>
         </is>
       </c>
       <c r="C100" s="0" t="inlineStr">
         <is>
-          <t>Florianópolis e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E100" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="inlineStr">
         <is>
-          <t>Rachel Nogueira</t>
+          <t>Leonardo Mietherhofer</t>
         </is>
       </c>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>Operations Manager at Eleva Educação</t>
+          <t>Gerente de Controles e Planejamento</t>
         </is>
       </c>
       <c r="C101" s="0" t="inlineStr">
@@ -2298,40 +2838,50 @@
       <c r="D101" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E101" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="inlineStr">
         <is>
-          <t>André A.</t>
+          <t>Pedro de Pádua Paula</t>
         </is>
       </c>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>Operador de Loja na Casa &amp; Video</t>
+          <t>Senior Consultant at Visagio</t>
         </is>
       </c>
       <c r="C102" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E102" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="inlineStr">
         <is>
-          <t>Aline N.</t>
+          <t>André A.</t>
         </is>
       </c>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>Gerente Operacional / Financeira / Gestão de contas à pagar/receber / Controle Compra/Estoque / MBA Gestão Empresarial</t>
+          <t>Operador de Loja na Casa &amp; Video</t>
         </is>
       </c>
       <c r="C103" s="0" t="inlineStr">
@@ -2342,40 +2892,52 @@
       <c r="D103" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E103" s="0" t="inlineStr">
+        <is>
+          <t>Tel Res(21)3463-3519
+Tel Cel(21)99439-7413
+E-mail: andre.sousa@oi.com.br</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="inlineStr">
         <is>
-          <t>Pedro de Pádua Paula</t>
+          <t>Grasieli A. Lapi</t>
         </is>
       </c>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>Senior Consultant at Visagio</t>
+          <t>Consultora na Visagio</t>
         </is>
       </c>
       <c r="C104" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Poços de Caldas e Região</t>
         </is>
       </c>
       <c r="D104" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E104" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="inlineStr">
         <is>
-          <t>Naira Splitter</t>
+          <t>Flávia C.</t>
         </is>
       </c>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>Analista de Comunicação e Marketing - Especialista em eventos</t>
+          <t>Analista de RH na Siglasul Consultoria Ltda</t>
         </is>
       </c>
       <c r="C105" s="0" t="inlineStr">
@@ -2386,18 +2948,23 @@
       <c r="D105" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E105" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="inlineStr">
         <is>
-          <t>Flávia C.</t>
+          <t>Naira Splitter</t>
         </is>
       </c>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>Analista de RH na Siglasul Consultoria Ltda</t>
+          <t>Analista de Comunicação e Marketing - Especialista em eventos</t>
         </is>
       </c>
       <c r="C106" s="0" t="inlineStr">
@@ -2408,62 +2975,77 @@
       <c r="D106" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E106" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="inlineStr">
         <is>
-          <t>Paula M.</t>
+          <t>Renato Godinho</t>
         </is>
       </c>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>Analista de Processos Pleno na BPM Soluções em Processos de Negócio (BPM Solutions)</t>
+          <t>Analista de Sistemas - Brazilian Olympic Committee</t>
         </is>
       </c>
       <c r="C107" s="0" t="inlineStr">
         <is>
-          <t>Porto Alegre e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D107" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E107" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="inlineStr">
         <is>
-          <t>Regiane S.</t>
+          <t>Luzitania A.</t>
         </is>
       </c>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t>Gestão e Execução de Projetos e Negócios - Planejamento e Controle</t>
+          <t>--</t>
         </is>
       </c>
       <c r="C108" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D108" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E108" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="inlineStr">
         <is>
-          <t>Renato Godinho</t>
+          <t>Regiane S.</t>
         </is>
       </c>
       <c r="B109" s="0" t="inlineStr">
         <is>
-          <t>Analista de Sistemas - Brazilian Olympic Committee</t>
+          <t>Gestão e Execução de Projetos e Negócios - Planejamento e Controle</t>
         </is>
       </c>
       <c r="C109" s="0" t="inlineStr">
@@ -2474,84 +3056,109 @@
       <c r="D109" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E109" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="inlineStr">
         <is>
-          <t>Luzitania A.</t>
+          <t>Paula M.</t>
         </is>
       </c>
       <c r="B110" s="0" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>Analista de Processos Pleno na BPM Soluções em Processos de Negócio (BPM Solutions)</t>
         </is>
       </c>
       <c r="C110" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Porto Alegre e Região</t>
         </is>
       </c>
       <c r="D110" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E110" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="inlineStr">
         <is>
-          <t>Grasieli A. Lapi</t>
+          <t>Aline N.</t>
         </is>
       </c>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t>Consultora na Visagio</t>
+          <t>Gerente Operacional / Financeira / Gestão de contas à pagar/receber / Controle Compra/Estoque / MBA Gestão Empresarial</t>
         </is>
       </c>
       <c r="C111" s="0" t="inlineStr">
         <is>
-          <t>Poços de Caldas e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D111" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E111" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="inlineStr">
         <is>
-          <t>Bárbara Bivar</t>
+          <t>Ana A.</t>
         </is>
       </c>
       <c r="B112" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Assistente Técnica em "call center" I Banco, Bens de Consumo - Quadrilíngüe : Francês, Inglês, Espanhol, Português</t>
         </is>
       </c>
       <c r="C112" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>França</t>
+        </is>
+      </c>
+      <c r="E112" s="0" t="inlineStr">
+        <is>
+          <t>De formation Bac +3 (validé impérativement), je justifie d’une première expérience réussie dans le financement de crédits
+- Mon tempérament commercial me permet d’atteindre les objectifs fixés
+- Je porte un réel intérêt au secteur bancaire ce qui m'a garantit une connaissance des produits et services bancaires
+- Je suis rigoureuse et dotée d'un réel sens du service, mon aisance relationnelle, ma pédagogie et mon esprit d’équipe sont des qualités qui me caractérisent.
+- Mes capacités d’assimilation et ma réactivité me permettent de m'adapter rapidement au changement.
+Email: ana.amaral1975@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="inlineStr">
         <is>
-          <t>Maria Claudia Fialho</t>
+          <t>Bárbara Bivar</t>
         </is>
       </c>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t>Analista de Comunicação e Marketing na Visagio</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C113" s="0" t="inlineStr">
@@ -2562,6 +3169,11 @@
       <c r="D113" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E113" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2586,202 +3198,256 @@
           <t> Austrália</t>
         </is>
       </c>
+      <c r="E114" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="inlineStr">
         <is>
-          <t>Adriano L.</t>
+          <t>Maria Claudia Fialho</t>
         </is>
       </c>
       <c r="B115" s="0" t="inlineStr">
         <is>
-          <t>Disponível no Mercado de Trabalho. Busco Recolocação!</t>
+          <t>Analista de Comunicação e Marketing na Visagio</t>
         </is>
       </c>
       <c r="C115" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E115" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="inlineStr">
         <is>
-          <t>Virgilio Vilas Boas</t>
+          <t>Adriano L.</t>
         </is>
       </c>
       <c r="B116" s="0" t="inlineStr">
         <is>
-          <t>Engenheiro de Produção Industrial com Especialização em Automação Industrial em Petróleo e Gás</t>
+          <t>Disponível no Mercado de Trabalho. Busco Recolocação!</t>
         </is>
       </c>
       <c r="C116" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D116" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E116" s="0" t="inlineStr">
+        <is>
+          <t>Celular: (11) 9. 8879-0518</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="inlineStr">
         <is>
-          <t>Ana A.</t>
+          <t>Zach Pisecki</t>
         </is>
       </c>
       <c r="B117" s="0" t="inlineStr">
         <is>
-          <t>Assistente Técnica em "call center" I Banco, Bens de Consumo - Quadrilíngüe : Francês, Inglês, Espanhol, Português</t>
+          <t>Senior Consultant at Visagio</t>
         </is>
       </c>
       <c r="C117" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D117" s="0" t="inlineStr">
         <is>
-          <t>França</t>
+          <t> Austrália</t>
+        </is>
+      </c>
+      <c r="E117" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="inlineStr">
         <is>
-          <t>Zach Pisecki</t>
+          <t>WELLINGTON V.</t>
         </is>
       </c>
       <c r="B118" s="0" t="inlineStr">
         <is>
-          <t>Senior Consultant at Visagio</t>
+          <t>Gerente Fiscal na LATICINIOS CATUPIRY LTDA</t>
         </is>
       </c>
       <c r="C118" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D118" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E118" s="0" t="inlineStr">
+        <is>
+          <t>Sou um amante do treinamento progressivo e contínuo, por isso sempre estou disposto em participar de novos projetos na área tributária/fiscal.
+Tenho um prazer enorme em transmitir conceitos e conhecimento da área fiscal para as pessoas.
+Busco uma oportunidade para me desenvolver como um controller.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="inlineStr">
         <is>
-          <t>Julio Sampaio</t>
+          <t>Andréia F.</t>
         </is>
       </c>
       <c r="B119" s="0" t="inlineStr">
         <is>
-          <t>Java Developer na iFactory Solutions</t>
+          <t>Corporate Manager at Serasa Experian</t>
         </is>
       </c>
       <c r="C119" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D119" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E119" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="inlineStr">
         <is>
-          <t>Andréia F.</t>
+          <t>Virgilio Vilas Boas</t>
         </is>
       </c>
       <c r="B120" s="0" t="inlineStr">
         <is>
-          <t>Corporate Manager at Serasa Experian</t>
+          <t>Engenheiro de Produção Industrial com Especialização em Automação Industrial em Petróleo e Gás</t>
         </is>
       </c>
       <c r="C120" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D120" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E120" s="0" t="inlineStr">
+        <is>
+          <t>Cel.: 21-982047948
+E-mail: virgilio_campos@hotmail.com
+Facebook: virgilio.vilas.boas</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="inlineStr">
         <is>
-          <t>WELLINGTON V.</t>
+          <t>Julio Sampaio</t>
         </is>
       </c>
       <c r="B121" s="0" t="inlineStr">
         <is>
-          <t>Gerente Fiscal na LATICINIOS CATUPIRY LTDA</t>
+          <t>Java Developer na iFactory Solutions</t>
         </is>
       </c>
       <c r="C121" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Fortaleza e Região</t>
         </is>
       </c>
       <c r="D121" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E121" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="inlineStr">
         <is>
-          <t>Wallace Henriques</t>
+          <t>Rafael Á.</t>
         </is>
       </c>
       <c r="B122" s="0" t="inlineStr">
         <is>
-          <t>Gerente CSC e TI</t>
+          <t>HR Business Partner at Natura</t>
         </is>
       </c>
       <c r="C122" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D122" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E122" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="inlineStr">
         <is>
-          <t>Rodrigo Brisolara</t>
+          <t>Wallace Henriques</t>
         </is>
       </c>
       <c r="B123" s="0" t="inlineStr">
         <is>
-          <t>Gerente Executivo - Planejamento de Negócios, Inteligência Competitiva</t>
+          <t>Gerente CSC e TI</t>
         </is>
       </c>
       <c r="C123" s="0" t="inlineStr">
         <is>
-          <t>Porto Alegre e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D123" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E123" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2806,158 +3472,199 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E124" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="inlineStr">
         <is>
-          <t>Vinícius Pinto</t>
+          <t>João Paulo S.</t>
         </is>
       </c>
       <c r="B125" s="0" t="inlineStr">
         <is>
-          <t>Inbound Marketing | Growth Hacking | Digital Marketing | Lead Generation | Startup Marketing | Hubspot</t>
+          <t>Assistente Administrativo</t>
         </is>
       </c>
       <c r="C125" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D125" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E125" s="0" t="inlineStr">
+        <is>
+          <t>Segue o meu contato (11) 4207-6574 ou (11) 94176-2415 {vivo}</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="inlineStr">
         <is>
-          <t>Marco Gabriel Barcellos</t>
+          <t>Andre Solot</t>
         </is>
       </c>
       <c r="B126" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C126" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D126" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E126" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="inlineStr">
         <is>
-          <t>Rafael Á.</t>
+          <t>Pc S.</t>
         </is>
       </c>
       <c r="B127" s="0" t="inlineStr">
         <is>
-          <t>HR Business Partner at Natura</t>
+          <t>Proprietário(a), Academia Metamorfose</t>
         </is>
       </c>
       <c r="C127" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Fortaleza e Região</t>
         </is>
       </c>
       <c r="D127" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E127" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="inlineStr">
         <is>
-          <t>Ivan S.</t>
+          <t>Vinícius Pinto</t>
         </is>
       </c>
       <c r="B128" s="0" t="inlineStr">
         <is>
-          <t>Supervisor/ Coordenador – RECURSOS HUMANOS: T&amp;D | R&amp;S | Relação trabalhista |Medicina do trabalho |Avaliações - em busca</t>
+          <t>Inbound Marketing | Growth Hacking | Digital Marketing | Lead Generation | Startup Marketing | Hubspot</t>
         </is>
       </c>
       <c r="C128" s="0" t="inlineStr">
         <is>
-          <t>Curitiba e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D128" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E128" s="0" t="inlineStr">
+        <is>
+          <t>Quem quiser entrar em contato comigo para uma boa conversa, sobre qualquer assunto, basta entrar no meu site (www.viniciuspinto.com) ou falar comigo nas redes sociais.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="inlineStr">
         <is>
-          <t>João Paulo S.</t>
+          <t>Rodrigo Brisolara</t>
         </is>
       </c>
       <c r="B129" s="0" t="inlineStr">
         <is>
-          <t>Assistente Administrativo</t>
+          <t>Gerente Executivo - Planejamento de Negócios, Inteligência Competitiva</t>
         </is>
       </c>
       <c r="C129" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Porto Alegre e Região</t>
         </is>
       </c>
       <c r="D129" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E129" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="inlineStr">
         <is>
-          <t>Andre Solot</t>
+          <t>Ivan S.</t>
         </is>
       </c>
       <c r="B130" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Supervisor/ Coordenador – RECURSOS HUMANOS: T&amp;D | R&amp;S | Relação trabalhista |Medicina do trabalho |Avaliações - em busca</t>
         </is>
       </c>
       <c r="C130" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Curitiba e Região</t>
         </is>
       </c>
       <c r="D130" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E130" s="0" t="inlineStr">
+        <is>
+          <t>Email: ivansouza.bhz@gmail.com
+Skype: Ivan Luiz (i.luiz@hotmail.com)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="inlineStr">
         <is>
-          <t>Pc S.</t>
+          <t>Marco Gabriel Barcellos</t>
         </is>
       </c>
       <c r="B131" s="0" t="inlineStr">
         <is>
-          <t>Proprietário(a), Academia Metamorfose</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C131" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D131" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E131" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2982,70 +3689,90 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E132" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="inlineStr">
         <is>
-          <t>Jan Heineman</t>
+          <t>Gabriel Lima</t>
         </is>
       </c>
       <c r="B133" s="0" t="inlineStr">
         <is>
-          <t>Consultant</t>
+          <t>Management Consultant at Visagio</t>
         </is>
       </c>
       <c r="C133" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D133" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
+        </is>
+      </c>
+      <c r="E133" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="inlineStr">
         <is>
-          <t>Gabriel Lima</t>
+          <t>Dennis A.</t>
         </is>
       </c>
       <c r="B134" s="0" t="inlineStr">
         <is>
-          <t>Management Consultant at Visagio</t>
+          <t>Administrador de Sistemas I at Locaweb</t>
         </is>
       </c>
       <c r="C134" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D134" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E134" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="inlineStr">
         <is>
-          <t>Iria P.</t>
+          <t>Camila Secol</t>
         </is>
       </c>
       <c r="B135" s="0" t="inlineStr">
         <is>
-          <t>Project manager in composites solutions in Getafe plant en Airbus Group</t>
+          <t>Consultora de R&amp;S na Avance RH</t>
         </is>
       </c>
       <c r="C135" s="0" t="inlineStr">
         <is>
-          <t>Madrid e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D135" s="0" t="inlineStr">
         <is>
-          <t> Espanha</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E135" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3070,6 +3797,11 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E136" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="inlineStr">
@@ -3092,38 +3824,48 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E137" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="inlineStr">
         <is>
-          <t>Dennis A.</t>
+          <t>Iria P.</t>
         </is>
       </c>
       <c r="B138" s="0" t="inlineStr">
         <is>
-          <t>Administrador de Sistemas I at Locaweb</t>
+          <t>Project manager in composites solutions in Getafe plant en Airbus Group</t>
         </is>
       </c>
       <c r="C138" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Madrid e Região</t>
         </is>
       </c>
       <c r="D138" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Espanha</t>
+        </is>
+      </c>
+      <c r="E138" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="inlineStr">
         <is>
-          <t>Camila Secol</t>
+          <t>Denise A.</t>
         </is>
       </c>
       <c r="B139" s="0" t="inlineStr">
         <is>
-          <t>Consultora de R&amp;S na Avance RH</t>
+          <t>Project Consultant at Odebrecht</t>
         </is>
       </c>
       <c r="C139" s="0" t="inlineStr">
@@ -3134,28 +3876,38 @@
       <c r="D139" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E139" s="0" t="inlineStr">
+        <is>
+          <t>denise.dsa@globomail.com</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="inlineStr">
         <is>
-          <t>Denise A.</t>
+          <t>Jan Heineman</t>
         </is>
       </c>
       <c r="B140" s="0" t="inlineStr">
         <is>
-          <t>Project Consultant at Odebrecht</t>
+          <t>Consultant</t>
         </is>
       </c>
       <c r="C140" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D140" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E140" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3180,16 +3932,21 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E141" s="0" t="inlineStr">
+        <is>
+          <t>e-mail: marcosluizss@gmail.com</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="inlineStr">
         <is>
-          <t>Bruno A.</t>
+          <t>Suelem Schueler</t>
         </is>
       </c>
       <c r="B142" s="0" t="inlineStr">
         <is>
-          <t>Disponível para o mercado.</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="C142" s="0" t="inlineStr">
@@ -3200,62 +3957,79 @@
       <c r="D142" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E142" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="inlineStr">
         <is>
-          <t>Bruno Franco Nascimento</t>
+          <t>Max Ney O.</t>
         </is>
       </c>
       <c r="B143" s="0" t="inlineStr">
         <is>
-          <t>Empresário</t>
+          <t>Coordenador de Planejamento - PCP na RM Soluções em Infraestrutura</t>
         </is>
       </c>
       <c r="C143" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Fortaleza e Região</t>
         </is>
       </c>
       <c r="D143" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E143" s="0" t="inlineStr">
+        <is>
+          <t>maxpascoal@gmail.com
+85-96101422
+85-88470700</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="inlineStr">
         <is>
-          <t>Victor Campos</t>
+          <t>Bruno Franco Nascimento</t>
         </is>
       </c>
       <c r="B144" s="0" t="inlineStr">
         <is>
-          <t>Consultor na Visagio Tecnologia</t>
+          <t>Empresário</t>
         </is>
       </c>
       <c r="C144" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D144" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E144" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="inlineStr">
         <is>
-          <t>Lucas Arnaud</t>
+          <t>Bruno A.</t>
         </is>
       </c>
       <c r="B145" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Disponível para o mercado.</t>
         </is>
       </c>
       <c r="C145" s="0" t="inlineStr">
@@ -3266,62 +4040,77 @@
       <c r="D145" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E145" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="inlineStr">
         <is>
-          <t>Suelem Schueler</t>
+          <t>Evelyn M.</t>
         </is>
       </c>
       <c r="B146" s="0" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Analista de Telecom na Construcap</t>
         </is>
       </c>
       <c r="C146" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E146" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="inlineStr">
         <is>
-          <t>Magda Miguel</t>
+          <t>Lucas Arnaud</t>
         </is>
       </c>
       <c r="B147" s="0" t="inlineStr">
         <is>
-          <t>Inside Sales Account Manager</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C147" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D147" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E147" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="inlineStr">
         <is>
-          <t>UAIBH C.</t>
+          <t>Magda Miguel</t>
         </is>
       </c>
       <c r="B148" s="0" t="inlineStr">
         <is>
-          <t>Consultoria política e empresarial, criação de projetos para investidores, buscamos parceria pra executar os projetos!</t>
+          <t>Inside Sales Account Manager</t>
         </is>
       </c>
       <c r="C148" s="0" t="inlineStr">
@@ -3332,106 +4121,132 @@
       <c r="D148" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E148" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="inlineStr">
         <is>
-          <t>Max Ney O.</t>
+          <t>Breno Jácome</t>
         </is>
       </c>
       <c r="B149" s="0" t="inlineStr">
         <is>
-          <t>Coordenador de Planejamento - PCP na RM Soluções em Infraestrutura</t>
+          <t>Managing Partner at Visagio</t>
         </is>
       </c>
       <c r="C149" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D149" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E149" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="inlineStr">
         <is>
-          <t>Breno Jácome</t>
+          <t>UAIBH C.</t>
         </is>
       </c>
       <c r="B150" s="0" t="inlineStr">
         <is>
-          <t>Managing Partner at Visagio</t>
+          <t>Consultoria política e empresarial, criação de projetos para investidores, buscamos parceria pra executar os projetos!</t>
         </is>
       </c>
       <c r="C150" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Belo Horizonte e Região</t>
         </is>
       </c>
       <c r="D150" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E150" s="0" t="inlineStr">
+        <is>
+          <t>Qualquer contato deverá ser feito através do e-mail: uaibhconsultoria@hotmail.com, ou uaibhconsultoria@gmail.com, estarei a disposição para quaisquer esclarecimentos sobre os projetos, valores, ganhos, percentuais de quotas e outros detalhes.
+Any contact should be made ​​via e-mail: uaibhconsultoria@hotmail.com or uaibhconsultoria@gmail.com, will be on hand to answer any questions about the projects, values​​, earnings, percentage of shares and other details.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="inlineStr">
         <is>
-          <t>Evelyn M.</t>
+          <t>Victor Campos</t>
         </is>
       </c>
       <c r="B151" s="0" t="inlineStr">
         <is>
-          <t>Analista de Telecom na Construcap</t>
+          <t>Consultor na Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C151" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D151" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E151" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="inlineStr">
         <is>
-          <t>Lady Anne L.</t>
+          <t>Julio Cesar do Nascimento Rocha</t>
         </is>
       </c>
       <c r="B152" s="0" t="inlineStr">
         <is>
-          <t>Engenheira Civil na CAUÁS Arquitetura e Urbanismo Ltda</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C152" s="0" t="inlineStr">
         <is>
-          <t>Tianguá e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D152" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E152" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="inlineStr">
         <is>
-          <t>Bruna Pereira</t>
+          <t>Roberta Mothé</t>
         </is>
       </c>
       <c r="B153" s="0" t="inlineStr">
         <is>
-          <t>Consultora na Visagio</t>
+          <t>na</t>
         </is>
       </c>
       <c r="C153" s="0" t="inlineStr">
@@ -3442,18 +4257,23 @@
       <c r="D153" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E153" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="inlineStr">
         <is>
-          <t>Lavio Carvalho</t>
+          <t>Thaissa Lemos</t>
         </is>
       </c>
       <c r="B154" s="0" t="inlineStr">
         <is>
-          <t>Senior Consultant at Visagio</t>
+          <t>Especialista de Change Management</t>
         </is>
       </c>
       <c r="C154" s="0" t="inlineStr">
@@ -3464,94 +4284,119 @@
       <c r="D154" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E154" s="0" t="inlineStr">
+        <is>
+          <t>Email: thaissalemos@hotmail.com - Celular: 21 - 99405-3310</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="inlineStr">
         <is>
-          <t>Julio Cesar do Nascimento Rocha</t>
+          <t>Lady Anne L.</t>
         </is>
       </c>
       <c r="B155" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Engenheira Civil na CAUÁS Arquitetura e Urbanismo Ltda</t>
         </is>
       </c>
       <c r="C155" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Tianguá e Região</t>
         </is>
       </c>
       <c r="D155" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E155" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="inlineStr">
         <is>
-          <t>Fernando C.</t>
+          <t>Lavio Carvalho</t>
         </is>
       </c>
       <c r="B156" s="0" t="inlineStr">
         <is>
-          <t>Project Manager &amp; PPO &amp; Operations &amp; Process | Business &amp; Technology</t>
+          <t>Senior Consultant at Visagio</t>
         </is>
       </c>
       <c r="C156" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E156" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="inlineStr">
         <is>
-          <t>Thaissa Lemos</t>
+          <t>Adriane Ricieri Brito</t>
         </is>
       </c>
       <c r="B157" s="0" t="inlineStr">
         <is>
-          <t>Especialista de Change Management</t>
+          <t>Subsecretária de Gestão da Estratégia Governamental na Governo de Minas Gerais</t>
         </is>
       </c>
       <c r="C157" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Belo Horizonte e Região</t>
         </is>
       </c>
       <c r="D157" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E157" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="inlineStr">
         <is>
-          <t>Karinny G.</t>
+          <t>Fernando C.</t>
         </is>
       </c>
       <c r="B158" s="0" t="inlineStr">
         <is>
-          <t>Analista de Marketing II no Independência Shopping - BRMALLS</t>
+          <t>Project Manager &amp; PPO &amp; Operations &amp; Process | Business &amp; Technology</t>
         </is>
       </c>
       <c r="C158" s="0" t="inlineStr">
         <is>
-          <t>Juiz de Fora e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D158" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E158" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3576,16 +4421,26 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E159" s="0" t="inlineStr">
+        <is>
+          <t>Information and contacts through:
+• E-mail: luan.dssousa@gmail.com / luan_dssousa@yahoo.com.br
+• Skype: luan.dssousa / luan_dssousa
+• Gtalk: luan.dssousa@gmail.com
+• Y Messenger: luan_dssousa@yahoo.com.br
+• Twitter: Lsousa90</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="inlineStr">
         <is>
-          <t>Roberta Mothé</t>
+          <t>Bruna Pereira</t>
         </is>
       </c>
       <c r="B160" s="0" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>Consultora na Visagio</t>
         </is>
       </c>
       <c r="C160" s="0" t="inlineStr">
@@ -3596,40 +4451,50 @@
       <c r="D160" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E160" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="inlineStr">
         <is>
-          <t>Adriane Ricieri Brito</t>
+          <t>Karinny G.</t>
         </is>
       </c>
       <c r="B161" s="0" t="inlineStr">
         <is>
-          <t>Subsecretária de Gestão da Estratégia Governamental na Governo de Minas Gerais</t>
+          <t>Analista de Marketing II no Independência Shopping - BRMALLS</t>
         </is>
       </c>
       <c r="C161" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t>Juiz de Fora e Região</t>
         </is>
       </c>
       <c r="D161" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E161" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="inlineStr">
         <is>
-          <t>vanessa helena dalvi dos santos</t>
+          <t>Vanessa Jansen</t>
         </is>
       </c>
       <c r="B162" s="0" t="inlineStr">
         <is>
-          <t>supervisora comercial / importacao na Imagem Produtos Radiologicos Ltda</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C162" s="0" t="inlineStr">
@@ -3640,28 +4505,38 @@
       <c r="D162" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E162" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="inlineStr">
         <is>
-          <t>Giovanna Nogueira</t>
+          <t>Felippe Paz</t>
         </is>
       </c>
       <c r="B163" s="0" t="inlineStr">
         <is>
-          <t>Senior Consultant at Visagio</t>
+          <t>Consultant na Visagio</t>
         </is>
       </c>
       <c r="C163" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D163" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E163" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3686,38 +4561,48 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E164" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="inlineStr">
         <is>
-          <t>Thiago X.</t>
+          <t>vanessa helena dalvi dos santos</t>
         </is>
       </c>
       <c r="B165" s="0" t="inlineStr">
         <is>
-          <t>PMO Consultant (Industrial Engineer)</t>
+          <t>supervisora comercial / importacao na Imagem Produtos Radiologicos Ltda</t>
         </is>
       </c>
       <c r="C165" s="0" t="inlineStr">
         <is>
-          <t>Macaé e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D165" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E165" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="inlineStr">
         <is>
-          <t>Alfredo A.</t>
+          <t>Rodrigo Romão Silva</t>
         </is>
       </c>
       <c r="B166" s="0" t="inlineStr">
         <is>
-          <t>Estagiário na Energisa</t>
+          <t>IT Project Manager na Everis (an NTT Data Company)</t>
         </is>
       </c>
       <c r="C166" s="0" t="inlineStr">
@@ -3728,18 +4613,23 @@
       <c r="D166" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E166" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="inlineStr">
         <is>
-          <t>Vanessa Jansen</t>
+          <t>Alfredo A.</t>
         </is>
       </c>
       <c r="B167" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Estagiário na Energisa</t>
         </is>
       </c>
       <c r="C167" s="0" t="inlineStr">
@@ -3750,62 +4640,77 @@
       <c r="D167" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E167" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="inlineStr">
         <is>
-          <t>Guilherme Cadavez</t>
+          <t>Giovanna Nogueira</t>
         </is>
       </c>
       <c r="B168" s="0" t="inlineStr">
         <is>
-          <t>Consultor de Negócios na Cosan Lubrificantes</t>
+          <t>Senior Consultant at Visagio</t>
         </is>
       </c>
       <c r="C168" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D168" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
+        </is>
+      </c>
+      <c r="E168" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="inlineStr">
         <is>
-          <t>Rodrigo Romão Silva</t>
+          <t>Thiago X.</t>
         </is>
       </c>
       <c r="B169" s="0" t="inlineStr">
         <is>
-          <t>IT Project Manager na Everis (an NTT Data Company)</t>
+          <t>PMO Consultant (Industrial Engineer)</t>
         </is>
       </c>
       <c r="C169" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Macaé e Região</t>
         </is>
       </c>
       <c r="D169" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E169" s="0" t="inlineStr">
+        <is>
+          <t>I have interest in engineering in general, especially in the area of Project and Process Management.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="inlineStr">
         <is>
-          <t>Felippe Paz</t>
+          <t>Guilherme Cadavez</t>
         </is>
       </c>
       <c r="B170" s="0" t="inlineStr">
         <is>
-          <t>Consultant na Visagio</t>
+          <t>Consultor de Negócios na Cosan Lubrificantes</t>
         </is>
       </c>
       <c r="C170" s="0" t="inlineStr">
@@ -3816,6 +4721,11 @@
       <c r="D170" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E170" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3840,16 +4750,21 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E171" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="inlineStr">
         <is>
-          <t>Andressa Teixeira Pires Cavalcante</t>
+          <t>Vanessa Penna</t>
         </is>
       </c>
       <c r="B172" s="0" t="inlineStr">
         <is>
-          <t>Assistente de T&amp;D na Technip</t>
+          <t>Analista de Comunicação Corporativa- Protemp/Petrobras</t>
         </is>
       </c>
       <c r="C172" s="0" t="inlineStr">
@@ -3860,18 +4775,23 @@
       <c r="D172" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E172" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Galvão</t>
+          <t>Felipe D.</t>
         </is>
       </c>
       <c r="B173" s="0" t="inlineStr">
         <is>
-          <t>Analista de Transportes na Geodis Wilson</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="C173" s="0" t="inlineStr">
@@ -3882,106 +4802,131 @@
       <c r="D173" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E173" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="inlineStr">
         <is>
-          <t>Vanessa Penna</t>
+          <t>Raphaela Vanessa C.</t>
         </is>
       </c>
       <c r="B174" s="0" t="inlineStr">
         <is>
-          <t>Analista de Comunicação Corporativa- Protemp/Petrobras</t>
+          <t>Graduanda em Administração.</t>
         </is>
       </c>
       <c r="C174" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Pouso Alegre e Região</t>
         </is>
       </c>
       <c r="D174" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E174" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="inlineStr">
         <is>
-          <t>Hallen M.</t>
+          <t>Suzane H.</t>
         </is>
       </c>
       <c r="B175" s="0" t="inlineStr">
         <is>
-          <t>Analista de Planejamento e Programação Materiais</t>
+          <t>Auxiliar Administrativo\Secretaria- Escola Dínamis Ltda</t>
         </is>
       </c>
       <c r="C175" s="0" t="inlineStr">
         <is>
-          <t>Campinas e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D175" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E175" s="0" t="inlineStr">
+        <is>
+          <t>suzanehego@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="inlineStr">
         <is>
-          <t>Raphaela Vanessa C.</t>
+          <t>Oliver Drummond</t>
         </is>
       </c>
       <c r="B176" s="0" t="inlineStr">
         <is>
-          <t>Graduanda em Administração.</t>
+          <t>Analista at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C176" s="0" t="inlineStr">
         <is>
-          <t>Pouso Alegre e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D176" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E176" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="inlineStr">
         <is>
-          <t>Oliver Drummond</t>
+          <t>Aline R.</t>
         </is>
       </c>
       <c r="B177" s="0" t="inlineStr">
         <is>
-          <t>Analista at Visagio Tecnologia</t>
+          <t>Post Doc (ER3 NORA - Marie Curie) at Bioclear B.V.</t>
         </is>
       </c>
       <c r="C177" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Groningen e Região</t>
         </is>
       </c>
       <c r="D177" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Holanda</t>
+        </is>
+      </c>
+      <c r="E177" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="inlineStr">
         <is>
-          <t>Suzane H.</t>
+          <t>Carlos Eduardo Galvão</t>
         </is>
       </c>
       <c r="B178" s="0" t="inlineStr">
         <is>
-          <t>Auxiliar Administrativo\Secretaria- Escola Dínamis Ltda</t>
+          <t>Analista de Transportes na Geodis Wilson</t>
         </is>
       </c>
       <c r="C178" s="0" t="inlineStr">
@@ -3992,18 +4937,25 @@
       <c r="D178" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E178" s="0" t="inlineStr">
+        <is>
+          <t>Caso queiram conhecer um pouco mais do meu perfil pessoal e profissional, me coloco disponível para contato através do email e telefone que seguem: 
+cadufg_1@yahoo.com.br 
++ 55 (21) 99483 - 1079</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="inlineStr">
         <is>
-          <t>Felipe D.</t>
+          <t>Andressa Teixeira Pires Cavalcante</t>
         </is>
       </c>
       <c r="B179" s="0" t="inlineStr">
         <is>
-          <t>Disponível</t>
+          <t>Assistente de T&amp;D na Technip</t>
         </is>
       </c>
       <c r="C179" s="0" t="inlineStr">
@@ -4014,62 +4966,77 @@
       <c r="D179" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E179" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="inlineStr">
         <is>
-          <t>Eduardo M.</t>
+          <t>Hallen M.</t>
         </is>
       </c>
       <c r="B180" s="0" t="inlineStr">
         <is>
-          <t>Técnico Mecânica/Inspetor Equipamento/Quality Inspector Asnt/Cwi Certification Welding Inspector.</t>
+          <t>Analista de Planejamento e Programação Materiais</t>
         </is>
       </c>
       <c r="C180" s="0" t="inlineStr">
         <is>
-          <t>São Carlos e Região</t>
+          <t>Campinas e Região</t>
         </is>
       </c>
       <c r="D180" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E180" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="inlineStr">
         <is>
-          <t>Aline R.</t>
+          <t>Eduardo M.</t>
         </is>
       </c>
       <c r="B181" s="0" t="inlineStr">
         <is>
-          <t>Post Doc (ER3 NORA - Marie Curie) at Bioclear B.V.</t>
+          <t>Técnico Mecânica/Inspetor Equipamento/Quality Inspector Asnt/Cwi Certification Welding Inspector.</t>
         </is>
       </c>
       <c r="C181" s="0" t="inlineStr">
         <is>
-          <t>Groningen e Região</t>
+          <t>São Carlos e Região</t>
         </is>
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t> Holanda</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E181" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="inlineStr">
         <is>
-          <t>Marcus Vinícius A.</t>
+          <t>Liliane Monsores de Sá</t>
         </is>
       </c>
       <c r="B182" s="0" t="inlineStr">
         <is>
-          <t>Designer na Artwork Comunicação &amp; Marketing</t>
+          <t>Gerente de RH - Rio Mix Indústria e Comércio de Bebidas</t>
         </is>
       </c>
       <c r="C182" s="0" t="inlineStr">
@@ -4080,62 +5047,77 @@
       <c r="D182" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E182" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="inlineStr">
         <is>
-          <t>Tiago N.</t>
+          <t>Theresa M.</t>
         </is>
       </c>
       <c r="B183" s="0" t="inlineStr">
         <is>
-          <t>Financial Controller</t>
+          <t>BUSINESS CONSULTANT/MANAGER Excellence in Process Analysis, Project Management, SAP Master Data Compliance &amp; Governance</t>
         </is>
       </c>
       <c r="C183" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Toronto e Região</t>
         </is>
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Canadá</t>
+        </is>
+      </c>
+      <c r="E183" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="inlineStr">
         <is>
-          <t>Theresa M.</t>
+          <t>Felipe Vieira ..</t>
         </is>
       </c>
       <c r="B184" s="0" t="inlineStr">
         <is>
-          <t>BUSINESS CONSULTANT/MANAGER Excellence in Process Analysis, Project Management, SAP Master Data Compliance &amp; Governance</t>
+          <t>Estagiário Programação na Chemtech</t>
         </is>
       </c>
       <c r="C184" s="0" t="inlineStr">
         <is>
-          <t>Toronto e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t> Canadá</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E184" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="inlineStr">
         <is>
-          <t>Felipe Vieira ..</t>
+          <t>Raquel Corrêa Cordeiro</t>
         </is>
       </c>
       <c r="B185" s="0" t="inlineStr">
         <is>
-          <t>Estagiário Programação na Chemtech</t>
+          <t>Freelance Designer</t>
         </is>
       </c>
       <c r="C185" s="0" t="inlineStr">
@@ -4146,18 +5128,23 @@
       <c r="D185" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E185" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="inlineStr">
         <is>
-          <t>Marco Aurélio Pinto</t>
+          <t>Tiago N.</t>
         </is>
       </c>
       <c r="B186" s="0" t="inlineStr">
         <is>
-          <t>Profissional da área de TI</t>
+          <t>Financial Controller</t>
         </is>
       </c>
       <c r="C186" s="0" t="inlineStr">
@@ -4168,18 +5155,23 @@
       <c r="D186" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E186" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="inlineStr">
         <is>
-          <t>Claudio B.</t>
+          <t>Michel L.</t>
         </is>
       </c>
       <c r="B187" s="0" t="inlineStr">
         <is>
-          <t>Analista de Seguridade lll na FUNDAÇÃO PETROBRAS DE SEGURIDADE SOCIAL - PETROS</t>
+          <t>Analista de Negócios na Deloitte Brasil</t>
         </is>
       </c>
       <c r="C187" s="0" t="inlineStr">
@@ -4190,18 +5182,23 @@
       <c r="D187" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E187" s="0" t="inlineStr">
+        <is>
+          <t>michellopes10@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="inlineStr">
         <is>
-          <t>Liliane Monsores de Sá</t>
+          <t>Marco Aurélio Pinto</t>
         </is>
       </c>
       <c r="B188" s="0" t="inlineStr">
         <is>
-          <t>Gerente de RH - Rio Mix Indústria e Comércio de Bebidas</t>
+          <t>Profissional da área de TI</t>
         </is>
       </c>
       <c r="C188" s="0" t="inlineStr">
@@ -4212,18 +5209,25 @@
       <c r="D188" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E188" s="0" t="inlineStr">
+        <is>
+          <t>Skype: marcoaureliospinto
+Cel: +55(21)99142-0443
+E-mail: marcoaureliop2@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="inlineStr">
         <is>
-          <t>Michel L.</t>
+          <t>Claudio B.</t>
         </is>
       </c>
       <c r="B189" s="0" t="inlineStr">
         <is>
-          <t>Analista de Negócios na Deloitte Brasil</t>
+          <t>Analista de Seguridade lll na FUNDAÇÃO PETROBRAS DE SEGURIDADE SOCIAL - PETROS</t>
         </is>
       </c>
       <c r="C189" s="0" t="inlineStr">
@@ -4234,18 +5238,23 @@
       <c r="D189" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E189" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="inlineStr">
         <is>
-          <t>Raquel Corrêa Cordeiro</t>
+          <t>Marcus Vinícius A.</t>
         </is>
       </c>
       <c r="B190" s="0" t="inlineStr">
         <is>
-          <t>Freelance Designer</t>
+          <t>Designer na Artwork Comunicação &amp; Marketing</t>
         </is>
       </c>
       <c r="C190" s="0" t="inlineStr">
@@ -4256,6 +5265,11 @@
       <c r="D190" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E190" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4280,16 +5294,21 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E191" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="inlineStr">
         <is>
-          <t>Eduardo L.</t>
+          <t>Gleidson Machado</t>
         </is>
       </c>
       <c r="B192" s="0" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Founder and CEO - Expojobs</t>
         </is>
       </c>
       <c r="C192" s="0" t="inlineStr">
@@ -4300,6 +5319,11 @@
       <c r="D192" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E192" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4324,16 +5348,21 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E193" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="inlineStr">
         <is>
-          <t>Pedro Carvalho</t>
+          <t>Renato G.</t>
         </is>
       </c>
       <c r="B194" s="0" t="inlineStr">
         <is>
-          <t>Consultor da empresa Visagio</t>
+          <t>Pós Graduando em Engenharia de Segurança do Trabalho, Técnico em Segurança do Trabalho na Rede Globo</t>
         </is>
       </c>
       <c r="C194" s="0" t="inlineStr">
@@ -4344,40 +5373,50 @@
       <c r="D194" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E194" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="inlineStr">
         <is>
-          <t>Marco Túlio S.</t>
+          <t>Pascal Zwerger</t>
         </is>
       </c>
       <c r="B195" s="0" t="inlineStr">
         <is>
-          <t>ENGENHEIRO DE INFRAESTRUTURA DE TRANSPORTES RODOVIÁRIOS na ATP ENGENHARIA LTDA</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C195" s="0" t="inlineStr">
         <is>
-          <t>Recife e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D195" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E195" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="inlineStr">
         <is>
-          <t>Yuri Soares</t>
+          <t>Pedro Carvalho</t>
         </is>
       </c>
       <c r="B196" s="0" t="inlineStr">
         <is>
-          <t>SAP Analyst - CO/PS na Assurance IT</t>
+          <t>Consultor da empresa Visagio</t>
         </is>
       </c>
       <c r="C196" s="0" t="inlineStr">
@@ -4388,40 +5427,50 @@
       <c r="D196" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E196" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="inlineStr">
         <is>
-          <t>Gleidson Machado</t>
+          <t>Marco Túlio S.</t>
         </is>
       </c>
       <c r="B197" s="0" t="inlineStr">
         <is>
-          <t>Founder and CEO - Expojobs</t>
+          <t>ENGENHEIRO DE INFRAESTRUTURA DE TRANSPORTES RODOVIÁRIOS na ATP ENGENHARIA LTDA</t>
         </is>
       </c>
       <c r="C197" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Recife e Região</t>
         </is>
       </c>
       <c r="D197" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E197" s="0" t="inlineStr">
+        <is>
+          <t>EMAIL: tuliosanharo@gmail.com, fone: 81-9254-7119.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="inlineStr">
         <is>
-          <t>Renato G.</t>
+          <t>Eduardo Castro</t>
         </is>
       </c>
       <c r="B198" s="0" t="inlineStr">
         <is>
-          <t>Pós Graduando em Engenharia de Segurança do Trabalho, Técnico em Segurança do Trabalho na Rede Globo</t>
+          <t>Analista de Planejamento Sênior / Compras</t>
         </is>
       </c>
       <c r="C198" s="0" t="inlineStr">
@@ -4432,18 +5481,23 @@
       <c r="D198" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E198" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="inlineStr">
         <is>
-          <t>Daniel Marinho</t>
+          <t>Yuri Soares</t>
         </is>
       </c>
       <c r="B199" s="0" t="inlineStr">
         <is>
-          <t>Management Consultant na Visagio</t>
+          <t>SAP Analyst - CO/PS na Assurance IT</t>
         </is>
       </c>
       <c r="C199" s="0" t="inlineStr">
@@ -4454,18 +5508,23 @@
       <c r="D199" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E199" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="inlineStr">
         <is>
-          <t>Eduardo Castro</t>
+          <t>Daniel Marinho</t>
         </is>
       </c>
       <c r="B200" s="0" t="inlineStr">
         <is>
-          <t>Analista de Planejamento Sênior / Compras</t>
+          <t>Management Consultant na Visagio</t>
         </is>
       </c>
       <c r="C200" s="0" t="inlineStr">
@@ -4476,18 +5535,23 @@
       <c r="D200" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E200" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="inlineStr">
         <is>
-          <t>Pascal Zwerger</t>
+          <t>Eduardo L.</t>
         </is>
       </c>
       <c r="B201" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="C201" s="0" t="inlineStr">
@@ -4498,62 +5562,77 @@
       <c r="D201" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E201" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="inlineStr">
         <is>
-          <t>Beatriz C.</t>
+          <t>Fernando Batista</t>
         </is>
       </c>
       <c r="B202" s="0" t="inlineStr">
         <is>
-          <t>Estagiária de Manutenção e Utilidades na L'Oréal</t>
+          <t>na</t>
         </is>
       </c>
       <c r="C202" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D202" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E202" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="inlineStr">
         <is>
-          <t>Yasser P.</t>
+          <t>Maicon Wallauer</t>
         </is>
       </c>
       <c r="B203" s="0" t="inlineStr">
         <is>
-          <t>Trainee na Business Integration Partners do Brasil</t>
+          <t>Partner Service Advisor da empresa SAP</t>
         </is>
       </c>
       <c r="C203" s="0" t="inlineStr">
         <is>
-          <t>Volta Redonda e Região</t>
+          <t>Porto Alegre e Região</t>
         </is>
       </c>
       <c r="D203" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E203" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="inlineStr">
         <is>
-          <t>Jonathan Penha de Almeida</t>
+          <t>Alessandra Hesketh</t>
         </is>
       </c>
       <c r="B204" s="0" t="inlineStr">
         <is>
-          <t>Consultant</t>
+          <t>Administração e Comércio Exterior</t>
         </is>
       </c>
       <c r="C204" s="0" t="inlineStr">
@@ -4564,6 +5643,11 @@
       <c r="D204" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E204" s="0" t="inlineStr">
+        <is>
+          <t>alessandradh@hotmail.com</t>
         </is>
       </c>
     </row>
@@ -4588,16 +5672,21 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E205" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="inlineStr">
         <is>
-          <t>Alessandra Hesketh</t>
+          <t>Beatriz C.</t>
         </is>
       </c>
       <c r="B206" s="0" t="inlineStr">
         <is>
-          <t>Administração e Comércio Exterior</t>
+          <t>Estagiária de Manutenção e Utilidades na L'Oréal</t>
         </is>
       </c>
       <c r="C206" s="0" t="inlineStr">
@@ -4608,72 +5697,92 @@
       <c r="D206" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E206" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="inlineStr">
         <is>
-          <t>Everton Luiz F.</t>
+          <t>Yasser P.</t>
         </is>
       </c>
       <c r="B207" s="0" t="inlineStr">
         <is>
-          <t>Desenvolvedor Pleno na Microsffer Soluções Tecnólogicas Ltda</t>
+          <t>Trainee na Business Integration Partners do Brasil</t>
         </is>
       </c>
       <c r="C207" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Volta Redonda e Região</t>
         </is>
       </c>
       <c r="D207" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E207" s="0" t="inlineStr">
+        <is>
+          <t>yasserpereira@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="inlineStr">
         <is>
-          <t>Fernando Batista</t>
+          <t>Gisela G.</t>
         </is>
       </c>
       <c r="B208" s="0" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="C208" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D208" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E208" s="0" t="inlineStr">
+        <is>
+          <t>email: giselagaloviche@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="inlineStr">
         <is>
-          <t>Gisela G.</t>
+          <t>Jonathan Penha de Almeida</t>
         </is>
       </c>
       <c r="B209" s="0" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Consultant</t>
         </is>
       </c>
       <c r="C209" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D209" s="0" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E209" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4698,38 +5807,50 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E210" s="0" t="inlineStr">
+        <is>
+          <t>email ariart@uol.com.br - mara.ariarts@uol.com.br 
+tels.: 21 - 2234-0294
+cels.: 7851-6305 - 97236-7990</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="inlineStr">
         <is>
-          <t>Maicon Wallauer</t>
+          <t>Everton Luiz F.</t>
         </is>
       </c>
       <c r="B211" s="0" t="inlineStr">
         <is>
-          <t>Partner Service Advisor da empresa SAP</t>
+          <t>Desenvolvedor Pleno na Microsffer Soluções Tecnólogicas Ltda</t>
         </is>
       </c>
       <c r="C211" s="0" t="inlineStr">
         <is>
-          <t>Porto Alegre e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D211" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E211" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="inlineStr">
         <is>
-          <t>Gilberto Chor Blanck</t>
+          <t>Leticia Gavazzi</t>
         </is>
       </c>
       <c r="B212" s="0" t="inlineStr">
         <is>
-          <t>Engenheiro de Orçamento at Rossi Residencial</t>
+          <t>Demand and Supply Planning Manager at L'Oréal</t>
         </is>
       </c>
       <c r="C212" s="0" t="inlineStr">
@@ -4740,40 +5861,50 @@
       <c r="D212" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E212" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="inlineStr">
         <is>
-          <t>Daniel Benevides</t>
+          <t>Lorival R.</t>
         </is>
       </c>
       <c r="B213" s="0" t="inlineStr">
         <is>
-          <t>Técnico de Segurança do Trabalho na Construtora OAS Óleo e Gás.</t>
+          <t>Supervisor de Obras .</t>
         </is>
       </c>
       <c r="C213" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D213" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E213" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="inlineStr">
         <is>
-          <t>Rogéria C.</t>
+          <t>Jarbas Dellazeri Pixiolini</t>
         </is>
       </c>
       <c r="B214" s="0" t="inlineStr">
         <is>
-          <t>Buscando uma oportunidade na área Adm / Financeira.</t>
+          <t>Analyst at Visagio</t>
         </is>
       </c>
       <c r="C214" s="0" t="inlineStr">
@@ -4784,18 +5915,23 @@
       <c r="D214" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E214" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="inlineStr">
         <is>
-          <t>Jarbas Dellazeri Pixiolini</t>
+          <t>Daniel Benevides</t>
         </is>
       </c>
       <c r="B215" s="0" t="inlineStr">
         <is>
-          <t>Analyst at Visagio</t>
+          <t>Técnico de Segurança do Trabalho na Construtora OAS Óleo e Gás.</t>
         </is>
       </c>
       <c r="C215" s="0" t="inlineStr">
@@ -4806,18 +5942,23 @@
       <c r="D215" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E215" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="inlineStr">
         <is>
-          <t>Leonardo Madeira</t>
+          <t>Gilberto Chor Blanck</t>
         </is>
       </c>
       <c r="B216" s="0" t="inlineStr">
         <is>
-          <t>Coordenador de Operações Logística da empresa Brasco Logística Offshore (Grupo Wilson, Sons)</t>
+          <t>Engenheiro de Orçamento at Rossi Residencial</t>
         </is>
       </c>
       <c r="C216" s="0" t="inlineStr">
@@ -4828,40 +5969,50 @@
       <c r="D216" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E216" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="inlineStr">
         <is>
-          <t>Lorival R.</t>
+          <t>Haryana P.</t>
         </is>
       </c>
       <c r="B217" s="0" t="inlineStr">
         <is>
-          <t>Supervisor de Obras .</t>
+          <t>Gestão Administrativa de projeto - Interagir BNDES</t>
         </is>
       </c>
       <c r="C217" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D217" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E217" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="inlineStr">
         <is>
-          <t>Roberto M.</t>
+          <t>Leonardo Madeira</t>
         </is>
       </c>
       <c r="B218" s="0" t="inlineStr">
         <is>
-          <t>Estagiário de Engenharia Civil na Decania do Centro de Tecnologia da UFRJ</t>
+          <t>Coordenador de Operações Logística da empresa Brasco Logística Offshore (Grupo Wilson, Sons)</t>
         </is>
       </c>
       <c r="C218" s="0" t="inlineStr">
@@ -4872,18 +6023,23 @@
       <c r="D218" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E218" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="inlineStr">
         <is>
-          <t>Leticia Gavazzi</t>
+          <t>Rogéria C.</t>
         </is>
       </c>
       <c r="B219" s="0" t="inlineStr">
         <is>
-          <t>Demand and Supply Planning Manager at L'Oréal</t>
+          <t>Buscando uma oportunidade na área Adm / Financeira.</t>
         </is>
       </c>
       <c r="C219" s="0" t="inlineStr">
@@ -4894,18 +6050,23 @@
       <c r="D219" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E219" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="inlineStr">
         <is>
-          <t>Haryana P.</t>
+          <t>Evandro G.</t>
         </is>
       </c>
       <c r="B220" s="0" t="inlineStr">
         <is>
-          <t>Gestão Administrativa de projeto - Interagir BNDES</t>
+          <t>Comprador</t>
         </is>
       </c>
       <c r="C220" s="0" t="inlineStr">
@@ -4916,18 +6077,23 @@
       <c r="D220" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E220" s="0" t="inlineStr">
+        <is>
+          <t>Através do email: evandrolfg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="inlineStr">
         <is>
-          <t>Evandro G.</t>
+          <t>Roberto M.</t>
         </is>
       </c>
       <c r="B221" s="0" t="inlineStr">
         <is>
-          <t>Comprador</t>
+          <t>Estagiário de Engenharia Civil na Decania do Centro de Tecnologia da UFRJ</t>
         </is>
       </c>
       <c r="C221" s="0" t="inlineStr">
@@ -4938,62 +6104,77 @@
       <c r="D221" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E221" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="inlineStr">
         <is>
-          <t>ALLYSSON R.</t>
+          <t>Lucas Carvalho Rodrigues</t>
         </is>
       </c>
       <c r="B222" s="0" t="inlineStr">
         <is>
-          <t>GERENTE DE PROJETOS na FM SOLUCÕES</t>
+          <t>Product Manager na Passei Direto S/A</t>
         </is>
       </c>
       <c r="C222" s="0" t="inlineStr">
         <is>
-          <t>Conselheiro Lafaiete e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D222" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E222" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="inlineStr">
         <is>
-          <t>Camila O.</t>
+          <t>Lara Pessanha</t>
         </is>
       </c>
       <c r="B223" s="0" t="inlineStr">
         <is>
-          <t>Revisora na Private Portuguese Teacher</t>
+          <t>Consultant at IEG - Instituto de Engenharia de Gestão</t>
         </is>
       </c>
       <c r="C223" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D223" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E223" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="inlineStr">
         <is>
-          <t>Lucas Carvalho Rodrigues</t>
+          <t>David Nielsen</t>
         </is>
       </c>
       <c r="B224" s="0" t="inlineStr">
         <is>
-          <t>Product Manager na Passei Direto S/A</t>
+          <t>Intern at Visagio</t>
         </is>
       </c>
       <c r="C224" s="0" t="inlineStr">
@@ -5004,194 +6185,241 @@
       <c r="D224" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E224" s="0" t="inlineStr">
+        <is>
+          <t>david.nielsen@visagio.com
+davidnielsen@id.uff.br</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="inlineStr">
         <is>
-          <t>Caroline Machado Silva</t>
+          <t>ALLYSSON R.</t>
         </is>
       </c>
       <c r="B225" s="0" t="inlineStr">
         <is>
-          <t>Estagiária na Visagio</t>
+          <t>GERENTE DE PROJETOS na FM SOLUCÕES</t>
         </is>
       </c>
       <c r="C225" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Conselheiro Lafaiete e Região</t>
         </is>
       </c>
       <c r="D225" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E225" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="inlineStr">
         <is>
-          <t>David Nielsen</t>
+          <t>Juliana A.</t>
         </is>
       </c>
       <c r="B226" s="0" t="inlineStr">
         <is>
-          <t>Intern at Visagio</t>
+          <t>Prospecção de Novos Negocios at Infinity Print</t>
         </is>
       </c>
       <c r="C226" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D226" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E226" s="0" t="inlineStr">
+        <is>
+          <t>julianaassissantos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="inlineStr">
         <is>
-          <t>Dr. Qoutaiba A.</t>
+          <t>Caroline Machado Silva</t>
         </is>
       </c>
       <c r="B227" s="0" t="inlineStr">
         <is>
-          <t>Senior Executive at Metro Jeddah Company</t>
+          <t>Estagiária na Visagio</t>
         </is>
       </c>
       <c r="C227" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D227" s="0" t="inlineStr">
         <is>
-          <t>Arábia Saudita</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E227" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="inlineStr">
         <is>
-          <t>Lara Pessanha</t>
+          <t>Dr. Qoutaiba A.</t>
         </is>
       </c>
       <c r="B228" s="0" t="inlineStr">
         <is>
-          <t>Consultant at IEG - Instituto de Engenharia de Gestão</t>
+          <t>Senior Executive at Metro Jeddah Company</t>
         </is>
       </c>
       <c r="C228" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D228" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Arábia Saudita</t>
+        </is>
+      </c>
+      <c r="E228" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="inlineStr">
         <is>
-          <t>Thales Teixeira Pires</t>
+          <t>Camila O.</t>
         </is>
       </c>
       <c r="B229" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Revisora na Private Portuguese Teacher</t>
         </is>
       </c>
       <c r="C229" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Fortaleza e Região</t>
         </is>
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E229" s="0" t="inlineStr">
+        <is>
+          <t>Interesso-me por novas oportunidades de trabalho na área de projetos, ensino superior e pesquisas científicas.
+Contato: camilakatre18@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="inlineStr">
         <is>
-          <t>Lucas B.</t>
+          <t>Thales Teixeira Pires</t>
         </is>
       </c>
       <c r="B230" s="0" t="inlineStr">
         <is>
-          <t>Profissional de Tecnologia da informação e serviços</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C230" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D230" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E230" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="inlineStr">
         <is>
-          <t>Juliana A.</t>
+          <t>Lucas B.</t>
         </is>
       </c>
       <c r="B231" s="0" t="inlineStr">
         <is>
-          <t>Prospecção de Novos Negocios at Infinity Print</t>
+          <t>Profissional de Tecnologia da informação e serviços</t>
         </is>
       </c>
       <c r="C231" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D231" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E231" s="0" t="inlineStr">
+        <is>
+          <t>Entrar em contato pelo email lucaasbomtempo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="inlineStr">
         <is>
-          <t>Rodrigo R.</t>
+          <t>Gregory S.</t>
         </is>
       </c>
       <c r="B232" s="0" t="inlineStr">
         <is>
-          <t>Professor da empresa Prefeitura Municipal de Nova Iguaçu</t>
+          <t>Analista de Processos e Projetos</t>
         </is>
       </c>
       <c r="C232" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Ribeirão Preto e Região</t>
         </is>
       </c>
       <c r="D232" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E232" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="inlineStr">
         <is>
-          <t>Thais Bartoli</t>
+          <t>Natascha Moraes</t>
         </is>
       </c>
       <c r="B233" s="0" t="inlineStr">
         <is>
-          <t>Financial Specialist at Oi S/A</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C233" s="0" t="inlineStr">
@@ -5202,62 +6430,77 @@
       <c r="D233" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E233" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="inlineStr">
         <is>
-          <t>Gregory S.</t>
+          <t>Bianca S.</t>
         </is>
       </c>
       <c r="B234" s="0" t="inlineStr">
         <is>
-          <t>Analista de Processos e Projetos</t>
+          <t>Analista Administrativo na Novema Válvulas e Instrumentos</t>
         </is>
       </c>
       <c r="C234" s="0" t="inlineStr">
         <is>
-          <t>Ribeirão Preto e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D234" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E234" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="inlineStr">
         <is>
-          <t>Natascha Moraes</t>
+          <t>Siying(Daisy) T.</t>
         </is>
       </c>
       <c r="B235" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Master of Business Logistics Engineering Graduate at Ohio State University</t>
         </is>
       </c>
       <c r="C235" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="D235" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Ohio e Região</t>
+        </is>
+      </c>
+      <c r="E235" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="inlineStr">
         <is>
-          <t>Paula Banhara Boardman</t>
+          <t>Thais Bartoli</t>
         </is>
       </c>
       <c r="B236" s="0" t="inlineStr">
         <is>
-          <t>Consultora na Visagio</t>
+          <t>Financial Specialist at Oi S/A</t>
         </is>
       </c>
       <c r="C236" s="0" t="inlineStr">
@@ -5268,18 +6511,23 @@
       <c r="D236" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E236" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="inlineStr">
         <is>
-          <t>Jorge Rismo</t>
+          <t>Renata F.</t>
         </is>
       </c>
       <c r="B237" s="0" t="inlineStr">
         <is>
-          <t>Analista Desenvolvedor Pleno na Petrobras</t>
+          <t>Analista de Recursos Humanos</t>
         </is>
       </c>
       <c r="C237" s="0" t="inlineStr">
@@ -5290,18 +6538,23 @@
       <c r="D237" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E237" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="inlineStr">
         <is>
-          <t>Renata F.</t>
+          <t>Paula Banhara Boardman</t>
         </is>
       </c>
       <c r="B238" s="0" t="inlineStr">
         <is>
-          <t>Analista de Recursos Humanos</t>
+          <t>Consultora na Visagio</t>
         </is>
       </c>
       <c r="C238" s="0" t="inlineStr">
@@ -5312,18 +6565,23 @@
       <c r="D238" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E238" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="inlineStr">
         <is>
-          <t>Bianca S.</t>
+          <t>Rodrigo R.</t>
         </is>
       </c>
       <c r="B239" s="0" t="inlineStr">
         <is>
-          <t>Analista Administrativo na Novema Válvulas e Instrumentos</t>
+          <t>Professor da empresa Prefeitura Municipal de Nova Iguaçu</t>
         </is>
       </c>
       <c r="C239" s="0" t="inlineStr">
@@ -5334,28 +6592,38 @@
       <c r="D239" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E239" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="inlineStr">
         <is>
-          <t>Siying(Daisy) T.</t>
+          <t>Jorge Rismo</t>
         </is>
       </c>
       <c r="B240" s="0" t="inlineStr">
         <is>
-          <t>Master of Business Logistics Engineering Graduate at Ohio State University</t>
+          <t>Analista Desenvolvedor Pleno na Petrobras</t>
         </is>
       </c>
       <c r="C240" s="0" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D240" s="0" t="inlineStr">
         <is>
-          <t> Ohio e Região</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E240" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5380,60 +6648,75 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E241" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="inlineStr">
         <is>
-          <t>Diogo B.</t>
+          <t>Fábio Rocha</t>
         </is>
       </c>
       <c r="B242" s="0" t="inlineStr">
         <is>
-          <t>Estudante Engenharia Informática</t>
+          <t>Gerente Comercial Sieve</t>
         </is>
       </c>
       <c r="C242" s="0" t="inlineStr">
         <is>
-          <t>Faro e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D242" s="0" t="inlineStr">
         <is>
-          <t> Portugal</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E242" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="inlineStr">
         <is>
-          <t>Nathalia Almeida</t>
+          <t>Maria Rita A.</t>
         </is>
       </c>
       <c r="B243" s="0" t="inlineStr">
         <is>
-          <t>Supervisora Financeira</t>
+          <t>Marketing na Nethus</t>
         </is>
       </c>
       <c r="C243" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D243" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E243" s="0" t="inlineStr">
+        <is>
+          <t>E-mail: mramteixeira@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="inlineStr">
         <is>
-          <t>Vanessa Muniz</t>
+          <t>Nathalia Almeida</t>
         </is>
       </c>
       <c r="B244" s="0" t="inlineStr">
         <is>
-          <t>Productivity Enginner at White Martins</t>
+          <t>Supervisora Financeira</t>
         </is>
       </c>
       <c r="C244" s="0" t="inlineStr">
@@ -5444,106 +6727,131 @@
       <c r="D244" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E244" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="inlineStr">
         <is>
-          <t>Maria Rita A.</t>
+          <t>Viviane M.</t>
         </is>
       </c>
       <c r="B245" s="0" t="inlineStr">
         <is>
-          <t>Marketing na Nethus</t>
+          <t>Analista de Planejamento Financeiro Sênior na Grupo Bravante</t>
         </is>
       </c>
       <c r="C245" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D245" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E245" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="inlineStr">
         <is>
-          <t>Kellsens Silva</t>
+          <t>Karina M.</t>
         </is>
       </c>
       <c r="B246" s="0" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>Profissional de Terceirização e offshoring</t>
         </is>
       </c>
       <c r="C246" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D246" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E246" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="inlineStr">
         <is>
-          <t>Fábio Rocha</t>
+          <t>Kellsens Silva</t>
         </is>
       </c>
       <c r="B247" s="0" t="inlineStr">
         <is>
-          <t>Gerente Comercial Sieve</t>
+          <t>--</t>
         </is>
       </c>
       <c r="C247" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Belo Horizonte e Região</t>
         </is>
       </c>
       <c r="D247" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E247" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="inlineStr">
         <is>
-          <t>Viviane M.</t>
+          <t>Marcus Roggero</t>
         </is>
       </c>
       <c r="B248" s="0" t="inlineStr">
         <is>
-          <t>Analista de Planejamento Financeiro Sênior na Grupo Bravante</t>
+          <t>Operations Director at InfoPrice</t>
         </is>
       </c>
       <c r="C248" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D248" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E248" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="inlineStr">
         <is>
-          <t>Karina M.</t>
+          <t>Mara Freire</t>
         </is>
       </c>
       <c r="B249" s="0" t="inlineStr">
         <is>
-          <t>Profissional de Terceirização e offshoring</t>
+          <t>na</t>
         </is>
       </c>
       <c r="C249" s="0" t="inlineStr">
@@ -5554,18 +6862,23 @@
       <c r="D249" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E249" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="inlineStr">
         <is>
-          <t>Mara Freire</t>
+          <t>Vanessa Muniz</t>
         </is>
       </c>
       <c r="B250" s="0" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>Productivity Enginner at White Martins</t>
         </is>
       </c>
       <c r="C250" s="0" t="inlineStr">
@@ -5576,40 +6889,50 @@
       <c r="D250" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E250" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="inlineStr">
         <is>
-          <t>Marcus Roggero</t>
+          <t>Diogo B.</t>
         </is>
       </c>
       <c r="B251" s="0" t="inlineStr">
         <is>
-          <t>Operations Director at InfoPrice</t>
+          <t>Estudante Engenharia Informática</t>
         </is>
       </c>
       <c r="C251" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Faro e Região</t>
         </is>
       </c>
       <c r="D251" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Portugal</t>
+        </is>
+      </c>
+      <c r="E251" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="inlineStr">
         <is>
-          <t>DEBORA M.</t>
+          <t>Priscila Ferraz</t>
         </is>
       </c>
       <c r="B252" s="0" t="inlineStr">
         <is>
-          <t>Profissional da Área Administrativa e Financeira</t>
+          <t>Gerente de projeto na Bio-Manguinhos / Fiocruz</t>
         </is>
       </c>
       <c r="C252" s="0" t="inlineStr">
@@ -5620,28 +6943,38 @@
       <c r="D252" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E252" s="0" t="inlineStr">
+        <is>
+          <t>Gestão pública</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="inlineStr">
         <is>
-          <t>Rosana C.</t>
+          <t>Eduardo Luiz Bastos</t>
         </is>
       </c>
       <c r="B253" s="0" t="inlineStr">
         <is>
-          <t>CEO na Chiminazzo Imóveis</t>
+          <t>Estagiário na Visagio</t>
         </is>
       </c>
       <c r="C253" s="0" t="inlineStr">
         <is>
-          <t>Campinas e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D253" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E253" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5666,82 +6999,102 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E254" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="inlineStr">
         <is>
-          <t>Priscila Ferraz</t>
+          <t>Victor B.</t>
         </is>
       </c>
       <c r="B255" s="0" t="inlineStr">
         <is>
-          <t>Gerente de projeto na Bio-Manguinhos / Fiocruz</t>
+          <t>Diretor Tecnico na Masterfocus</t>
         </is>
       </c>
       <c r="C255" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Fortaleza e Região</t>
         </is>
       </c>
       <c r="D255" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E255" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="inlineStr">
         <is>
-          <t>Victor B.</t>
+          <t>Rodrigo Pizarro</t>
         </is>
       </c>
       <c r="B256" s="0" t="inlineStr">
         <is>
-          <t>Diretor Tecnico na Masterfocus</t>
+          <t>Mechanical Engineer na Promon Engenharia</t>
         </is>
       </c>
       <c r="C256" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E256" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="inlineStr">
         <is>
-          <t>Thiago Felipe V.</t>
+          <t>DEBORA M.</t>
         </is>
       </c>
       <c r="B257" s="0" t="inlineStr">
         <is>
-          <t>Gerente Comercial Banco CPA-10 / FBB-330</t>
+          <t>Profissional da Área Administrativa e Financeira</t>
         </is>
       </c>
       <c r="C257" s="0" t="inlineStr">
         <is>
-          <t>Blumenau e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D257" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E257" s="0" t="inlineStr">
+        <is>
+          <t>Profissional setor Administrativo</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="inlineStr">
         <is>
-          <t>Rodrigo Pizarro</t>
+          <t>Caroline Campos</t>
         </is>
       </c>
       <c r="B258" s="0" t="inlineStr">
         <is>
-          <t>Mechanical Engineer na Promon Engenharia</t>
+          <t>Senior Consultant</t>
         </is>
       </c>
       <c r="C258" s="0" t="inlineStr">
@@ -5752,40 +7105,52 @@
       <c r="D258" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E258" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="inlineStr">
         <is>
-          <t>Juliana Matta (busca de novas oportunidades)</t>
+          <t>Thiago Felipe V.</t>
         </is>
       </c>
       <c r="B259" s="0" t="inlineStr">
         <is>
-          <t>Gestão de Projetos, PMO, Marketing, Mudanças (HCMBOK®), Gestão Estratégica de RH e Comercial.</t>
+          <t>Gerente Comercial Banco CPA-10 / FBB-330</t>
         </is>
       </c>
       <c r="C259" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Blumenau e Região</t>
         </is>
       </c>
       <c r="D259" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E259" s="0" t="inlineStr">
+        <is>
+          <t>Linkedin: Thiago Felipe Vaccari
+E-mail: tfvaccari@gmail.com
+Cel. (47) 9194-0588</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="inlineStr">
         <is>
-          <t>Eduardo Luiz Bastos</t>
+          <t>Juliana Matta (busca de novas oportunidades)</t>
         </is>
       </c>
       <c r="B260" s="0" t="inlineStr">
         <is>
-          <t>Estagiário na Visagio</t>
+          <t>Gestão de Projetos, PMO, Marketing, Mudanças (HCMBOK®), Gestão Estratégica de RH e Comercial.</t>
         </is>
       </c>
       <c r="C260" s="0" t="inlineStr">
@@ -5796,50 +7161,71 @@
       <c r="D260" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E260" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="inlineStr">
         <is>
-          <t>Caroline Campos</t>
+          <t>Rosana C.</t>
         </is>
       </c>
       <c r="B261" s="0" t="inlineStr">
         <is>
-          <t>Senior Consultant</t>
+          <t>CEO na Chiminazzo Imóveis</t>
         </is>
       </c>
       <c r="C261" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Campinas e Região</t>
         </is>
       </c>
       <c r="D261" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E261" s="0" t="inlineStr">
+        <is>
+          <t>Chiminazzo Imóveis - Todos os direitos Reservados
+A Imobiliária Chiminazzo agradece seu contato!
+Chiminazzo Imóvies: Administração, Compra, Venda e Locação.
+RUA DR. GUILHERME DA SILVA, 83
+CAMBUÍ - CAMPINAS
+CEP: 13025-070
+(19) 3735.5700</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="inlineStr">
         <is>
-          <t>Thiago D.</t>
+          <t>Chrislan Andrade</t>
         </is>
       </c>
       <c r="B262" s="0" t="inlineStr">
         <is>
-          <t>Analista de Sistemas na Stefanini</t>
+          <t>Analista de Suprimentos Sênior na Ferrous Resources do Brasil</t>
         </is>
       </c>
       <c r="C262" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Belo Horizonte e Região</t>
         </is>
       </c>
       <c r="D262" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E262" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5864,126 +7250,159 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E263" s="0" t="inlineStr">
+        <is>
+          <t>AVANCE RH 
+Nos siga nas redes sociais Linkedin e Facebook e venha fazer parte de uma equipe de Sucesso!!!
+Aguardamos seu Currículo com Pretensão Salarial : contato@avancerh.com.br</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="inlineStr">
         <is>
-          <t>Chrislan Andrade</t>
+          <t>Kennie Santos</t>
         </is>
       </c>
       <c r="B264" s="0" t="inlineStr">
         <is>
-          <t>Analista de Suprimentos Sênior na Ferrous Resources do Brasil</t>
+          <t>Consultora na Visagio Consultoria</t>
         </is>
       </c>
       <c r="C264" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D264" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E264" s="0" t="inlineStr">
+        <is>
+          <t>Tel: (021) 99322-8870 / (021) 3241-1041
+E-mail: kenniesantos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="inlineStr">
         <is>
-          <t>Felipe Aguiar</t>
+          <t>Luma G.</t>
         </is>
       </c>
       <c r="B265" s="0" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Assessora de Relacionamentos na PCP Jr.</t>
         </is>
       </c>
       <c r="C265" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Belo Horizonte e Região</t>
         </is>
       </c>
       <c r="D265" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E265" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="inlineStr">
         <is>
-          <t>Kennie Santos</t>
+          <t>Ramom Henrique M.</t>
         </is>
       </c>
       <c r="B266" s="0" t="inlineStr">
         <is>
-          <t>Consultora na Visagio Consultoria</t>
+          <t>Engenheiro Trainee - Azzultech Telecomunicações</t>
         </is>
       </c>
       <c r="C266" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D266" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E266" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="inlineStr">
         <is>
-          <t>Luma G.</t>
+          <t>ANTONIO A.</t>
         </is>
       </c>
       <c r="B267" s="0" t="inlineStr">
         <is>
-          <t>Assessora de Relacionamentos na PCP Jr.</t>
+          <t>Analista de Suporte Junior na Premier IT Global Services</t>
         </is>
       </c>
       <c r="C267" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D267" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E267" s="0" t="inlineStr">
+        <is>
+          <t>Usar meus conhecimentos para fazer o meu melhor na empresa para quem me escolheu como seu empregado .</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="inlineStr">
         <is>
-          <t>Ramom Henrique M.</t>
+          <t>Felipe Aguiar</t>
         </is>
       </c>
       <c r="B268" s="0" t="inlineStr">
         <is>
-          <t>Engenheiro Trainee - Azzultech Telecomunicações</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="C268" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D268" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E268" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="inlineStr">
         <is>
-          <t>mirian C.</t>
+          <t>Thiago D.</t>
         </is>
       </c>
       <c r="B269" s="0" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Analista de Sistemas na Stefanini</t>
         </is>
       </c>
       <c r="C269" s="0" t="inlineStr">
@@ -5994,172 +7413,214 @@
       <c r="D269" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E269" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="inlineStr">
         <is>
-          <t>Mário Souto</t>
+          <t>mirian C.</t>
         </is>
       </c>
       <c r="B270" s="0" t="inlineStr">
         <is>
-          <t>Especialista em Marketing Digital na Publink</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="C270" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D270" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E270" s="0" t="inlineStr">
+        <is>
+          <t>Skype: mirian.cortez79
+E-mail: miriancortez79@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="inlineStr">
         <is>
-          <t>ANTONIO A.</t>
+          <t>Mário Souto</t>
         </is>
       </c>
       <c r="B271" s="0" t="inlineStr">
         <is>
-          <t>Analista de Suporte Junior na Premier IT Global Services</t>
+          <t>Especialista em Marketing Digital na Publink</t>
         </is>
       </c>
       <c r="C271" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D271" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E271" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="inlineStr">
         <is>
-          <t>Cassia A.</t>
+          <t>Aline Bedina</t>
         </is>
       </c>
       <c r="B272" s="0" t="inlineStr">
         <is>
-          <t>Diretora na empresa Cassia Adala Consultoria Imobiliaria Corporativa</t>
+          <t>Engenheira Metalúrgica e de Segurança do Trabalho</t>
         </is>
       </c>
       <c r="C272" s="0" t="inlineStr">
         <is>
-          <t>Campinas e Região</t>
+          <t>Belo Horizonte e Região</t>
         </is>
       </c>
       <c r="D272" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E272" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="inlineStr">
         <is>
-          <t>Gustavo Antunes</t>
+          <t>Gabriel Fior</t>
         </is>
       </c>
       <c r="B273" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Analyst bei Visagio</t>
         </is>
       </c>
       <c r="C273" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Munich e Região</t>
         </is>
       </c>
       <c r="D273" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Alemanha</t>
+        </is>
+      </c>
+      <c r="E273" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="inlineStr">
         <is>
-          <t>Filipe Maia R.</t>
+          <t>Juliana Bastos Serapião</t>
         </is>
       </c>
       <c r="B274" s="0" t="inlineStr">
         <is>
-          <t>Purchasing Assistant na Queiroz Galvão Óleo e Gás S.A.</t>
+          <t>Tutor na UNOPAR - Universidade Norte do Paraná</t>
         </is>
       </c>
       <c r="C274" s="0" t="inlineStr">
         <is>
-          <t>Campos e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D274" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E274" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="inlineStr">
         <is>
-          <t>Simone Waissman</t>
+          <t>Heraldo T.</t>
         </is>
       </c>
       <c r="B275" s="0" t="inlineStr">
         <is>
-          <t>Business Analyst at Movida Rent a Car</t>
+          <t>Comprador Sr</t>
         </is>
       </c>
       <c r="C275" s="0" t="inlineStr">
         <is>
-          <t>Grande Atlanta e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D275" s="0" t="inlineStr">
         <is>
-          <t> Estados Unidos</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E275" s="0" t="inlineStr">
+        <is>
+          <t>Email: heraldoteixeira2@hotmail.com
+Tel.99678.3838</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="inlineStr">
         <is>
-          <t>Daniel da Costa Frota, CBPP, CAPM</t>
+          <t>Simone Waissman</t>
         </is>
       </c>
       <c r="B276" s="0" t="inlineStr">
         <is>
-          <t>Analista de Projetos na M DIAS BRANCO</t>
+          <t>Business Analyst at Movida Rent a Car</t>
         </is>
       </c>
       <c r="C276" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Grande Atlanta e Região</t>
         </is>
       </c>
       <c r="D276" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Estados Unidos</t>
+        </is>
+      </c>
+      <c r="E276" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="inlineStr">
         <is>
-          <t>Heraldo T.</t>
+          <t>Gustavo Antunes</t>
         </is>
       </c>
       <c r="B277" s="0" t="inlineStr">
         <is>
-          <t>Comprador Sr</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C277" s="0" t="inlineStr">
@@ -6170,94 +7631,123 @@
       <c r="D277" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E277" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="inlineStr">
         <is>
-          <t>Juliana Bastos Serapião</t>
+          <t>Filipe Maia R.</t>
         </is>
       </c>
       <c r="B278" s="0" t="inlineStr">
         <is>
-          <t>Tutor na UNOPAR - Universidade Norte do Paraná</t>
+          <t>Purchasing Assistant na Queiroz Galvão Óleo e Gás S.A.</t>
         </is>
       </c>
       <c r="C278" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Campos e Região</t>
         </is>
       </c>
       <c r="D278" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E278" s="0" t="inlineStr">
+        <is>
+          <t>filipe.maia.sr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="inlineStr">
         <is>
-          <t>Wandro G.</t>
+          <t>Daniel da Costa Frota, CBPP, CAPM</t>
         </is>
       </c>
       <c r="B279" s="0" t="inlineStr">
         <is>
-          <t>Analista ERP, Analista de Infraestrutura, Analista de Sistema, Coordenador TI</t>
+          <t>Analista de Projetos na M DIAS BRANCO</t>
         </is>
       </c>
       <c r="C279" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D279" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E279" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="inlineStr">
         <is>
-          <t>Aline Bedina</t>
+          <t>Wandro G.</t>
         </is>
       </c>
       <c r="B280" s="0" t="inlineStr">
         <is>
-          <t>Engenheira Metalúrgica e de Segurança do Trabalho</t>
+          <t>Analista ERP, Analista de Infraestrutura, Analista de Sistema, Coordenador TI</t>
         </is>
       </c>
       <c r="C280" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D280" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E280" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="inlineStr">
         <is>
-          <t>Gabriel Fior</t>
+          <t>Cassia A.</t>
         </is>
       </c>
       <c r="B281" s="0" t="inlineStr">
         <is>
-          <t>Analyst bei Visagio</t>
+          <t>Diretora na empresa Cassia Adala Consultoria Imobiliaria Corporativa</t>
         </is>
       </c>
       <c r="C281" s="0" t="inlineStr">
         <is>
-          <t>Munich e Região</t>
+          <t>Campinas e Região</t>
         </is>
       </c>
       <c r="D281" s="0" t="inlineStr">
         <is>
-          <t> Alemanha</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E281" s="0" t="inlineStr">
+        <is>
+          <t>Fale Conosco
+Tel. +55 19 3388.2222 | 2512.5500
+Cel. +55 19 7850.0283
+Rua Antônio Lapa, 750 - Cambuí - Campinas/SP
+E-Mail: comercial@cassiaadala.com.br</t>
         </is>
       </c>
     </row>
@@ -6282,11 +7772,16 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E282" s="0" t="inlineStr">
+        <is>
+          <t>Skype: gdasilva.leonardo / gdasilva.leonardo@gmail.com</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="inlineStr">
         <is>
-          <t>Juliano Ferrario</t>
+          <t>Phillipp Correia</t>
         </is>
       </c>
       <c r="B283" s="0" t="inlineStr">
@@ -6296,41 +7791,51 @@
       </c>
       <c r="C283" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D283" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Federação Russa</t>
+        </is>
+      </c>
+      <c r="E283" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="inlineStr">
         <is>
-          <t>Pablo Diego L.</t>
+          <t>Patrick M.</t>
         </is>
       </c>
       <c r="B284" s="0" t="inlineStr">
         <is>
-          <t>LÍDER DE OPERAÇÕES AGRICOLAS</t>
+          <t>Disponível para atuar como Trainee</t>
         </is>
       </c>
       <c r="C284" s="0" t="inlineStr">
         <is>
-          <t>Paraguaçu Paulista e Região</t>
+          <t>Salvador e Região</t>
         </is>
       </c>
       <c r="D284" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E284" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="inlineStr">
         <is>
-          <t>Phillipp Correia</t>
+          <t>Juliano Ferrario</t>
         </is>
       </c>
       <c r="B285" s="0" t="inlineStr">
@@ -6340,24 +7845,29 @@
       </c>
       <c r="C285" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D285" s="0" t="inlineStr">
         <is>
-          <t>Federação Russa</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E285" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="inlineStr">
         <is>
-          <t>Sebastiao F.</t>
+          <t>Renan Westermann Malafaia</t>
         </is>
       </c>
       <c r="B286" s="0" t="inlineStr">
         <is>
-          <t>Fiscal de obras na Prefeitura niteroi</t>
+          <t>Business Consultant</t>
         </is>
       </c>
       <c r="C286" s="0" t="inlineStr">
@@ -6368,40 +7878,51 @@
       <c r="D286" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E286" s="0" t="inlineStr">
+        <is>
+          <t>Open to all networking contacts. 
+renanwestermann@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="inlineStr">
         <is>
-          <t>Patrick M.</t>
+          <t>Pablo Diego L.</t>
         </is>
       </c>
       <c r="B287" s="0" t="inlineStr">
         <is>
-          <t>Disponível para atuar como Trainee</t>
+          <t>LÍDER DE OPERAÇÕES AGRICOLAS</t>
         </is>
       </c>
       <c r="C287" s="0" t="inlineStr">
         <is>
-          <t>Salvador e Região</t>
+          <t>Paraguaçu Paulista e Região</t>
         </is>
       </c>
       <c r="D287" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E287" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="inlineStr">
         <is>
-          <t>José Nascimento</t>
+          <t>Sebastiao F.</t>
         </is>
       </c>
       <c r="B288" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Fiscal de obras na Prefeitura niteroi</t>
         </is>
       </c>
       <c r="C288" s="0" t="inlineStr">
@@ -6412,18 +7933,23 @@
       <c r="D288" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E288" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="inlineStr">
         <is>
-          <t>Renan Westermann Malafaia</t>
+          <t>Bruno Kruel Denardin</t>
         </is>
       </c>
       <c r="B289" s="0" t="inlineStr">
         <is>
-          <t>Business Consultant</t>
+          <t>Consultor</t>
         </is>
       </c>
       <c r="C289" s="0" t="inlineStr">
@@ -6434,18 +7960,23 @@
       <c r="D289" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E289" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="inlineStr">
         <is>
-          <t>Bruno Kruel Denardin</t>
+          <t>José Nascimento</t>
         </is>
       </c>
       <c r="B290" s="0" t="inlineStr">
         <is>
-          <t>Consultor</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C290" s="0" t="inlineStr">
@@ -6456,6 +7987,11 @@
       <c r="D290" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E290" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6480,38 +8016,48 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E291" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="inlineStr">
         <is>
-          <t>Fernanda Dutra</t>
+          <t>Francisco Starlyns S.</t>
         </is>
       </c>
       <c r="B292" s="0" t="inlineStr">
         <is>
-          <t>Estagiária em Engenharia de Telecomunicações na Netcon Ltda</t>
+          <t>Engenheiro Civil Pleno na Transnordestina Logística</t>
         </is>
       </c>
       <c r="C292" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Sobral e Região</t>
         </is>
       </c>
       <c r="D292" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E292" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="inlineStr">
         <is>
-          <t>Carlos F. M. Faruolo</t>
+          <t>Tainah H.</t>
         </is>
       </c>
       <c r="B293" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Profissional de Informática</t>
         </is>
       </c>
       <c r="C293" s="0" t="inlineStr">
@@ -6522,62 +8068,77 @@
       <c r="D293" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E293" s="0" t="inlineStr">
+        <is>
+          <t>info.tainah@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="inlineStr">
         <is>
-          <t>Cristiano L.</t>
+          <t>Douglas Mattos</t>
         </is>
       </c>
       <c r="B294" s="0" t="inlineStr">
         <is>
-          <t>Account Manager</t>
+          <t>Consultant at Visagio Technology</t>
         </is>
       </c>
       <c r="C294" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D294" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E294" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="inlineStr">
         <is>
-          <t>Luiza P.</t>
+          <t>Flávio Nogueira</t>
         </is>
       </c>
       <c r="B295" s="0" t="inlineStr">
         <is>
-          <t>Estudante na Pontifícia Universidade Católica de Minas Gerais</t>
+          <t>Analista de Armazém e Estoque na Vale</t>
         </is>
       </c>
       <c r="C295" s="0" t="inlineStr">
         <is>
-          <t>Belo Horizonte e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D295" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E295" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="inlineStr">
         <is>
-          <t>Jefferson B.</t>
+          <t>Luiza P.</t>
         </is>
       </c>
       <c r="B296" s="0" t="inlineStr">
         <is>
-          <t>Desenhista na MAPAL do Brasil</t>
+          <t>Estudante na Pontifícia Universidade Católica de Minas Gerais</t>
         </is>
       </c>
       <c r="C296" s="0" t="inlineStr">
@@ -6588,84 +8149,105 @@
       <c r="D296" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E296" s="0" t="inlineStr">
+        <is>
+          <t>E-mail:
+luiza_pais@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0" t="inlineStr">
         <is>
-          <t>Douglas Mattos</t>
+          <t>Sophia F.</t>
         </is>
       </c>
       <c r="B297" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Technology</t>
+          <t>Assistente de Recursos Humanos na Easy Lav</t>
         </is>
       </c>
       <c r="C297" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Outro</t>
+        </is>
+      </c>
+      <c r="E297" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="inlineStr">
         <is>
-          <t>Sophia F.</t>
+          <t>Fernanda Dutra</t>
         </is>
       </c>
       <c r="B298" s="0" t="inlineStr">
         <is>
-          <t>Assistente de Recursos Humanos na Easy Lav</t>
+          <t>Estagiária em Engenharia de Telecomunicações na Netcon Ltda</t>
         </is>
       </c>
       <c r="C298" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D298" s="0" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E298" s="0" t="inlineStr">
+        <is>
+          <t>E-mail: dutra.fernanda@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="inlineStr">
         <is>
-          <t>Tainah H.</t>
+          <t>Jefferson B.</t>
         </is>
       </c>
       <c r="B299" s="0" t="inlineStr">
         <is>
-          <t>Profissional de Informática</t>
+          <t>Desenhista na MAPAL do Brasil</t>
         </is>
       </c>
       <c r="C299" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Belo Horizonte e Região</t>
         </is>
       </c>
       <c r="D299" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E299" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="inlineStr">
         <is>
-          <t>Flávio Nogueira</t>
+          <t>Cristiano L.</t>
         </is>
       </c>
       <c r="B300" s="0" t="inlineStr">
         <is>
-          <t>Analista de Armazém e Estoque na Vale</t>
+          <t>Account Manager</t>
         </is>
       </c>
       <c r="C300" s="0" t="inlineStr">
@@ -6676,62 +8258,79 @@
       <c r="D300" s="0" t="inlineStr">
         <is>
           <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E300" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="inlineStr">
         <is>
-          <t>Francisco Starlyns S.</t>
+          <t>Carlos F. M. Faruolo</t>
         </is>
       </c>
       <c r="B301" s="0" t="inlineStr">
         <is>
-          <t>Engenheiro Civil Pleno na Transnordestina Logística</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C301" s="0" t="inlineStr">
         <is>
-          <t>Sobral e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D301" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E301" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="inlineStr">
         <is>
-          <t>Fabio M.</t>
+          <t>Joao B.</t>
         </is>
       </c>
       <c r="B302" s="0" t="inlineStr">
         <is>
-          <t>Systems Analyst</t>
+          <t>Sampling Field Professional Engineer - Looking for new opportunities</t>
         </is>
       </c>
       <c r="C302" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D302" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
+        </is>
+      </c>
+      <c r="E302" s="0" t="inlineStr">
+        <is>
+          <t>Adress: 901 / 305 Murray Street, Perth - WA 6000
+Mobile: +61 0402 249 578
+joao.benevides@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="inlineStr">
         <is>
-          <t>Ava E.</t>
+          <t>Lucas Souza</t>
         </is>
       </c>
       <c r="B303" s="0" t="inlineStr">
         <is>
-          <t>ADMINISTRAÇÃO na AVA EXPRESS</t>
+          <t>Analyst at Visagio</t>
         </is>
       </c>
       <c r="C303" s="0" t="inlineStr">
@@ -6742,18 +8341,23 @@
       <c r="D303" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E303" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="inlineStr">
         <is>
-          <t>Lucas Souza</t>
+          <t>Lilian Feres Lima Ribeiro</t>
         </is>
       </c>
       <c r="B304" s="0" t="inlineStr">
         <is>
-          <t>Analyst at Visagio</t>
+          <t>Analista de Sistemas</t>
         </is>
       </c>
       <c r="C304" s="0" t="inlineStr">
@@ -6764,18 +8368,23 @@
       <c r="D304" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E304" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="inlineStr">
         <is>
-          <t>Paulo Francisco M.</t>
+          <t>Carolina Marinho</t>
         </is>
       </c>
       <c r="B305" s="0" t="inlineStr">
         <is>
-          <t>Profissional de Tecnologia da informação e serviços</t>
+          <t>Consultant na Visagio</t>
         </is>
       </c>
       <c r="C305" s="0" t="inlineStr">
@@ -6786,84 +8395,105 @@
       <c r="D305" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E305" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="inlineStr">
         <is>
-          <t>Diana R.</t>
+          <t>Albert Clarke</t>
         </is>
       </c>
       <c r="B306" s="0" t="inlineStr">
         <is>
-          <t>Intern at International Paper</t>
+          <t>Consultant at P2 Energy Solutions</t>
         </is>
       </c>
       <c r="C306" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D306" s="0" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t> Austrália</t>
+        </is>
+      </c>
+      <c r="E306" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="inlineStr">
         <is>
-          <t>Joao B.</t>
+          <t>Diana R.</t>
         </is>
       </c>
       <c r="B307" s="0" t="inlineStr">
         <is>
-          <t>Sampling Field Professional Engineer - Looking for new opportunities</t>
+          <t>Intern at International Paper</t>
         </is>
       </c>
       <c r="C307" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D307" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+      <c r="E307" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="inlineStr">
         <is>
-          <t>Albert Clarke</t>
+          <t>Paulo Francisco M.</t>
         </is>
       </c>
       <c r="B308" s="0" t="inlineStr">
         <is>
-          <t>Consultant at P2 Energy Solutions</t>
+          <t>Profissional de Tecnologia da informação e serviços</t>
         </is>
       </c>
       <c r="C308" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D308" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E308" s="0" t="inlineStr">
+        <is>
+          <t>Cel: 021 982388422
+retrattoscariocas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="inlineStr">
         <is>
-          <t>Carolina Marinho</t>
+          <t>Ava E.</t>
         </is>
       </c>
       <c r="B309" s="0" t="inlineStr">
         <is>
-          <t>Consultant na Visagio</t>
+          <t>ADMINISTRAÇÃO na AVA EXPRESS</t>
         </is>
       </c>
       <c r="C309" s="0" t="inlineStr">
@@ -6874,6 +8504,12 @@
       <c r="D309" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E309" s="0" t="inlineStr">
+        <is>
+          <t>ENTREGAMOS EM TODO O RIO DE JANEIRO ENTREGAS RÁPIDAS E SEGURAS.
+AVA EXPRESS.</t>
         </is>
       </c>
     </row>
@@ -6898,16 +8534,21 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E310" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="inlineStr">
         <is>
-          <t>Lilian Feres Lima Ribeiro</t>
+          <t>Fabio M.</t>
         </is>
       </c>
       <c r="B311" s="0" t="inlineStr">
         <is>
-          <t>Analista de Sistemas</t>
+          <t>Systems Analyst</t>
         </is>
       </c>
       <c r="C311" s="0" t="inlineStr">
@@ -6918,18 +8559,23 @@
       <c r="D311" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E311" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="inlineStr">
         <is>
-          <t>Isabel Accioly</t>
+          <t>Filipe Xavier Trindade dos Santos</t>
         </is>
       </c>
       <c r="B312" s="0" t="inlineStr">
         <is>
-          <t>Marketing and Communications Intern</t>
+          <t>Estudante na Universidade Federal do Rio de Janeiro</t>
         </is>
       </c>
       <c r="C312" s="0" t="inlineStr">
@@ -6940,18 +8586,23 @@
       <c r="D312" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E312" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="inlineStr">
         <is>
-          <t>Victor Sampaio</t>
+          <t>Fillipe Silva</t>
         </is>
       </c>
       <c r="B313" s="0" t="inlineStr">
         <is>
-          <t>Analista na Visagio</t>
+          <t>Consultor na Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C313" s="0" t="inlineStr">
@@ -6962,18 +8613,23 @@
       <c r="D313" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E313" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="inlineStr">
         <is>
-          <t>Fillipe Silva</t>
+          <t>Erika J.</t>
         </is>
       </c>
       <c r="B314" s="0" t="inlineStr">
         <is>
-          <t>Consultor na Visagio Tecnologia</t>
+          <t>Estudante na Griffith College</t>
         </is>
       </c>
       <c r="C314" s="0" t="inlineStr">
@@ -6984,40 +8640,50 @@
       <c r="D314" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E314" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="inlineStr">
         <is>
-          <t>Marina Gonzaga</t>
+          <t>Tafareu A.</t>
         </is>
       </c>
       <c r="B315" s="0" t="inlineStr">
         <is>
-          <t>Marketing Negotiation</t>
+          <t>Agente de endemias na prefeitura municipal do Eusébio</t>
         </is>
       </c>
       <c r="C315" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Fortaleza e Região</t>
         </is>
       </c>
       <c r="D315" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E315" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="inlineStr">
         <is>
-          <t>Mariana Z.</t>
+          <t>Marina Gonzaga</t>
         </is>
       </c>
       <c r="B316" s="0" t="inlineStr">
         <is>
-          <t>Assessora da Qualidade na Fluxo Consultoria</t>
+          <t>Marketing Negotiation</t>
         </is>
       </c>
       <c r="C316" s="0" t="inlineStr">
@@ -7028,18 +8694,23 @@
       <c r="D316" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E316" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="inlineStr">
         <is>
-          <t>Filipe Xavier Trindade dos Santos</t>
+          <t>Victor Sampaio</t>
         </is>
       </c>
       <c r="B317" s="0" t="inlineStr">
         <is>
-          <t>Estudante na Universidade Federal do Rio de Janeiro</t>
+          <t>Analista na Visagio</t>
         </is>
       </c>
       <c r="C317" s="0" t="inlineStr">
@@ -7050,6 +8721,11 @@
       <c r="D317" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E317" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7074,16 +8750,21 @@
           <t>Turquia</t>
         </is>
       </c>
+      <c r="E318" s="0" t="inlineStr">
+        <is>
+          <t>** Bizlere Web : www.digitalprzirvesi.com , E- Mail : digitalprzirvesi@gmail.com 'dan ve 0505 560 7105 numaralı telefondan ulaşabilirsiniz.</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="inlineStr">
         <is>
-          <t>Erika J.</t>
+          <t>Mariana Z.</t>
         </is>
       </c>
       <c r="B319" s="0" t="inlineStr">
         <is>
-          <t>Estudante na Griffith College</t>
+          <t>Assessora da Qualidade na Fluxo Consultoria</t>
         </is>
       </c>
       <c r="C319" s="0" t="inlineStr">
@@ -7094,6 +8775,11 @@
       <c r="D319" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E319" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7118,38 +8804,48 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E320" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="inlineStr">
         <is>
-          <t>Tafareu A.</t>
+          <t>Isabel Accioly</t>
         </is>
       </c>
       <c r="B321" s="0" t="inlineStr">
         <is>
-          <t>Agente de endemias na prefeitura municipal do Eusébio</t>
+          <t>Marketing and Communications Intern</t>
         </is>
       </c>
       <c r="C321" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D321" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E321" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="inlineStr">
         <is>
-          <t>Michelle P.</t>
+          <t>HighClean S.</t>
         </is>
       </c>
       <c r="B322" s="0" t="inlineStr">
         <is>
-          <t>Financial Assistant</t>
+          <t>Serviços de Limpeza e Terceirização de Mão de Obra</t>
         </is>
       </c>
       <c r="C322" s="0" t="inlineStr">
@@ -7160,6 +8856,11 @@
       <c r="D322" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E322" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7184,38 +8885,48 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E323" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="inlineStr">
         <is>
-          <t>HighClean S.</t>
+          <t>Renato Rocha</t>
         </is>
       </c>
       <c r="B324" s="0" t="inlineStr">
         <is>
-          <t>Serviços de Limpeza e Terceirização de Mão de Obra</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C324" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D324" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E324" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="inlineStr">
         <is>
-          <t>Carlos Eduardo C.C. Porto</t>
+          <t>Carlos Vetter</t>
         </is>
       </c>
       <c r="B325" s="0" t="inlineStr">
         <is>
-          <t>Student at Universidade Federal do Rio de Janeiro</t>
+          <t>Consultor na Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C325" s="0" t="inlineStr">
@@ -7226,160 +8937,201 @@
       <c r="D325" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E325" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0" t="inlineStr">
         <is>
-          <t>Rodrigo A.</t>
+          <t>Wilson Martins Neto</t>
         </is>
       </c>
       <c r="B326" s="0" t="inlineStr">
         <is>
-          <t>Supervisor de Logística na Editora Vida ( Life Publ Co)</t>
+          <t>Consultant at Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C326" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D326" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E326" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="inlineStr">
         <is>
-          <t>Flávia Lima</t>
+          <t>Michelle P.</t>
         </is>
       </c>
       <c r="B327" s="0" t="inlineStr">
         <is>
-          <t>Consultant na Visagio</t>
+          <t>Financial Assistant</t>
         </is>
       </c>
       <c r="C327" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D327" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E327" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="inlineStr">
         <is>
-          <t>Renato Rocha</t>
+          <t>Flávia Lima</t>
         </is>
       </c>
       <c r="B328" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Consultant na Visagio</t>
         </is>
       </c>
       <c r="C328" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D328" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E328" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="inlineStr">
         <is>
-          <t>Wilson Martins Neto</t>
+          <t>Sabrina O.</t>
         </is>
       </c>
       <c r="B329" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio Tecnologia</t>
+          <t>Supervisor at Mastercare Property Services</t>
         </is>
       </c>
       <c r="C329" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Perth e Região</t>
         </is>
       </c>
       <c r="D329" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t> Austrália</t>
+        </is>
+      </c>
+      <c r="E329" s="0" t="inlineStr">
+        <is>
+          <t>Email: saottoni23@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="inlineStr">
         <is>
-          <t>Sabrina O.</t>
+          <t>Carlos Eduardo C.C. Porto</t>
         </is>
       </c>
       <c r="B330" s="0" t="inlineStr">
         <is>
-          <t>Supervisor at Mastercare Property Services</t>
+          <t>Student at Universidade Federal do Rio de Janeiro</t>
         </is>
       </c>
       <c r="C330" s="0" t="inlineStr">
         <is>
-          <t>Perth e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D330" s="0" t="inlineStr">
         <is>
-          <t> Austrália</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E330" s="0" t="inlineStr">
+        <is>
+          <t>Twitter: https://twitter.com/carloseduporto</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="inlineStr">
         <is>
-          <t>Carlos Vetter</t>
+          <t>Rodrigo A.</t>
         </is>
       </c>
       <c r="B331" s="0" t="inlineStr">
         <is>
-          <t>Consultor na Visagio Tecnologia</t>
+          <t>Supervisor de Logística na Editora Vida ( Life Publ Co)</t>
         </is>
       </c>
       <c r="C331" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D331" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E331" s="0" t="inlineStr">
+        <is>
+          <t>Email: rod-augusto2010@hotmail.com
+Fones 011 9 9828-4585</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="inlineStr">
         <is>
-          <t>WILSON FISCHER PROPRIETÁRIO DO GRUPO FISCHER EMPRESAS</t>
+          <t>Jorge K.</t>
         </is>
       </c>
       <c r="B332" s="0" t="inlineStr">
         <is>
-          <t>Proprietário no GRUPO FISCHER EMPRESAS</t>
+          <t>Owner at Oh My Dog! Amazing hot dogs.</t>
         </is>
       </c>
       <c r="C332" s="0" t="inlineStr">
         <is>
-          <t>São Paulo e Região</t>
+          <t>Fortaleza e Região</t>
         </is>
       </c>
       <c r="D332" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E332" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7404,16 +9156,21 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E333" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="0" t="inlineStr">
         <is>
-          <t>Camila Milani Pereira</t>
+          <t>WILSON FISCHER PROPRIETÁRIO DO GRUPO FISCHER EMPRESAS</t>
         </is>
       </c>
       <c r="B334" s="0" t="inlineStr">
         <is>
-          <t>Consultant at Visagio</t>
+          <t>Proprietário no GRUPO FISCHER EMPRESAS</t>
         </is>
       </c>
       <c r="C334" s="0" t="inlineStr">
@@ -7424,6 +9181,11 @@
       <c r="D334" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E334" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7448,16 +9210,21 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E335" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="inlineStr">
         <is>
-          <t>João T.</t>
+          <t>Camila Milani Pereira</t>
         </is>
       </c>
       <c r="B336" s="0" t="inlineStr">
         <is>
-          <t>Diretor na Tagout Bloqueio e Etiquetagem</t>
+          <t>Consultant at Visagio</t>
         </is>
       </c>
       <c r="C336" s="0" t="inlineStr">
@@ -7468,50 +9235,67 @@
       <c r="D336" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E336" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0" t="inlineStr">
         <is>
-          <t>Marcus S.</t>
+          <t>Bruno F.</t>
         </is>
       </c>
       <c r="B337" s="0" t="inlineStr">
         <is>
-          <t>Consultor de Qualidade na Ética Consultoria e Projeto</t>
+          <t>Research Manager, Natural Resources Optimization na IBM</t>
         </is>
       </c>
       <c r="C337" s="0" t="inlineStr">
         <is>
-          <t>Resende e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D337" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E337" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="inlineStr">
         <is>
-          <t>Bruno F.</t>
+          <t>João T.</t>
         </is>
       </c>
       <c r="B338" s="0" t="inlineStr">
         <is>
-          <t>Research Manager, Natural Resources Optimization na IBM</t>
+          <t>Diretor na Tagout Bloqueio e Etiquetagem</t>
         </is>
       </c>
       <c r="C338" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>São Paulo e Região</t>
         </is>
       </c>
       <c r="D338" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E338" s="0" t="inlineStr">
+        <is>
+          <t>+55 19 3876 2186
+Endereço: Rua Mafalda Maria Imperato Pinhata, 71 - Nova Vinhedo – Vinhedo – SP - Brasil
+E-mail: contato@tagout.com.br</t>
         </is>
       </c>
     </row>
@@ -7536,60 +9320,75 @@
           <t> Brasil</t>
         </is>
       </c>
+      <c r="E339" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="0" t="inlineStr">
         <is>
-          <t>Lucas Amorim</t>
+          <t>Marcus S.</t>
         </is>
       </c>
       <c r="B340" s="0" t="inlineStr">
         <is>
-          <t>Estagiario na Visagio Tecnologia</t>
+          <t>Consultor de Qualidade na Ética Consultoria e Projeto</t>
         </is>
       </c>
       <c r="C340" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t>Resende e Região</t>
         </is>
       </c>
       <c r="D340" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E340" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="inlineStr">
         <is>
-          <t>Jorge K.</t>
+          <t>Lucas Amorim</t>
         </is>
       </c>
       <c r="B341" s="0" t="inlineStr">
         <is>
-          <t>Owner at Oh My Dog! Amazing hot dogs.</t>
+          <t>Estagiario na Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C341" s="0" t="inlineStr">
         <is>
-          <t>Fortaleza e Região</t>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D341" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E341" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="inlineStr">
         <is>
-          <t>Isabela P.</t>
+          <t>Lilian T.</t>
         </is>
       </c>
       <c r="B342" s="0" t="inlineStr">
         <is>
-          <t>Student at Universidade Federal Rural do Rio de Janeiro</t>
+          <t>Profissional de Recursos Humanos</t>
         </is>
       </c>
       <c r="C342" s="0" t="inlineStr">
@@ -7600,35 +9399,45 @@
       <c r="D342" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E342" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0" t="inlineStr">
         <is>
-          <t>Nicholas K.</t>
+          <t>Isabela P.</t>
         </is>
       </c>
       <c r="B343" s="0" t="inlineStr">
         <is>
-          <t>Processing Administrator of Business Support Operations na IBM</t>
+          <t>Student at Universidade Federal Rural do Rio de Janeiro</t>
         </is>
       </c>
       <c r="C343" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D343" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E343" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0" t="inlineStr">
         <is>
-          <t>Alessandro Campello</t>
+          <t>Amannda Misael</t>
         </is>
       </c>
       <c r="B344" s="0" t="inlineStr">
@@ -7638,68 +9447,83 @@
       </c>
       <c r="C344" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D344" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E344" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0" t="inlineStr">
         <is>
-          <t>Gisele Alves</t>
+          <t>Igor Blackman</t>
         </is>
       </c>
       <c r="B345" s="0" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>Estudante na Universidade Federal Fluminense</t>
         </is>
       </c>
       <c r="C345" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D345" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E345" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0" t="inlineStr">
         <is>
-          <t>Lilian T.</t>
+          <t>Nicholas K.</t>
         </is>
       </c>
       <c r="B346" s="0" t="inlineStr">
         <is>
-          <t>Profissional de Recursos Humanos</t>
+          <t>Processing Administrator of Business Support Operations na IBM</t>
         </is>
       </c>
       <c r="C346" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D346" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E346" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0" t="inlineStr">
         <is>
-          <t>Igor Ferreira Lima</t>
+          <t>Alessandro Campello</t>
         </is>
       </c>
       <c r="B347" s="0" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>Consultor na Visagio Tecnologia</t>
         </is>
       </c>
       <c r="C347" s="0" t="inlineStr">
@@ -7710,40 +9534,50 @@
       <c r="D347" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E347" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0" t="inlineStr">
         <is>
-          <t>Igor Blackman</t>
+          <t>Gisele Alves</t>
         </is>
       </c>
       <c r="B348" s="0" t="inlineStr">
         <is>
-          <t>Estudante na Universidade Federal Fluminense</t>
+          <t>--</t>
         </is>
       </c>
       <c r="C348" s="0" t="inlineStr">
         <is>
-          <t>Rio de Janeiro e Região</t>
+          <t/>
         </is>
       </c>
       <c r="D348" s="0" t="inlineStr">
         <is>
-          <t> Brasil</t>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E348" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0" t="inlineStr">
         <is>
-          <t>Vinicius Mello</t>
+          <t>Igor Ferreira Lima</t>
         </is>
       </c>
       <c r="B349" s="0" t="inlineStr">
         <is>
-          <t>Consultor na Visagio Tecnologia</t>
+          <t>--</t>
         </is>
       </c>
       <c r="C349" s="0" t="inlineStr">
@@ -7754,13 +9588,18 @@
       <c r="D349" s="0" t="inlineStr">
         <is>
           <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E349" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0" t="inlineStr">
         <is>
-          <t>Amannda Misael</t>
+          <t>Vinicius Mello</t>
         </is>
       </c>
       <c r="B350" s="0" t="inlineStr">
@@ -7770,12 +9609,17 @@
       </c>
       <c r="C350" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>Rio de Janeiro e Região</t>
         </is>
       </c>
       <c r="D350" s="0" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t> Brasil</t>
+        </is>
+      </c>
+      <c r="E350" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
